--- a/assets/schedule/frontier.xlsx
+++ b/assets/schedule/frontier.xlsx
@@ -21,7 +21,7 @@
     <sheet name="Key!!" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="current_date">"2022-05-16 09:30:48.400428"</definedName>
+    <definedName name="current_date">"2022-05-18 17:37:21.732107"</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -1428,7 +1428,6 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
@@ -1446,7 +1445,6 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
@@ -1464,7 +1462,6 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
@@ -1520,11 +1517,6 @@
       <c r="L71" s="17" t="inlineStr">
         <is>
           <t>NF All frontier (18N) (KNE 130 - 300 ppl)</t>
-        </is>
-      </c>
-      <c r="M71" s="17" t="inlineStr">
-        <is>
-          <t>NF DUNE P5 oscillation physics (20O) (HUB 250 - 150 ppl)</t>
         </is>
       </c>
     </row>
@@ -1544,7 +1536,6 @@
       <c r="J72" s="9" t="n"/>
       <c r="K72" s="9" t="n"/>
       <c r="L72" s="9" t="n"/>
-      <c r="M72" s="9" t="n"/>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
@@ -1566,7 +1557,6 @@
       <c r="J73" s="9" t="n"/>
       <c r="K73" s="9" t="n"/>
       <c r="L73" s="9" t="n"/>
-      <c r="M73" s="9" t="n"/>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
@@ -1584,7 +1574,6 @@
       <c r="J74" s="9" t="n"/>
       <c r="K74" s="9" t="n"/>
       <c r="L74" s="9" t="n"/>
-      <c r="M74" s="9" t="n"/>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
@@ -1610,11 +1599,6 @@
       <c r="J75" s="9" t="n"/>
       <c r="K75" s="9" t="n"/>
       <c r="L75" s="9" t="n"/>
-      <c r="M75" s="17" t="inlineStr">
-        <is>
-          <t>NF DUNE P5 BSM (20Y) (KNE 210 - 150 ppl)</t>
-        </is>
-      </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
@@ -1632,7 +1616,6 @@
       <c r="J76" s="9" t="n"/>
       <c r="K76" s="9" t="n"/>
       <c r="L76" s="9" t="n"/>
-      <c r="M76" s="9" t="n"/>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
@@ -1654,7 +1637,6 @@
       <c r="J77" s="9" t="n"/>
       <c r="K77" s="9" t="n"/>
       <c r="L77" s="9" t="n"/>
-      <c r="M77" s="9" t="n"/>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
@@ -1672,7 +1654,6 @@
       <c r="J78" s="9" t="n"/>
       <c r="K78" s="9" t="n"/>
       <c r="L78" s="9" t="n"/>
-      <c r="M78" s="9" t="n"/>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
@@ -1694,7 +1675,6 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
@@ -1712,7 +1692,6 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
@@ -1730,7 +1709,6 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
@@ -1748,7 +1726,6 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
@@ -1770,7 +1747,6 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
@@ -1788,7 +1764,6 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
@@ -1810,7 +1785,6 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
@@ -1828,7 +1802,6 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
@@ -1846,7 +1819,6 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
@@ -1864,7 +1836,6 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
@@ -1886,7 +1857,6 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
@@ -1904,7 +1874,6 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
@@ -1926,7 +1895,6 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
@@ -1944,7 +1912,6 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
@@ -1962,7 +1929,6 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
@@ -1980,7 +1946,6 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
@@ -1998,7 +1963,6 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
@@ -2016,7 +1980,6 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="B97" t="inlineStr">
@@ -2034,7 +1997,6 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
@@ -2718,6 +2680,7 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="B129" t="inlineStr">
@@ -2739,6 +2702,7 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="B130" t="inlineStr">
@@ -2760,6 +2724,7 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="B131" t="inlineStr">
@@ -2817,22 +2782,27 @@
           <t>IF Workshop Plans (HUB 250 - 100 ppl)</t>
         </is>
       </c>
-      <c r="M131" s="19" t="inlineStr">
+      <c r="M131" s="17" t="inlineStr">
+        <is>
+          <t>NF DUNE P5 oscillation physics (20O) (JHN 102 - 150 ppl)</t>
+        </is>
+      </c>
+      <c r="N131" s="19" t="inlineStr">
         <is>
           <t>RF RF6 3 Big Idea + 1 Experimental Summary White Papers (20B) (40 ppl)</t>
         </is>
       </c>
-      <c r="N131" s="22" t="inlineStr">
+      <c r="O131" s="22" t="inlineStr">
         <is>
           <t>TF TF9-TF11 (18C) (HUB 337 - 50 ppl)</t>
         </is>
       </c>
-      <c r="O131" s="20" t="inlineStr">
+      <c r="P131" s="20" t="inlineStr">
         <is>
           <t>UF UF1 (18B) (25 ppl)</t>
         </is>
       </c>
-      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="B132" t="inlineStr">
@@ -2853,7 +2823,8 @@
       <c r="M132" s="9" t="n"/>
       <c r="N132" s="9" t="n"/>
       <c r="O132" s="9" t="n"/>
-      <c r="P132" t="inlineStr"/>
+      <c r="P132" s="9" t="n"/>
+      <c r="Q132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="B133" t="inlineStr">
@@ -2874,7 +2845,8 @@
       <c r="M133" s="9" t="n"/>
       <c r="N133" s="9" t="n"/>
       <c r="O133" s="9" t="n"/>
-      <c r="P133" t="inlineStr"/>
+      <c r="P133" s="9" t="n"/>
+      <c r="Q133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="B134" t="inlineStr">
@@ -2894,12 +2866,13 @@
       <c r="L134" s="9" t="n"/>
       <c r="M134" s="9" t="n"/>
       <c r="N134" s="9" t="n"/>
-      <c r="O134" s="8" t="inlineStr">
+      <c r="O134" s="9" t="n"/>
+      <c r="P134" s="8" t="inlineStr">
         <is>
           <t>XF UF-NF Long Baseline (18Q) (40 ppl)</t>
         </is>
       </c>
-      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="B135" t="inlineStr">
@@ -2921,14 +2894,19 @@
       <c r="J135" s="9" t="n"/>
       <c r="K135" s="9" t="n"/>
       <c r="L135" s="9" t="n"/>
-      <c r="M135" s="19" t="inlineStr">
+      <c r="M135" s="17" t="inlineStr">
+        <is>
+          <t>NF DUNE P5 BSM (20Y) (JHN 102 - 150 ppl)</t>
+        </is>
+      </c>
+      <c r="N135" s="19" t="inlineStr">
         <is>
           <t>RF RF7 Exp And Theory Overview - Hadron Spectroscopy (20R) (40 ppl)</t>
         </is>
       </c>
-      <c r="N135" s="9" t="n"/>
       <c r="O135" s="9" t="n"/>
-      <c r="P135" s="10" t="inlineStr">
+      <c r="P135" s="9" t="n"/>
+      <c r="Q135" s="10" t="inlineStr">
         <is>
           <t>XF UF-IF QIS (22F) (HUB 214 - 50 ppl)</t>
         </is>
@@ -2954,6 +2932,7 @@
       <c r="N136" s="9" t="n"/>
       <c r="O136" s="9" t="n"/>
       <c r="P136" s="9" t="n"/>
+      <c r="Q136" s="9" t="n"/>
     </row>
     <row r="137">
       <c r="B137" t="inlineStr">
@@ -2973,8 +2952,9 @@
       <c r="L137" s="9" t="n"/>
       <c r="M137" s="9" t="n"/>
       <c r="N137" s="9" t="n"/>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" s="9" t="n"/>
+      <c r="O137" s="9" t="n"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" s="9" t="n"/>
     </row>
     <row r="138">
       <c r="B138" t="inlineStr">
@@ -2994,8 +2974,9 @@
       <c r="L138" s="9" t="n"/>
       <c r="M138" s="9" t="n"/>
       <c r="N138" s="9" t="n"/>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" s="9" t="n"/>
+      <c r="O138" s="9" t="n"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" s="9" t="n"/>
     </row>
     <row r="139">
       <c r="B139" t="inlineStr">
@@ -3021,6 +3002,7 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="B140" t="inlineStr">
@@ -3042,6 +3024,7 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="B141" t="inlineStr">
@@ -3063,6 +3046,7 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="B142" t="inlineStr">
@@ -3084,6 +3068,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="B143" t="inlineStr">
@@ -3113,6 +3098,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="B144" t="inlineStr">
@@ -3134,6 +3120,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="B145" t="inlineStr">
@@ -3155,6 +3142,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="B146" t="inlineStr">
@@ -3180,6 +3168,7 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="B147" t="inlineStr">
@@ -3201,6 +3190,7 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="B148" t="inlineStr">
@@ -3222,6 +3212,7 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="B149" t="inlineStr">
@@ -3243,6 +3234,7 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="B150" t="inlineStr">
@@ -3264,6 +3256,7 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="B151" t="inlineStr">
@@ -3285,6 +3278,7 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="B152" t="inlineStr">
@@ -3306,6 +3300,7 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="B153" t="inlineStr">
@@ -3327,6 +3322,7 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="B154" t="inlineStr">
@@ -3352,6 +3348,7 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="B155" t="inlineStr">
@@ -3373,6 +3370,7 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="B156" t="inlineStr">
@@ -3394,6 +3392,7 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="B157" t="inlineStr">
@@ -3415,6 +3414,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="B158" t="inlineStr">
@@ -3530,31 +3530,27 @@
           <t>NF Blue Skye/Very Long Term ideas (21M) (30 ppl)</t>
         </is>
       </c>
-      <c r="L161" s="24" t="inlineStr">
-        <is>
-          <t>NF Optimizing Among Funding Agencies (21L) (30 ppl)</t>
-        </is>
-      </c>
-      <c r="M161" s="22" t="inlineStr">
+      <c r="L161" s="22" t="inlineStr">
         <is>
           <t>TF TF5-TF10 (18D) (JHN 111 - 50 ppl)</t>
         </is>
       </c>
+      <c r="M161" s="8" t="inlineStr">
+        <is>
+          <t>XF EF-CompF EF Centric Discussions (18X) (40 ppl)</t>
+        </is>
+      </c>
       <c r="N161" s="8" t="inlineStr">
         <is>
-          <t>XF EF-CompF EF Centric Discussions (18X) (40 ppl)</t>
-        </is>
-      </c>
-      <c r="O161" s="8" t="inlineStr">
-        <is>
           <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I) (40 ppl)</t>
         </is>
       </c>
-      <c r="P161" s="10" t="inlineStr">
+      <c r="O161" s="10" t="inlineStr">
         <is>
           <t>XF RF-EF-TF RF1 Flavor anomalies and exotics at colliders (22A) (HUB 340 - 50 ppl)</t>
         </is>
       </c>
+      <c r="P161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="B162" t="inlineStr">
@@ -3575,7 +3571,7 @@
       <c r="M162" s="9" t="n"/>
       <c r="N162" s="9" t="n"/>
       <c r="O162" s="9" t="n"/>
-      <c r="P162" s="9" t="n"/>
+      <c r="P162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="B163" t="inlineStr">
@@ -3596,7 +3592,7 @@
       <c r="M163" s="9" t="n"/>
       <c r="N163" s="9" t="n"/>
       <c r="O163" s="9" t="n"/>
-      <c r="P163" s="9" t="n"/>
+      <c r="P163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="B164" t="inlineStr">
@@ -3617,7 +3613,7 @@
       <c r="M164" s="9" t="n"/>
       <c r="N164" s="9" t="n"/>
       <c r="O164" s="9" t="n"/>
-      <c r="P164" s="9" t="n"/>
+      <c r="P164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="B165" t="inlineStr">
@@ -3634,18 +3630,18 @@
       <c r="I165" s="9" t="n"/>
       <c r="J165" s="9" t="n"/>
       <c r="K165" s="9" t="n"/>
-      <c r="L165" s="8" t="inlineStr">
+      <c r="L165" s="9" t="n"/>
+      <c r="M165" s="8" t="inlineStr">
+        <is>
+          <t>XF IF-RF-EF Focus on timing and more generally tracking detectors (21J) (HUB 340 - 40 ppl)</t>
+        </is>
+      </c>
+      <c r="N165" s="9" t="n"/>
+      <c r="O165" s="8" t="inlineStr">
         <is>
           <t>XF RF-CF RF1 large-volume data analysis and simulation and usage of HPC in data analysis (24B) (30 ppl)</t>
         </is>
       </c>
-      <c r="M165" s="9" t="n"/>
-      <c r="N165" s="8" t="inlineStr">
-        <is>
-          <t>XF IF-RF-EF Focus on timing and more generally tracking detectors (21J) (HUB 340 - 40 ppl)</t>
-        </is>
-      </c>
-      <c r="O165" s="9" t="n"/>
       <c r="P165" s="10" t="inlineStr">
         <is>
           <t>XF RF-EF-AF RF5 to discuss CLFV and heavy states (24O) (HUB 340 - 50 ppl)</t>
@@ -4223,7 +4219,7 @@
       </c>
       <c r="F191" s="14" t="inlineStr">
         <is>
-          <t>CompF CompF7 Reinterpretation and long-term preservation of data and code (20D) (20D) (20 ppl)</t>
+          <t>CompF CompF7 Reinterpretation and long-term preservation of data and code (20D) (20 ppl)</t>
         </is>
       </c>
       <c r="G191" s="15" t="inlineStr">
@@ -4251,32 +4247,36 @@
           <t>IF IF9 (24E) (20 ppl)</t>
         </is>
       </c>
-      <c r="L191" s="19" t="inlineStr">
+      <c r="L191" s="24" t="inlineStr">
+        <is>
+          <t>NF Optimizing Among Funding Agencies (21L) (30 ppl)</t>
+        </is>
+      </c>
+      <c r="M191" s="19" t="inlineStr">
         <is>
           <t>RF RF3 Discussions (21B) (40 ppl)</t>
         </is>
       </c>
-      <c r="M191" s="22" t="inlineStr">
+      <c r="N191" s="22" t="inlineStr">
         <is>
           <t>TF TF4b-TF6-TF7 (18F) (HUB 337 - 50 ppl)</t>
         </is>
       </c>
-      <c r="N191" s="8" t="inlineStr">
+      <c r="O191" s="8" t="inlineStr">
         <is>
           <t>XF AF-EF Accelerator R&amp;D Overseas (22G) (40 ppl)</t>
         </is>
       </c>
-      <c r="O191" s="8" t="inlineStr">
+      <c r="P191" s="8" t="inlineStr">
         <is>
           <t>XF NF-EF Cross-cutting issues (22H) (30 ppl)</t>
         </is>
       </c>
-      <c r="P191" s="10" t="inlineStr">
+      <c r="Q191" s="10" t="inlineStr">
         <is>
           <t>XF TF-CompF QIS (21Z) (HUB 214 - 50 ppl)</t>
         </is>
       </c>
-      <c r="Q191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="B192" t="inlineStr">
@@ -4298,7 +4298,7 @@
       <c r="N192" s="9" t="n"/>
       <c r="O192" s="9" t="n"/>
       <c r="P192" s="9" t="n"/>
-      <c r="Q192" t="inlineStr"/>
+      <c r="Q192" s="9" t="n"/>
     </row>
     <row r="193">
       <c r="B193" t="inlineStr">
@@ -4320,7 +4320,7 @@
       <c r="N193" s="9" t="n"/>
       <c r="O193" s="9" t="n"/>
       <c r="P193" s="9" t="n"/>
-      <c r="Q193" t="inlineStr"/>
+      <c r="Q193" s="9" t="n"/>
     </row>
     <row r="194">
       <c r="B194" t="inlineStr">
@@ -4342,7 +4342,7 @@
       <c r="N194" s="9" t="n"/>
       <c r="O194" s="9" t="n"/>
       <c r="P194" s="9" t="n"/>
-      <c r="Q194" t="inlineStr"/>
+      <c r="Q194" s="9" t="n"/>
     </row>
     <row r="195">
       <c r="B195" t="inlineStr">
@@ -4368,12 +4368,12 @@
           <t>RF RF5 Discussions (21R) (40 ppl)</t>
         </is>
       </c>
-      <c r="M195" s="9" t="n"/>
-      <c r="N195" s="20" t="inlineStr">
+      <c r="M195" s="20" t="inlineStr">
         <is>
           <t>UF UF5 UF3 (22Q) (25 ppl)</t>
         </is>
       </c>
+      <c r="N195" s="9" t="n"/>
       <c r="O195" s="8" t="inlineStr">
         <is>
           <t>XF EF-AF combined EF/AF report discussion (21V) (30 ppl)</t>
@@ -4428,8 +4428,8 @@
       <c r="J197" s="9" t="n"/>
       <c r="K197" s="9" t="n"/>
       <c r="L197" s="9" t="n"/>
-      <c r="M197" s="9" t="n"/>
-      <c r="N197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" s="9" t="n"/>
       <c r="O197" s="9" t="n"/>
       <c r="P197" s="9" t="n"/>
       <c r="Q197" s="9" t="n"/>
@@ -4450,8 +4450,8 @@
       <c r="J198" s="9" t="n"/>
       <c r="K198" s="9" t="n"/>
       <c r="L198" s="9" t="n"/>
-      <c r="M198" s="9" t="n"/>
-      <c r="N198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" s="9" t="n"/>
       <c r="O198" s="9" t="n"/>
       <c r="P198" s="9" t="n"/>
       <c r="Q198" s="9" t="n"/>
@@ -5123,7 +5123,7 @@
       <c r="L225" s="9" t="n"/>
       <c r="M225" s="10" t="inlineStr">
         <is>
-          <t>XF NF-TF Neutrino theory network (22K) (50 ppl)</t>
+          <t>XF NF-TF Neutrino theory network (22K) (KNE 110 - 50 ppl)</t>
         </is>
       </c>
       <c r="N225" s="9" t="n"/>
@@ -5770,49 +5770,49 @@
           <t>AF All frontier (KNE 120 - 150 ppl)</t>
         </is>
       </c>
-      <c r="D255" s="21" t="inlineStr">
+      <c r="D255" s="12" t="inlineStr">
+        <is>
+          <t>AF Success Stories from AF (22D) (30 ppl)</t>
+        </is>
+      </c>
+      <c r="E255" s="21" t="inlineStr">
         <is>
           <t>IF Report (24D) (JHN 102 - 100 ppl)</t>
         </is>
       </c>
-      <c r="E255" s="17" t="inlineStr">
+      <c r="F255" s="17" t="inlineStr">
         <is>
           <t>NF NF2 (20J) (JHN 175 - 60 ppl)</t>
         </is>
       </c>
-      <c r="F255" s="24" t="inlineStr">
+      <c r="G255" s="24" t="inlineStr">
         <is>
           <t>NF NF4 (20H) (30 ppl)</t>
         </is>
       </c>
-      <c r="G255" s="22" t="inlineStr">
+      <c r="H255" s="24" t="inlineStr">
+        <is>
+          <t>NF Success stories from NF (22I) (20 ppl)</t>
+        </is>
+      </c>
+      <c r="I255" s="22" t="inlineStr">
         <is>
           <t>TF Discussion and frontier reports (19P) (KNE 220 - 175 ppl)</t>
         </is>
       </c>
-      <c r="H255" s="20" t="inlineStr">
+      <c r="J255" s="20" t="inlineStr">
         <is>
           <t>UF UF6 (23B) (25 ppl)</t>
         </is>
       </c>
-      <c r="I255" s="8" t="inlineStr">
-        <is>
-          <t>XF AF Success Stories from AF (22D) (30 ppl)</t>
-        </is>
-      </c>
-      <c r="J255" s="10" t="inlineStr">
+      <c r="K255" s="10" t="inlineStr">
         <is>
           <t>XF AF-CompF Cross-cutting issues (22E) (JHN 075 - 70 ppl)</t>
         </is>
       </c>
-      <c r="K255" s="8" t="inlineStr">
+      <c r="L255" s="8" t="inlineStr">
         <is>
           <t>XF AF-RF cross-cutting issues (22B) (40 ppl)</t>
-        </is>
-      </c>
-      <c r="L255" s="8" t="inlineStr">
-        <is>
-          <t>XF NF Success stories from NF (22I) (20 ppl)</t>
         </is>
       </c>
       <c r="M255" s="8" t="inlineStr">
@@ -5889,9 +5889,9 @@
       <c r="E258" s="9" t="n"/>
       <c r="F258" s="9" t="n"/>
       <c r="G258" s="9" t="n"/>
-      <c r="H258" t="inlineStr"/>
+      <c r="H258" s="9" t="n"/>
       <c r="I258" s="9" t="n"/>
-      <c r="J258" s="9" t="n"/>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" s="9" t="n"/>
       <c r="L258" s="9" t="n"/>
       <c r="M258" s="9" t="n"/>
@@ -6840,11 +6840,9 @@
     <mergeCell ref="J71:J78"/>
     <mergeCell ref="K71:K78"/>
     <mergeCell ref="L71:L78"/>
-    <mergeCell ref="M71:M74"/>
     <mergeCell ref="E73:E74"/>
     <mergeCell ref="E75:E76"/>
     <mergeCell ref="F75:F78"/>
-    <mergeCell ref="M75:M78"/>
     <mergeCell ref="E77:E78"/>
     <mergeCell ref="C79:C82"/>
     <mergeCell ref="C83:C84"/>
@@ -6885,12 +6883,14 @@
     <mergeCell ref="K131:K138"/>
     <mergeCell ref="L131:L138"/>
     <mergeCell ref="M131:M134"/>
-    <mergeCell ref="N131:N138"/>
-    <mergeCell ref="O131:O133"/>
-    <mergeCell ref="O134:O136"/>
+    <mergeCell ref="N131:N134"/>
+    <mergeCell ref="O131:O138"/>
+    <mergeCell ref="P131:P133"/>
+    <mergeCell ref="P134:P136"/>
     <mergeCell ref="F135:F138"/>
     <mergeCell ref="M135:M138"/>
-    <mergeCell ref="P135:P138"/>
+    <mergeCell ref="N135:N138"/>
+    <mergeCell ref="Q135:Q138"/>
     <mergeCell ref="C139:C142"/>
     <mergeCell ref="C143:C145"/>
     <mergeCell ref="D143:D145"/>
@@ -6905,13 +6905,12 @@
     <mergeCell ref="I161:I168"/>
     <mergeCell ref="J161:J168"/>
     <mergeCell ref="K161:K168"/>
-    <mergeCell ref="L161:L164"/>
-    <mergeCell ref="M161:M168"/>
-    <mergeCell ref="N161:N164"/>
-    <mergeCell ref="O161:O168"/>
-    <mergeCell ref="P161:P164"/>
-    <mergeCell ref="L165:L168"/>
-    <mergeCell ref="N165:N168"/>
+    <mergeCell ref="L161:L168"/>
+    <mergeCell ref="M161:M164"/>
+    <mergeCell ref="N161:N168"/>
+    <mergeCell ref="O161:O164"/>
+    <mergeCell ref="M165:M168"/>
+    <mergeCell ref="O165:O168"/>
     <mergeCell ref="P165:P168"/>
     <mergeCell ref="C169:C172"/>
     <mergeCell ref="C173:C175"/>
@@ -6928,13 +6927,14 @@
     <mergeCell ref="J191:J198"/>
     <mergeCell ref="K191:K198"/>
     <mergeCell ref="L191:L194"/>
-    <mergeCell ref="M191:M198"/>
-    <mergeCell ref="N191:N194"/>
+    <mergeCell ref="M191:M194"/>
+    <mergeCell ref="N191:N198"/>
     <mergeCell ref="O191:O194"/>
     <mergeCell ref="P191:P194"/>
+    <mergeCell ref="Q191:Q194"/>
     <mergeCell ref="F195:F198"/>
     <mergeCell ref="L195:L198"/>
-    <mergeCell ref="N195:N196"/>
+    <mergeCell ref="M195:M196"/>
     <mergeCell ref="O195:O198"/>
     <mergeCell ref="P195:P198"/>
     <mergeCell ref="Q196:Q199"/>
@@ -6970,9 +6970,9 @@
     <mergeCell ref="E255:E258"/>
     <mergeCell ref="F255:F258"/>
     <mergeCell ref="G255:G258"/>
-    <mergeCell ref="H255:H257"/>
+    <mergeCell ref="H255:H258"/>
     <mergeCell ref="I255:I258"/>
-    <mergeCell ref="J255:J258"/>
+    <mergeCell ref="J255:J257"/>
     <mergeCell ref="K255:K258"/>
     <mergeCell ref="L255:L258"/>
     <mergeCell ref="M255:M258"/>
@@ -8860,88 +8860,88 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>HUB 250</t>
+          <t>KNE 130</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>181</v>
+        <v>723</v>
       </c>
       <c r="G4" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>NF DUNE P5 oscillation physics (20O)</t>
+          <t>NF All frontier (18N)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>7-18</t>
+          <t>7-19</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>KNE 130</t>
+          <t>KNE 120</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>723</v>
+        <v>435</v>
       </c>
       <c r="G5" t="n">
-        <v>300</v>
+        <v>150</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>NF All frontier (18N)</t>
+          <t>NF DUNE P5 Detector technology (20N)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>7-18</t>
+          <t>7-19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>10am-11:30am</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>KNE 210</t>
+          <t>JHN 102</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>242</v>
+        <v>195</v>
       </c>
       <c r="G6" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>NF DUNE P5 BSM (20Y)</t>
+          <t>XF UF-NF-RF 0nuBB from Natural Sources (19A)</t>
         </is>
       </c>
     </row>
@@ -8953,7 +8953,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -8961,34 +8961,34 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>KNE 120</t>
+          <t>KNE 110</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>435</v>
+        <v>223</v>
       </c>
       <c r="G7" t="n">
         <v>150</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>NF DUNE P5 Detector technology (20N)</t>
+          <t>NF DUNE P5 Expanded Phys Scope (20X)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>7-19</t>
+          <t>7-20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10am-11:30am</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -8999,42 +8999,42 @@
         <v>195</v>
       </c>
       <c r="G8" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>XF UF-NF-RF 0nuBB from Natural Sources (19A)</t>
+          <t>NF DUNE P5 oscillation physics (20O)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>7-19</t>
+          <t>7-20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>9:30am-11am</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KNE 110</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>223</v>
-      </c>
-      <c r="G9" t="n">
-        <v>150</v>
+        <v>1.5</v>
+      </c>
+      <c r="E9" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F9" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="29" t="n">
+        <v>40</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>NF DUNE P5 Expanded Phys Scope (20X)</t>
+          <t>XF UF-NF Long Baseline (18Q)</t>
         </is>
       </c>
     </row>
@@ -9046,26 +9046,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9:30am-11am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E10" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F10" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="29" t="n">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>JHN 102</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>195</v>
+      </c>
+      <c r="G10" t="n">
+        <v>150</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>XF UF-NF Long Baseline (18Q)</t>
+          <t>NF DUNE P5 BSM (20Y)</t>
         </is>
       </c>
     </row>
@@ -9077,11 +9077,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E11" s="28" t="inlineStr">
         <is>
@@ -9092,11 +9092,11 @@
         <v>-1</v>
       </c>
       <c r="G11" s="29" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>NF Optimizing Among Funding Agencies (21L)</t>
+          <t>NF Beyond Neutrino Mass of precision beta-decay (21K)</t>
         </is>
       </c>
     </row>
@@ -9123,27 +9123,27 @@
         <v>-1</v>
       </c>
       <c r="G12" s="29" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>NF Beyond Neutrino Mass of precision beta-decay (21K)</t>
+          <t>NF Blue Skye/Very Long Term ideas (21M)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" s="28" t="inlineStr">
         <is>
@@ -9158,7 +9158,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>NF Blue Skye/Very Long Term ideas (21M)</t>
+          <t>XF NF-EF Cross-cutting issues (22H)</t>
         </is>
       </c>
     </row>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>XF NF-EF Cross-cutting issues (22H)</t>
+          <t>NF Optimizing Among Funding Agencies (21L)</t>
         </is>
       </c>
     </row>
@@ -9331,15 +9331,15 @@
       <c r="D19" t="n">
         <v>2</v>
       </c>
-      <c r="E19" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F19" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G19" s="29" t="n">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>KNE 110</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>223</v>
+      </c>
+      <c r="G19" t="n">
         <v>50</v>
       </c>
       <c r="H19" t="inlineStr">
@@ -9375,7 +9375,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>XF NF Success stories from NF (22I)</t>
+          <t>NF Success stories from NF (22I)</t>
         </is>
       </c>
     </row>
@@ -11147,15 +11147,15 @@
       <c r="D15" t="n">
         <v>2</v>
       </c>
-      <c r="E15" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F15" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="29" t="n">
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>KNE 110</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>223</v>
+      </c>
+      <c r="G15" t="n">
         <v>50</v>
       </c>
       <c r="H15" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>XF AF Success Stories from AF (22D)</t>
+          <t>AF Success Stories from AF (22D)</t>
         </is>
       </c>
     </row>
@@ -13038,7 +13038,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>CompF CompF7 Reinterpretation and long-term preservation of data and code (20D) (20D)</t>
+          <t>CompF CompF7 Reinterpretation and long-term preservation of data and code (20D)</t>
         </is>
       </c>
     </row>

--- a/assets/schedule/frontier.xlsx
+++ b/assets/schedule/frontier.xlsx
@@ -21,7 +21,7 @@
     <sheet name="Key!!" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="current_date">"2022-05-18 17:37:21.732107"</definedName>
+    <definedName name="current_date">"2022-05-20 00:50:47.845288"</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -1516,7 +1516,7 @@
       </c>
       <c r="L71" s="17" t="inlineStr">
         <is>
-          <t>NF All frontier (18N) (KNE 130 - 300 ppl)</t>
+          <t>NF All-Frontier (18N) (KNE 130 - 300 ppl)</t>
         </is>
       </c>
     </row>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="J101" s="17" t="inlineStr">
         <is>
-          <t>NF DUNE P5 Detector technology (20N) (KNE 120 - 150 ppl)</t>
+          <t>NF DUNE P5 Strategy (Detector Technology) (20N) (KNE 120 - 150 ppl)</t>
         </is>
       </c>
       <c r="K101" s="19" t="inlineStr">
@@ -2179,7 +2179,7 @@
       <c r="I104" s="9" t="n"/>
       <c r="J104" s="9" t="n"/>
       <c r="K104" s="9" t="n"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" s="9" t="n"/>
       <c r="M104" s="9" t="n"/>
       <c r="N104" s="9" t="n"/>
     </row>
@@ -2206,7 +2206,7 @@
       <c r="I105" s="9" t="n"/>
       <c r="J105" s="17" t="inlineStr">
         <is>
-          <t>NF DUNE P5 Expanded Phys Scope (20X) (KNE 110 - 150 ppl)</t>
+          <t>NF DUNE P5 Strategy (Expanded Physics Scope in Phase II) (20X) (KNE 110 - 150 ppl)</t>
         </is>
       </c>
       <c r="K105" s="19" t="inlineStr">
@@ -2279,7 +2279,7 @@
       <c r="I108" s="9" t="n"/>
       <c r="J108" s="9" t="n"/>
       <c r="K108" s="9" t="n"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" s="9" t="n"/>
       <c r="M108" s="9" t="n"/>
       <c r="N108" s="9" t="n"/>
     </row>
@@ -2680,7 +2680,6 @@
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
       <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="B129" t="inlineStr">
@@ -2702,7 +2701,6 @@
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
       <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="B130" t="inlineStr">
@@ -2724,7 +2722,6 @@
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
       <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="B131" t="inlineStr">
@@ -2784,7 +2781,7 @@
       </c>
       <c r="M131" s="17" t="inlineStr">
         <is>
-          <t>NF DUNE P5 oscillation physics (20O) (JHN 102 - 150 ppl)</t>
+          <t>NF DUNE P5 Strategy (Oscillation Physics) (20O) (JHN 102 - 150 ppl)</t>
         </is>
       </c>
       <c r="N131" s="19" t="inlineStr">
@@ -2802,7 +2799,6 @@
           <t>UF UF1 (18B) (25 ppl)</t>
         </is>
       </c>
-      <c r="Q131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="B132" t="inlineStr">
@@ -2824,7 +2820,6 @@
       <c r="N132" s="9" t="n"/>
       <c r="O132" s="9" t="n"/>
       <c r="P132" s="9" t="n"/>
-      <c r="Q132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="B133" t="inlineStr">
@@ -2846,7 +2841,6 @@
       <c r="N133" s="9" t="n"/>
       <c r="O133" s="9" t="n"/>
       <c r="P133" s="9" t="n"/>
-      <c r="Q133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="B134" t="inlineStr">
@@ -2867,12 +2861,7 @@
       <c r="M134" s="9" t="n"/>
       <c r="N134" s="9" t="n"/>
       <c r="O134" s="9" t="n"/>
-      <c r="P134" s="8" t="inlineStr">
-        <is>
-          <t>XF UF-NF Long Baseline (18Q) (40 ppl)</t>
-        </is>
-      </c>
-      <c r="Q134" t="inlineStr"/>
+      <c r="P134" s="9" t="n"/>
     </row>
     <row r="135">
       <c r="B135" t="inlineStr">
@@ -2896,7 +2885,7 @@
       <c r="L135" s="9" t="n"/>
       <c r="M135" s="17" t="inlineStr">
         <is>
-          <t>NF DUNE P5 BSM (20Y) (JHN 102 - 150 ppl)</t>
+          <t>NF DUNE P5 Strategy (BSM Physics) (20Y) (JHN 102 - 150 ppl)</t>
         </is>
       </c>
       <c r="N135" s="19" t="inlineStr">
@@ -2905,10 +2894,9 @@
         </is>
       </c>
       <c r="O135" s="9" t="n"/>
-      <c r="P135" s="9" t="n"/>
-      <c r="Q135" s="10" t="inlineStr">
-        <is>
-          <t>XF UF-IF QIS (22F) (HUB 214 - 50 ppl)</t>
+      <c r="P135" s="8" t="inlineStr">
+        <is>
+          <t>XF UF-NF Long Baseline (18Q) (40 ppl)</t>
         </is>
       </c>
     </row>
@@ -2932,7 +2920,6 @@
       <c r="N136" s="9" t="n"/>
       <c r="O136" s="9" t="n"/>
       <c r="P136" s="9" t="n"/>
-      <c r="Q136" s="9" t="n"/>
     </row>
     <row r="137">
       <c r="B137" t="inlineStr">
@@ -2953,8 +2940,7 @@
       <c r="M137" s="9" t="n"/>
       <c r="N137" s="9" t="n"/>
       <c r="O137" s="9" t="n"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" s="9" t="n"/>
+      <c r="P137" s="9" t="n"/>
     </row>
     <row r="138">
       <c r="B138" t="inlineStr">
@@ -2975,8 +2961,7 @@
       <c r="M138" s="9" t="n"/>
       <c r="N138" s="9" t="n"/>
       <c r="O138" s="9" t="n"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" s="9" t="n"/>
+      <c r="P138" s="9" t="n"/>
     </row>
     <row r="139">
       <c r="B139" t="inlineStr">
@@ -3002,7 +2987,6 @@
       <c r="N139" t="inlineStr"/>
       <c r="O139" t="inlineStr"/>
       <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="B140" t="inlineStr">
@@ -3024,7 +3008,6 @@
       <c r="N140" t="inlineStr"/>
       <c r="O140" t="inlineStr"/>
       <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="B141" t="inlineStr">
@@ -3046,7 +3029,6 @@
       <c r="N141" t="inlineStr"/>
       <c r="O141" t="inlineStr"/>
       <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="B142" t="inlineStr">
@@ -3068,7 +3050,6 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr"/>
       <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="B143" t="inlineStr">
@@ -3098,7 +3079,6 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr"/>
       <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="B144" t="inlineStr">
@@ -3120,7 +3100,6 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr"/>
       <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="B145" t="inlineStr">
@@ -3142,7 +3121,6 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr"/>
       <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="B146" t="inlineStr">
@@ -3168,7 +3146,6 @@
       <c r="N146" t="inlineStr"/>
       <c r="O146" t="inlineStr"/>
       <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="B147" t="inlineStr">
@@ -3190,7 +3167,6 @@
       <c r="N147" t="inlineStr"/>
       <c r="O147" t="inlineStr"/>
       <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="B148" t="inlineStr">
@@ -3212,7 +3188,6 @@
       <c r="N148" t="inlineStr"/>
       <c r="O148" t="inlineStr"/>
       <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="B149" t="inlineStr">
@@ -3234,7 +3209,6 @@
       <c r="N149" t="inlineStr"/>
       <c r="O149" t="inlineStr"/>
       <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="B150" t="inlineStr">
@@ -3256,7 +3230,6 @@
       <c r="N150" t="inlineStr"/>
       <c r="O150" t="inlineStr"/>
       <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="B151" t="inlineStr">
@@ -3278,7 +3251,6 @@
       <c r="N151" t="inlineStr"/>
       <c r="O151" t="inlineStr"/>
       <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="B152" t="inlineStr">
@@ -3300,7 +3272,6 @@
       <c r="N152" t="inlineStr"/>
       <c r="O152" t="inlineStr"/>
       <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="B153" t="inlineStr">
@@ -3322,7 +3293,6 @@
       <c r="N153" t="inlineStr"/>
       <c r="O153" t="inlineStr"/>
       <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="B154" t="inlineStr">
@@ -3348,7 +3318,6 @@
       <c r="N154" t="inlineStr"/>
       <c r="O154" t="inlineStr"/>
       <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="B155" t="inlineStr">
@@ -3370,7 +3339,6 @@
       <c r="N155" t="inlineStr"/>
       <c r="O155" t="inlineStr"/>
       <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="B156" t="inlineStr">
@@ -3392,7 +3360,6 @@
       <c r="N156" t="inlineStr"/>
       <c r="O156" t="inlineStr"/>
       <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="B157" t="inlineStr">
@@ -3414,7 +3381,6 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr"/>
       <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="B158" t="inlineStr">
@@ -3522,7 +3488,7 @@
       </c>
       <c r="J161" s="24" t="inlineStr">
         <is>
-          <t>NF Beyond Neutrino Mass of precision beta-decay (21K) (20 ppl)</t>
+          <t>NF Beyond neutrino mass physics reach of precision beta-decay experiments (21K) (20 ppl)</t>
         </is>
       </c>
       <c r="K161" s="24" t="inlineStr">
@@ -3532,7 +3498,7 @@
       </c>
       <c r="L161" s="22" t="inlineStr">
         <is>
-          <t>TF TF5-TF10 (18D) (JHN 111 - 50 ppl)</t>
+          <t>TF TF2-TF5 (18D) (JHN 111 - 50 ppl)</t>
         </is>
       </c>
       <c r="M161" s="8" t="inlineStr">
@@ -3550,7 +3516,11 @@
           <t>XF RF-EF-TF RF1 Flavor anomalies and exotics at colliders (22A) (HUB 340 - 50 ppl)</t>
         </is>
       </c>
-      <c r="P161" t="inlineStr"/>
+      <c r="P161" s="10" t="inlineStr">
+        <is>
+          <t>XF UF-IF QIS (22F) (HUB 337 - 50 ppl)</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="B162" t="inlineStr">
@@ -3571,7 +3541,7 @@
       <c r="M162" s="9" t="n"/>
       <c r="N162" s="9" t="n"/>
       <c r="O162" s="9" t="n"/>
-      <c r="P162" t="inlineStr"/>
+      <c r="P162" s="9" t="n"/>
     </row>
     <row r="163">
       <c r="B163" t="inlineStr">
@@ -3592,7 +3562,7 @@
       <c r="M163" s="9" t="n"/>
       <c r="N163" s="9" t="n"/>
       <c r="O163" s="9" t="n"/>
-      <c r="P163" t="inlineStr"/>
+      <c r="P163" s="9" t="n"/>
     </row>
     <row r="164">
       <c r="B164" t="inlineStr">
@@ -3613,7 +3583,7 @@
       <c r="M164" s="9" t="n"/>
       <c r="N164" s="9" t="n"/>
       <c r="O164" s="9" t="n"/>
-      <c r="P164" t="inlineStr"/>
+      <c r="P164" s="9" t="n"/>
     </row>
     <row r="165">
       <c r="B165" t="inlineStr">
@@ -4428,7 +4398,7 @@
       <c r="J197" s="9" t="n"/>
       <c r="K197" s="9" t="n"/>
       <c r="L197" s="9" t="n"/>
-      <c r="M197" t="inlineStr"/>
+      <c r="M197" s="9" t="n"/>
       <c r="N197" s="9" t="n"/>
       <c r="O197" s="9" t="n"/>
       <c r="P197" s="9" t="n"/>
@@ -4450,7 +4420,7 @@
       <c r="J198" s="9" t="n"/>
       <c r="K198" s="9" t="n"/>
       <c r="L198" s="9" t="n"/>
-      <c r="M198" t="inlineStr"/>
+      <c r="M198" s="9" t="n"/>
       <c r="N198" s="9" t="n"/>
       <c r="O198" s="9" t="n"/>
       <c r="P198" s="9" t="n"/>
@@ -4965,7 +4935,7 @@
       </c>
       <c r="C221" s="23" t="inlineStr">
         <is>
-          <t>AF All frontier (18M) (KNE 110 - 150 ppl)</t>
+          <t>AF All-Frontier (18M) (KNE 110 - 150 ppl)</t>
         </is>
       </c>
       <c r="D221" s="23" t="inlineStr">
@@ -4983,19 +4953,19 @@
           <t>IF Report (JHN 075 - 100 ppl)</t>
         </is>
       </c>
-      <c r="G221" s="17" t="inlineStr">
-        <is>
-          <t>NF Topical Group 1 (20K) (JHN 102 - 60 ppl)</t>
-        </is>
-      </c>
-      <c r="H221" s="24" t="inlineStr">
-        <is>
-          <t>NF Topical Group 3 (20I) (30 ppl)</t>
+      <c r="G221" s="24" t="inlineStr">
+        <is>
+          <t>NF Early Career Presentations (Topic 1) (20I) (30 ppl)</t>
+        </is>
+      </c>
+      <c r="H221" s="17" t="inlineStr">
+        <is>
+          <t>NF Early Career Presentations (Topic 2) (20K) (JHN 102 - 60 ppl)</t>
         </is>
       </c>
       <c r="I221" s="26" t="inlineStr">
         <is>
-          <t>RF All Frontier Discussions (23Y) (KNE 220 - 140 ppl)</t>
+          <t>RF All-Frontier Discussions (23Y) (KNE 220 - 140 ppl)</t>
         </is>
       </c>
       <c r="J221" s="27" t="inlineStr">
@@ -5005,7 +4975,7 @@
       </c>
       <c r="K221" s="22" t="inlineStr">
         <is>
-          <t>TF TF2-TF8 (18E) (JHN 111 - 50 ppl)</t>
+          <t>TF TF8-TF10 (18E) (JHN 111 - 50 ppl)</t>
         </is>
       </c>
       <c r="L221" s="8" t="inlineStr">
@@ -5767,7 +5737,7 @@
       </c>
       <c r="C255" s="23" t="inlineStr">
         <is>
-          <t>AF All frontier (KNE 120 - 150 ppl)</t>
+          <t>AF All-Frontier (KNE 120 - 150 ppl)</t>
         </is>
       </c>
       <c r="D255" s="12" t="inlineStr">
@@ -5780,19 +5750,19 @@
           <t>IF Report (24D) (JHN 102 - 100 ppl)</t>
         </is>
       </c>
-      <c r="F255" s="17" t="inlineStr">
-        <is>
-          <t>NF NF2 (20J) (JHN 175 - 60 ppl)</t>
+      <c r="F255" s="24" t="inlineStr">
+        <is>
+          <t>NF Community Engagement Success Stories (22I) (20 ppl)</t>
         </is>
       </c>
       <c r="G255" s="24" t="inlineStr">
         <is>
-          <t>NF NF4 (20H) (30 ppl)</t>
-        </is>
-      </c>
-      <c r="H255" s="24" t="inlineStr">
-        <is>
-          <t>NF Success stories from NF (22I) (20 ppl)</t>
+          <t>NF Early Career Presentations (Topic 3) (20H) (30 ppl)</t>
+        </is>
+      </c>
+      <c r="H255" s="17" t="inlineStr">
+        <is>
+          <t>NF Early Career Presentations (Topic 4) (20J) (JHN 175 - 60 ppl)</t>
         </is>
       </c>
       <c r="I255" s="22" t="inlineStr">
@@ -5891,7 +5861,7 @@
       <c r="G258" s="9" t="n"/>
       <c r="H258" s="9" t="n"/>
       <c r="I258" s="9" t="n"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" s="9" t="n"/>
       <c r="K258" s="9" t="n"/>
       <c r="L258" s="9" t="n"/>
       <c r="M258" s="9" t="n"/>
@@ -6858,7 +6828,7 @@
     <mergeCell ref="I101:I108"/>
     <mergeCell ref="J101:J104"/>
     <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L103"/>
+    <mergeCell ref="L101:L104"/>
     <mergeCell ref="M101:M108"/>
     <mergeCell ref="N101:N108"/>
     <mergeCell ref="F103:F104"/>
@@ -6866,7 +6836,7 @@
     <mergeCell ref="G105:G108"/>
     <mergeCell ref="J105:J108"/>
     <mergeCell ref="K105:K108"/>
-    <mergeCell ref="L105:L107"/>
+    <mergeCell ref="L105:L108"/>
     <mergeCell ref="F107:F108"/>
     <mergeCell ref="C109:C112"/>
     <mergeCell ref="C113:C115"/>
@@ -6885,12 +6855,11 @@
     <mergeCell ref="M131:M134"/>
     <mergeCell ref="N131:N134"/>
     <mergeCell ref="O131:O138"/>
-    <mergeCell ref="P131:P133"/>
-    <mergeCell ref="P134:P136"/>
+    <mergeCell ref="P131:P134"/>
     <mergeCell ref="F135:F138"/>
     <mergeCell ref="M135:M138"/>
     <mergeCell ref="N135:N138"/>
-    <mergeCell ref="Q135:Q138"/>
+    <mergeCell ref="P135:P138"/>
     <mergeCell ref="C139:C142"/>
     <mergeCell ref="C143:C145"/>
     <mergeCell ref="D143:D145"/>
@@ -6909,6 +6878,7 @@
     <mergeCell ref="M161:M164"/>
     <mergeCell ref="N161:N168"/>
     <mergeCell ref="O161:O164"/>
+    <mergeCell ref="P161:P164"/>
     <mergeCell ref="M165:M168"/>
     <mergeCell ref="O165:O168"/>
     <mergeCell ref="P165:P168"/>
@@ -6934,7 +6904,7 @@
     <mergeCell ref="Q191:Q194"/>
     <mergeCell ref="F195:F198"/>
     <mergeCell ref="L195:L198"/>
-    <mergeCell ref="M195:M196"/>
+    <mergeCell ref="M195:M198"/>
     <mergeCell ref="O195:O198"/>
     <mergeCell ref="P195:P198"/>
     <mergeCell ref="Q196:Q199"/>
@@ -6972,7 +6942,7 @@
     <mergeCell ref="G255:G258"/>
     <mergeCell ref="H255:H258"/>
     <mergeCell ref="I255:I258"/>
-    <mergeCell ref="J255:J257"/>
+    <mergeCell ref="J255:J258"/>
     <mergeCell ref="K255:K258"/>
     <mergeCell ref="L255:L258"/>
     <mergeCell ref="M255:M258"/>
@@ -7066,11 +7036,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8am-9:30am</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E4" s="28" t="inlineStr">
         <is>
@@ -7097,11 +7067,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10am-11:30am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -7128,11 +7098,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8am-9:30am</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E6" s="28" t="inlineStr">
         <is>
@@ -7159,11 +7129,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9:30am-11am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E7" s="28" t="inlineStr">
         <is>
@@ -7185,12 +7155,12 @@
     <row r="8">
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>7-20</t>
+          <t>7-21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7198,11 +7168,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>HUB 214</t>
+          <t>HUB 337</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
         <v>50</v>
@@ -7221,11 +7191,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10am-11am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="28" t="inlineStr">
         <is>
@@ -7314,11 +7284,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10am-11:30am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E12" s="28" t="inlineStr">
         <is>
@@ -8879,7 +8849,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>NF All frontier (18N)</t>
+          <t>NF All-Frontier (18N)</t>
         </is>
       </c>
     </row>
@@ -8910,7 +8880,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>NF DUNE P5 Detector technology (20N)</t>
+          <t>NF DUNE P5 Strategy (Detector Technology) (20N)</t>
         </is>
       </c>
     </row>
@@ -8922,11 +8892,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10am-11:30am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -8972,7 +8942,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>NF DUNE P5 Expanded Phys Scope (20X)</t>
+          <t>NF DUNE P5 Strategy (Expanded Physics Scope in Phase II) (20X)</t>
         </is>
       </c>
     </row>
@@ -9003,7 +8973,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>NF DUNE P5 oscillation physics (20O)</t>
+          <t>NF DUNE P5 Strategy (Oscillation Physics) (20O)</t>
         </is>
       </c>
     </row>
@@ -9015,11 +8985,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9:30am-11am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E9" s="28" t="inlineStr">
         <is>
@@ -9065,7 +9035,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>NF DUNE P5 BSM (20Y)</t>
+          <t>NF DUNE P5 Strategy (BSM Physics) (20Y)</t>
         </is>
       </c>
     </row>
@@ -9096,7 +9066,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>NF Beyond Neutrino Mass of precision beta-decay (21K)</t>
+          <t>NF Beyond neutrino mass physics reach of precision beta-decay experiments (21K)</t>
         </is>
       </c>
     </row>
@@ -9220,7 +9190,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>NF Topical Group 3 (20I)</t>
+          <t>NF Early Career Presentations (Topic 1) (20I)</t>
         </is>
       </c>
     </row>
@@ -9313,7 +9283,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>NF Topical Group 1 (20K)</t>
+          <t>NF Early Career Presentations (Topic 2) (20K)</t>
         </is>
       </c>
     </row>
@@ -9375,7 +9345,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>NF Success stories from NF (22I)</t>
+          <t>NF Community Engagement Success Stories (22I)</t>
         </is>
       </c>
     </row>
@@ -9468,7 +9438,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>NF NF4 (20H)</t>
+          <t>NF Early Career Presentations (Topic 3) (20H)</t>
         </is>
       </c>
     </row>
@@ -9499,7 +9469,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>NF NF2 (20J)</t>
+          <t>NF Early Career Presentations (Topic 4) (20J)</t>
         </is>
       </c>
     </row>
@@ -9672,11 +9642,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10am-11:30am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -10032,7 +10002,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>RF All Frontier Discussions (23Y)</t>
+          <t>RF All-Frontier Discussions (23Y)</t>
         </is>
       </c>
     </row>
@@ -10943,7 +10913,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TF TF5-TF10 (18D)</t>
+          <t>TF TF2-TF5 (18D)</t>
         </is>
       </c>
     </row>
@@ -11129,7 +11099,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>TF TF2-TF8 (18E)</t>
+          <t>TF TF8-TF10 (18E)</t>
         </is>
       </c>
     </row>
@@ -11817,7 +11787,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>AF All frontier (18M)</t>
+          <t>AF All-Frontier (18M)</t>
         </is>
       </c>
     </row>
@@ -11941,7 +11911,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>AF All frontier</t>
+          <t>AF All-Frontier</t>
         </is>
       </c>
     </row>
@@ -12233,31 +12203,31 @@
     <row r="11">
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>7-20</t>
+          <t>7-21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HUB 214</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>80</v>
-      </c>
-      <c r="G11" t="n">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="E11" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F11" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="29" t="n">
+        <v>20</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>XF UF-IF QIS (22F)</t>
+          <t>IF IF7 (24G)</t>
         </is>
       </c>
     </row>
@@ -12284,11 +12254,11 @@
         <v>-1</v>
       </c>
       <c r="G12" s="29" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>IF IF7 (24G)</t>
+          <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I)</t>
         </is>
       </c>
     </row>
@@ -12331,26 +12301,26 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
-      </c>
-      <c r="E14" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F14" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="29" t="n">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>HUB 337</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>50</v>
+      </c>
+      <c r="G14" t="n">
+        <v>50</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I)</t>
+          <t>XF UF-IF QIS (22F)</t>
         </is>
       </c>
     </row>

--- a/assets/schedule/frontier.xlsx
+++ b/assets/schedule/frontier.xlsx
@@ -21,7 +21,7 @@
     <sheet name="Key!!" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="current_date">"2022-05-20 14:02:22.633508"</definedName>
+    <definedName name="current_date">"2022-05-21 13:37:40.362538"</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -112,6 +112,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="00FBC026"/>
+        <bgColor rgb="00FBC026"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00CA94DD"/>
+        <bgColor rgb="00CA94DD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="005d997e"/>
         <bgColor rgb="005d997e"/>
       </patternFill>
@@ -120,18 +132,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="00ED752B"/>
         <bgColor rgb="00ED752B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FBC026"/>
-        <bgColor rgb="00FBC026"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00CA94DD"/>
-        <bgColor rgb="00CA94DD"/>
       </patternFill>
     </fill>
     <fill>
@@ -174,7 +174,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -211,25 +211,13 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -238,10 +226,19 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -397,7 +394,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Schedule_UF" displayName="Schedule_UF" ref="B3:H14" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Schedule_UF" displayName="Schedule_UF" ref="B3:H12" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B3:H4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="7"/>
@@ -413,7 +410,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Schedule_CEF" displayName="Schedule_CEF" ref="B3:H7" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Schedule_CEF" displayName="Schedule_CEF" ref="B3:H4" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B3:H4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
@@ -459,7 +456,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Schedule_EF" displayName="Schedule_EF" ref="B3:H29" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Schedule_EF" displayName="Schedule_EF" ref="B3:H27" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B3:H4">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -483,7 +480,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Schedule_NF" displayName="Schedule_NF" ref="B3:H27" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Schedule_NF" displayName="Schedule_NF" ref="B3:H25" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B3:H4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="21"/>
@@ -499,7 +496,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Schedule_RF" displayName="Schedule_RF" ref="B3:H22" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Schedule_RF" displayName="Schedule_RF" ref="B3:H20" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B3:H4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="19"/>
@@ -515,7 +512,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Schedule_CF" displayName="Schedule_CF" ref="B3:H22" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Schedule_CF" displayName="Schedule_CF" ref="B3:H20" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B3:H4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="17"/>
@@ -531,7 +528,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Schedule_TF" displayName="Schedule_TF" ref="B3:H19" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Schedule_TF" displayName="Schedule_TF" ref="B3:H17" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B3:H4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="15"/>
@@ -547,7 +544,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Schedule_AF" displayName="Schedule_AF" ref="B3:H26" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Schedule_AF" displayName="Schedule_AF" ref="B3:H24" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B3:H4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="13"/>
@@ -563,7 +560,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Schedule_IF" displayName="Schedule_IF" ref="B3:H27" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Schedule_IF" displayName="Schedule_IF" ref="B3:H26" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B3:H4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="11"/>
@@ -579,7 +576,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Schedule_CompF" displayName="Schedule_CompF" ref="B3:H20" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Schedule_CompF" displayName="Schedule_CompF" ref="B3:H17" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B3:H4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="9"/>
@@ -1431,6 +1428,7 @@
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="B69" t="inlineStr">
@@ -1448,6 +1446,7 @@
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="B70" t="inlineStr">
@@ -1465,6 +1464,7 @@
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="B71" t="inlineStr">
@@ -1517,7 +1517,12 @@
           <t>IF IF2 (23G) (20 ppl)</t>
         </is>
       </c>
-      <c r="L71" s="17" t="inlineStr">
+      <c r="L71" s="16" t="inlineStr">
+        <is>
+          <t>IF IF5 (23D) (20 ppl)</t>
+        </is>
+      </c>
+      <c r="M71" s="17" t="inlineStr">
         <is>
           <t>NF All-Frontier (18N) (KNE 130 - 300 ppl)</t>
         </is>
@@ -1539,6 +1544,7 @@
       <c r="J72" s="9" t="n"/>
       <c r="K72" s="9" t="n"/>
       <c r="L72" s="9" t="n"/>
+      <c r="M72" s="9" t="n"/>
     </row>
     <row r="73">
       <c r="B73" t="inlineStr">
@@ -1560,6 +1566,7 @@
       <c r="J73" s="9" t="n"/>
       <c r="K73" s="9" t="n"/>
       <c r="L73" s="9" t="n"/>
+      <c r="M73" s="9" t="n"/>
     </row>
     <row r="74">
       <c r="B74" t="inlineStr">
@@ -1577,6 +1584,7 @@
       <c r="J74" s="9" t="n"/>
       <c r="K74" s="9" t="n"/>
       <c r="L74" s="9" t="n"/>
+      <c r="M74" s="9" t="n"/>
     </row>
     <row r="75">
       <c r="B75" t="inlineStr">
@@ -1602,6 +1610,7 @@
       <c r="J75" s="9" t="n"/>
       <c r="K75" s="9" t="n"/>
       <c r="L75" s="9" t="n"/>
+      <c r="M75" s="9" t="n"/>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
@@ -1619,6 +1628,7 @@
       <c r="J76" s="9" t="n"/>
       <c r="K76" s="9" t="n"/>
       <c r="L76" s="9" t="n"/>
+      <c r="M76" s="9" t="n"/>
     </row>
     <row r="77">
       <c r="B77" t="inlineStr">
@@ -1640,6 +1650,7 @@
       <c r="J77" s="9" t="n"/>
       <c r="K77" s="9" t="n"/>
       <c r="L77" s="9" t="n"/>
+      <c r="M77" s="9" t="n"/>
     </row>
     <row r="78">
       <c r="B78" t="inlineStr">
@@ -1657,6 +1668,7 @@
       <c r="J78" s="9" t="n"/>
       <c r="K78" s="9" t="n"/>
       <c r="L78" s="9" t="n"/>
+      <c r="M78" s="9" t="n"/>
     </row>
     <row r="79">
       <c r="B79" t="inlineStr">
@@ -1678,6 +1690,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="B80" t="inlineStr">
@@ -1695,6 +1708,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="B81" t="inlineStr">
@@ -1712,6 +1726,7 @@
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="B82" t="inlineStr">
@@ -1729,6 +1744,7 @@
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="B83" t="inlineStr">
@@ -1736,14 +1752,14 @@
           <t>7-18 2pm</t>
         </is>
       </c>
-      <c r="C83" s="18" t="inlineStr">
-        <is>
-          <t>CompF AI/ML (430 ppl)</t>
-        </is>
-      </c>
-      <c r="D83" s="19" t="inlineStr">
-        <is>
-          <t>UF Underground (18U) (KNE 130 - 430 ppl)</t>
+      <c r="C83" s="10" t="inlineStr">
+        <is>
+          <t>AI/ML (430 ppl)</t>
+        </is>
+      </c>
+      <c r="D83" s="10" t="inlineStr">
+        <is>
+          <t>Underground (18U) (KNE 130 - 430 ppl)</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -1754,6 +1770,7 @@
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="B84" t="inlineStr">
@@ -1771,6 +1788,7 @@
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="B85" t="inlineStr">
@@ -1788,6 +1806,7 @@
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="B86" t="inlineStr">
@@ -1795,14 +1814,14 @@
           <t>7-18 3:30pm</t>
         </is>
       </c>
-      <c r="C86" s="20" t="inlineStr">
-        <is>
-          <t>AF The Next Accelerators (430 ppl)</t>
-        </is>
-      </c>
-      <c r="D86" s="21" t="inlineStr">
-        <is>
-          <t>TF Lattice QCD (430 ppl)</t>
+      <c r="C86" s="10" t="inlineStr">
+        <is>
+          <t>Lattice QCD (430 ppl)</t>
+        </is>
+      </c>
+      <c r="D86" s="10" t="inlineStr">
+        <is>
+          <t>The Next Accelerators (430 ppl)</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
@@ -1813,6 +1832,7 @@
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="B87" t="inlineStr">
@@ -1830,6 +1850,7 @@
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="B88" t="inlineStr">
@@ -1847,6 +1868,7 @@
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="B89" t="inlineStr">
@@ -1864,6 +1886,7 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="B90" t="inlineStr">
@@ -1871,9 +1894,9 @@
           <t>7-18 5:30pm</t>
         </is>
       </c>
-      <c r="C90" s="22" t="inlineStr">
-        <is>
-          <t>CEF DEI Talks and Panel (18Z) (KNE 130 - 430 ppl)</t>
+      <c r="C90" s="10" t="inlineStr">
+        <is>
+          <t>DEI Talks and Panel (18Z) (KNE 130 - 430 ppl)</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -1885,6 +1908,7 @@
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="B91" t="inlineStr">
@@ -1902,6 +1926,7 @@
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="B92" t="inlineStr">
@@ -1919,6 +1944,7 @@
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="B93" t="inlineStr">
@@ -1936,6 +1962,7 @@
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="B94" t="inlineStr">
@@ -1957,6 +1984,7 @@
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="B95" t="inlineStr">
@@ -1974,6 +2002,7 @@
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="B96" t="inlineStr">
@@ -1991,6 +2020,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="B97" t="inlineStr">
@@ -2008,6 +2038,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="B98" t="inlineStr">
@@ -2027,6 +2058,8 @@
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="B99" t="inlineStr">
@@ -2046,6 +2079,8 @@
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
       <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="B100" t="inlineStr">
@@ -2065,6 +2100,8 @@
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
       <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="B101" t="inlineStr">
@@ -2082,7 +2119,7 @@
           <t>AF AF4 (19E) (30 ppl)</t>
         </is>
       </c>
-      <c r="E101" s="22" t="inlineStr">
+      <c r="E101" s="18" t="inlineStr">
         <is>
           <t>CEF Frontier Discussion (21D) (KNE 210 - 50 ppl)</t>
         </is>
@@ -2099,35 +2136,45 @@
       </c>
       <c r="H101" s="16" t="inlineStr">
         <is>
+          <t>IF IF10 (23E) (20 ppl)</t>
+        </is>
+      </c>
+      <c r="I101" s="16" t="inlineStr">
+        <is>
           <t>IF IF3 (23F) (20 ppl)</t>
         </is>
       </c>
-      <c r="I101" s="16" t="inlineStr">
+      <c r="J101" s="16" t="inlineStr">
         <is>
           <t>IF IF4 (23E) (20 ppl)</t>
         </is>
       </c>
-      <c r="J101" s="17" t="inlineStr">
+      <c r="K101" s="16" t="inlineStr">
+        <is>
+          <t>IF IF6 (23C) (20 ppl)</t>
+        </is>
+      </c>
+      <c r="L101" s="17" t="inlineStr">
         <is>
           <t>NF DUNE P5 Strategy (Detector Technology) (20N) (KNE 120 - 150 ppl)</t>
         </is>
       </c>
-      <c r="K101" s="23" t="inlineStr">
+      <c r="M101" s="19" t="inlineStr">
         <is>
           <t>RF RF1 Discussions (20C) (40 ppl)</t>
         </is>
       </c>
-      <c r="L101" s="24" t="inlineStr">
+      <c r="N101" s="20" t="inlineStr">
         <is>
           <t>UF UF2 (19B) (25 ppl)</t>
         </is>
       </c>
-      <c r="M101" s="10" t="inlineStr">
+      <c r="O101" s="10" t="inlineStr">
         <is>
           <t>XF CF-EF-RF-TF CF1 CF2 CF3 CF7 DM Complementarity (20L) (KNE 220 - 150 ppl)</t>
         </is>
       </c>
-      <c r="N101" s="10" t="inlineStr">
+      <c r="P101" s="10" t="inlineStr">
         <is>
           <t>XF TF-EF Energy Frontier Theory (19J) (JHN 175 - 50 ppl)</t>
         </is>
@@ -2151,6 +2198,8 @@
       <c r="L102" s="9" t="n"/>
       <c r="M102" s="9" t="n"/>
       <c r="N102" s="9" t="n"/>
+      <c r="O102" s="9" t="n"/>
+      <c r="P102" s="9" t="n"/>
     </row>
     <row r="103">
       <c r="B103" t="inlineStr">
@@ -2174,6 +2223,8 @@
       <c r="L103" s="9" t="n"/>
       <c r="M103" s="9" t="n"/>
       <c r="N103" s="9" t="n"/>
+      <c r="O103" s="9" t="n"/>
+      <c r="P103" s="9" t="n"/>
     </row>
     <row r="104">
       <c r="B104" t="inlineStr">
@@ -2193,6 +2244,8 @@
       <c r="L104" s="9" t="n"/>
       <c r="M104" s="9" t="n"/>
       <c r="N104" s="9" t="n"/>
+      <c r="O104" s="9" t="n"/>
+      <c r="P104" s="9" t="n"/>
     </row>
     <row r="105">
       <c r="B105" t="inlineStr">
@@ -2215,23 +2268,25 @@
       </c>
       <c r="H105" s="9" t="n"/>
       <c r="I105" s="9" t="n"/>
-      <c r="J105" s="17" t="inlineStr">
+      <c r="J105" s="9" t="n"/>
+      <c r="K105" s="9" t="n"/>
+      <c r="L105" s="17" t="inlineStr">
         <is>
           <t>NF DUNE P5 Strategy (Expanded Physics Scope in Phase II) (20X) (KNE 110 - 150 ppl)</t>
         </is>
       </c>
-      <c r="K105" s="23" t="inlineStr">
+      <c r="M105" s="19" t="inlineStr">
         <is>
           <t>RF RF2 Discussions (20S) (40 ppl)</t>
         </is>
       </c>
-      <c r="L105" s="10" t="inlineStr">
+      <c r="N105" s="10" t="inlineStr">
         <is>
           <t>XF UF-NF-RF 0nuBB from Natural Sources (19A) (JHN 102 - 50 ppl)</t>
         </is>
       </c>
-      <c r="M105" s="9" t="n"/>
-      <c r="N105" s="9" t="n"/>
+      <c r="O105" s="9" t="n"/>
+      <c r="P105" s="9" t="n"/>
     </row>
     <row r="106">
       <c r="B106" t="inlineStr">
@@ -2251,6 +2306,8 @@
       <c r="L106" s="9" t="n"/>
       <c r="M106" s="9" t="n"/>
       <c r="N106" s="9" t="n"/>
+      <c r="O106" s="9" t="n"/>
+      <c r="P106" s="9" t="n"/>
     </row>
     <row r="107">
       <c r="B107" t="inlineStr">
@@ -2274,6 +2331,8 @@
       <c r="L107" s="9" t="n"/>
       <c r="M107" s="9" t="n"/>
       <c r="N107" s="9" t="n"/>
+      <c r="O107" s="9" t="n"/>
+      <c r="P107" s="9" t="n"/>
     </row>
     <row r="108">
       <c r="B108" t="inlineStr">
@@ -2293,6 +2352,8 @@
       <c r="L108" s="9" t="n"/>
       <c r="M108" s="9" t="n"/>
       <c r="N108" s="9" t="n"/>
+      <c r="O108" s="9" t="n"/>
+      <c r="P108" s="9" t="n"/>
     </row>
     <row r="109">
       <c r="B109" t="inlineStr">
@@ -2316,6 +2377,8 @@
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
       <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="B110" t="inlineStr">
@@ -2335,6 +2398,8 @@
       <c r="L110" t="inlineStr"/>
       <c r="M110" t="inlineStr"/>
       <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="B111" t="inlineStr">
@@ -2354,6 +2419,8 @@
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="B112" t="inlineStr">
@@ -2373,6 +2440,8 @@
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
       <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="B113" t="inlineStr">
@@ -2396,6 +2465,8 @@
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
       <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="B114" t="inlineStr">
@@ -2415,6 +2486,8 @@
       <c r="L114" t="inlineStr"/>
       <c r="M114" t="inlineStr"/>
       <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="B115" t="inlineStr">
@@ -2434,6 +2507,8 @@
       <c r="L115" t="inlineStr"/>
       <c r="M115" t="inlineStr"/>
       <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="B116" t="inlineStr">
@@ -2441,14 +2516,14 @@
           <t>7-19 3:30pm</t>
         </is>
       </c>
-      <c r="C116" s="13" t="inlineStr">
-        <is>
-          <t>CF Cosmic (430 ppl)</t>
-        </is>
-      </c>
-      <c r="D116" s="15" t="inlineStr">
-        <is>
-          <t>EF Lepton Colliders (19S) (KNE 130 - 430 ppl)</t>
+      <c r="C116" s="10" t="inlineStr">
+        <is>
+          <t>Cosmic (430 ppl)</t>
+        </is>
+      </c>
+      <c r="D116" s="10" t="inlineStr">
+        <is>
+          <t>Lepton Colliders (19S) (KNE 130 - 430 ppl)</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -2461,6 +2536,8 @@
       <c r="L116" t="inlineStr"/>
       <c r="M116" t="inlineStr"/>
       <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="B117" t="inlineStr">
@@ -2480,6 +2557,8 @@
       <c r="L117" t="inlineStr"/>
       <c r="M117" t="inlineStr"/>
       <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="B118" t="inlineStr">
@@ -2499,6 +2578,8 @@
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr"/>
       <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="B119" t="inlineStr">
@@ -2518,6 +2599,8 @@
       <c r="L119" t="inlineStr"/>
       <c r="M119" t="inlineStr"/>
       <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="B120" t="inlineStr">
@@ -2525,9 +2608,9 @@
           <t>7-19 5:30pm</t>
         </is>
       </c>
-      <c r="C120" s="22" t="inlineStr">
-        <is>
-          <t>CEF Community Engagement (19V) (KNE 130 - 430 ppl)</t>
+      <c r="C120" s="10" t="inlineStr">
+        <is>
+          <t>Community Engagement (19V) (KNE 130 - 430 ppl)</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -2541,6 +2624,8 @@
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr"/>
       <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="B121" t="inlineStr">
@@ -2560,6 +2645,8 @@
       <c r="L121" t="inlineStr"/>
       <c r="M121" t="inlineStr"/>
       <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="B122" t="inlineStr">
@@ -2579,6 +2666,8 @@
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
       <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="B123" t="inlineStr">
@@ -2598,6 +2687,8 @@
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="B124" t="inlineStr">
@@ -2617,6 +2708,8 @@
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="B125" t="inlineStr">
@@ -2636,6 +2729,8 @@
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="B126" t="inlineStr">
@@ -2655,6 +2750,8 @@
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="B127" t="inlineStr">
@@ -2674,6 +2771,8 @@
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="B128" t="inlineStr">
@@ -2693,8 +2792,6 @@
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="B129" t="inlineStr">
@@ -2714,8 +2811,6 @@
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr"/>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="B130" t="inlineStr">
@@ -2735,8 +2830,6 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr"/>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="B131" t="inlineStr">
@@ -2779,37 +2872,27 @@
           <t>EF TOP I (19M) (KNE 220 - 100 ppl)</t>
         </is>
       </c>
-      <c r="J131" s="16" t="inlineStr">
-        <is>
-          <t>IF IF5 (23D) (20 ppl)</t>
-        </is>
-      </c>
-      <c r="K131" s="16" t="inlineStr">
-        <is>
-          <t>IF IF6 (23C) (20 ppl)</t>
-        </is>
-      </c>
-      <c r="L131" s="25" t="inlineStr">
+      <c r="J131" s="21" t="inlineStr">
         <is>
           <t>IF Workshop Plans (HUB 250 - 100 ppl)</t>
         </is>
       </c>
-      <c r="M131" s="17" t="inlineStr">
+      <c r="K131" s="17" t="inlineStr">
         <is>
           <t>NF DUNE P5 Strategy (Oscillation Physics) (20O) (JHN 102 - 150 ppl)</t>
         </is>
       </c>
-      <c r="N131" s="23" t="inlineStr">
+      <c r="L131" s="19" t="inlineStr">
         <is>
           <t>RF RF6 3 Big Idea + 1 Experimental Summary White Papers (20B) (40 ppl)</t>
         </is>
       </c>
-      <c r="O131" s="21" t="inlineStr">
+      <c r="M131" s="22" t="inlineStr">
         <is>
           <t>TF TF9-TF11 (18C) (HUB 337 - 50 ppl)</t>
         </is>
       </c>
-      <c r="P131" s="24" t="inlineStr">
+      <c r="N131" s="20" t="inlineStr">
         <is>
           <t>UF UF1 (18B) (25 ppl)</t>
         </is>
@@ -2833,8 +2916,6 @@
       <c r="L132" s="9" t="n"/>
       <c r="M132" s="9" t="n"/>
       <c r="N132" s="9" t="n"/>
-      <c r="O132" s="9" t="n"/>
-      <c r="P132" s="9" t="n"/>
     </row>
     <row r="133">
       <c r="B133" t="inlineStr">
@@ -2854,8 +2935,6 @@
       <c r="L133" s="9" t="n"/>
       <c r="M133" s="9" t="n"/>
       <c r="N133" s="9" t="n"/>
-      <c r="O133" s="9" t="n"/>
-      <c r="P133" s="9" t="n"/>
     </row>
     <row r="134">
       <c r="B134" t="inlineStr">
@@ -2875,8 +2954,6 @@
       <c r="L134" s="9" t="n"/>
       <c r="M134" s="9" t="n"/>
       <c r="N134" s="9" t="n"/>
-      <c r="O134" s="9" t="n"/>
-      <c r="P134" s="9" t="n"/>
     </row>
     <row r="135">
       <c r="B135" t="inlineStr">
@@ -2896,20 +2973,18 @@
       <c r="H135" s="9" t="n"/>
       <c r="I135" s="9" t="n"/>
       <c r="J135" s="9" t="n"/>
-      <c r="K135" s="9" t="n"/>
-      <c r="L135" s="9" t="n"/>
-      <c r="M135" s="17" t="inlineStr">
+      <c r="K135" s="17" t="inlineStr">
         <is>
           <t>NF DUNE P5 Strategy (BSM Physics) (20Y) (JHN 102 - 150 ppl)</t>
         </is>
       </c>
-      <c r="N135" s="23" t="inlineStr">
+      <c r="L135" s="19" t="inlineStr">
         <is>
           <t>RF RF7 Exp And Theory Overview - Hadron Spectroscopy (20R) (40 ppl)</t>
         </is>
       </c>
-      <c r="O135" s="9" t="n"/>
-      <c r="P135" s="8" t="inlineStr">
+      <c r="M135" s="9" t="n"/>
+      <c r="N135" s="8" t="inlineStr">
         <is>
           <t>XF UF-NF Long Baseline (18Q) (40 ppl)</t>
         </is>
@@ -2933,8 +3008,6 @@
       <c r="L136" s="9" t="n"/>
       <c r="M136" s="9" t="n"/>
       <c r="N136" s="9" t="n"/>
-      <c r="O136" s="9" t="n"/>
-      <c r="P136" s="9" t="n"/>
     </row>
     <row r="137">
       <c r="B137" t="inlineStr">
@@ -2954,8 +3027,6 @@
       <c r="L137" s="9" t="n"/>
       <c r="M137" s="9" t="n"/>
       <c r="N137" s="9" t="n"/>
-      <c r="O137" s="9" t="n"/>
-      <c r="P137" s="9" t="n"/>
     </row>
     <row r="138">
       <c r="B138" t="inlineStr">
@@ -2975,8 +3046,6 @@
       <c r="L138" s="9" t="n"/>
       <c r="M138" s="9" t="n"/>
       <c r="N138" s="9" t="n"/>
-      <c r="O138" s="9" t="n"/>
-      <c r="P138" s="9" t="n"/>
     </row>
     <row r="139">
       <c r="B139" t="inlineStr">
@@ -3000,8 +3069,6 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr"/>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="B140" t="inlineStr">
@@ -3021,8 +3088,6 @@
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr"/>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="B141" t="inlineStr">
@@ -3042,8 +3107,6 @@
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr"/>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="B142" t="inlineStr">
@@ -3063,8 +3126,6 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="B143" t="inlineStr">
@@ -3072,14 +3133,14 @@
           <t>7-20 2pm</t>
         </is>
       </c>
-      <c r="C143" s="17" t="inlineStr">
-        <is>
-          <t>NF Neutrino (20BB) (KNE 130 - 172 ppl)</t>
-        </is>
-      </c>
-      <c r="D143" s="26" t="inlineStr">
-        <is>
-          <t>RF Rare Processes and AMO (215 ppl)</t>
+      <c r="C143" s="10" t="inlineStr">
+        <is>
+          <t>Neutrino (20BB) (KNE 130 - 172 ppl)</t>
+        </is>
+      </c>
+      <c r="D143" s="10" t="inlineStr">
+        <is>
+          <t>Rare Processes and AMO (215 ppl)</t>
         </is>
       </c>
       <c r="E143" t="inlineStr"/>
@@ -3092,8 +3153,6 @@
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="B144" t="inlineStr">
@@ -3113,8 +3172,6 @@
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="B145" t="inlineStr">
@@ -3134,8 +3191,6 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="B146" t="inlineStr">
@@ -3143,9 +3198,9 @@
           <t>7-20 3:30pm</t>
         </is>
       </c>
-      <c r="C146" s="25" t="inlineStr">
-        <is>
-          <t>IF Instrumentation (KNE 130 - 430 ppl)</t>
+      <c r="C146" s="10" t="inlineStr">
+        <is>
+          <t>Instrumentation (KNE 130 - 430 ppl)</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -3159,8 +3214,6 @@
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="B147" t="inlineStr">
@@ -3180,8 +3233,6 @@
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="B148" t="inlineStr">
@@ -3201,8 +3252,6 @@
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr"/>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="B149" t="inlineStr">
@@ -3222,8 +3271,6 @@
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="B150" t="inlineStr">
@@ -3243,8 +3290,6 @@
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="B151" t="inlineStr">
@@ -3264,8 +3309,6 @@
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="B152" t="inlineStr">
@@ -3285,8 +3328,6 @@
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="B153" t="inlineStr">
@@ -3306,8 +3347,6 @@
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="B154" t="inlineStr">
@@ -3331,8 +3370,6 @@
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr"/>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="B155" t="inlineStr">
@@ -3352,8 +3389,6 @@
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr"/>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="B156" t="inlineStr">
@@ -3373,8 +3408,6 @@
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="B157" t="inlineStr">
@@ -3394,8 +3427,6 @@
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr"/>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="B158" t="inlineStr">
@@ -3466,12 +3497,12 @@
           <t>7-21 8am</t>
         </is>
       </c>
-      <c r="C161" s="20" t="inlineStr">
+      <c r="C161" s="23" t="inlineStr">
         <is>
           <t>AF P5 Strategy colliders (24L) (JHN 102 - 100 ppl)</t>
         </is>
       </c>
-      <c r="D161" s="20" t="inlineStr">
+      <c r="D161" s="23" t="inlineStr">
         <is>
           <t>AF P5 Strategy technologies and test facilities (24K) (JHN 175 - 70 ppl)</t>
         </is>
@@ -3501,17 +3532,17 @@
           <t>IF IF7 (24G) (20 ppl)</t>
         </is>
       </c>
-      <c r="J161" s="27" t="inlineStr">
+      <c r="J161" s="24" t="inlineStr">
         <is>
           <t>NF Beyond neutrino mass physics reach of precision beta-decay experiments (21K) (20 ppl)</t>
         </is>
       </c>
-      <c r="K161" s="27" t="inlineStr">
+      <c r="K161" s="24" t="inlineStr">
         <is>
           <t>NF Blue Skye/Very Long Term ideas (21M) (30 ppl)</t>
         </is>
       </c>
-      <c r="L161" s="21" t="inlineStr">
+      <c r="L161" s="22" t="inlineStr">
         <is>
           <t>TF TF2-TF5 (18D) (JHN 111 - 50 ppl)</t>
         </is>
@@ -3790,9 +3821,9 @@
           <t>7-21 2pm</t>
         </is>
       </c>
-      <c r="C173" s="26" t="inlineStr">
-        <is>
-          <t>RF Rare Processes (21U) (129 ppl)</t>
+      <c r="C173" s="10" t="inlineStr">
+        <is>
+          <t>Rare Processes (21U) (129 ppl)</t>
         </is>
       </c>
       <c r="D173" t="inlineStr"/>
@@ -3857,9 +3888,9 @@
           <t>7-21 3:30pm</t>
         </is>
       </c>
-      <c r="C176" s="20" t="inlineStr">
-        <is>
-          <t>AF Accelerator (129 ppl)</t>
+      <c r="C176" s="10" t="inlineStr">
+        <is>
+          <t>Accelerator (129 ppl)</t>
         </is>
       </c>
       <c r="D176" t="inlineStr"/>
@@ -3945,9 +3976,9 @@
           <t>7-21 5:30pm</t>
         </is>
       </c>
-      <c r="C180" s="15" t="inlineStr">
-        <is>
-          <t>EF Energy (21W) (KNE 130 - 430 ppl)</t>
+      <c r="C180" s="10" t="inlineStr">
+        <is>
+          <t>Energy (21W) (KNE 130 - 430 ppl)</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
@@ -4183,24 +4214,24 @@
           <t>7-22 8am</t>
         </is>
       </c>
-      <c r="C191" s="20" t="inlineStr">
+      <c r="C191" s="23" t="inlineStr">
         <is>
           <t>AF P5 Strategy accel for neutrinos and PBC (24J) (HUB 332 - 70 ppl)</t>
         </is>
       </c>
-      <c r="D191" s="20" t="inlineStr">
+      <c r="D191" s="23" t="inlineStr">
         <is>
           <t>AF P5 Strategy beam physics and facilities (24H) (JHN 111 - 50 ppl)</t>
         </is>
       </c>
-      <c r="E191" s="20" t="inlineStr">
+      <c r="E191" s="23" t="inlineStr">
         <is>
           <t>AF P5 Strategy optimizing among funding sources (24I) (HUB 250 - 70 ppl)</t>
         </is>
       </c>
-      <c r="F191" s="14" t="inlineStr">
-        <is>
-          <t>CompF CompF7 Reinterpretation and long-term preservation of data and code (20D) (20 ppl)</t>
+      <c r="F191" s="25" t="inlineStr">
+        <is>
+          <t>CompF Report Discussion (200 ppl)</t>
         </is>
       </c>
       <c r="G191" s="15" t="inlineStr">
@@ -4228,17 +4259,17 @@
           <t>IF IF9 (24E) (20 ppl)</t>
         </is>
       </c>
-      <c r="L191" s="27" t="inlineStr">
+      <c r="L191" s="24" t="inlineStr">
         <is>
           <t>NF Optimizing Among Funding Agencies (21L) (30 ppl)</t>
         </is>
       </c>
-      <c r="M191" s="23" t="inlineStr">
+      <c r="M191" s="19" t="inlineStr">
         <is>
           <t>RF RF3 Discussions (21B) (40 ppl)</t>
         </is>
       </c>
-      <c r="N191" s="21" t="inlineStr">
+      <c r="N191" s="22" t="inlineStr">
         <is>
           <t>TF TF4b-TF6-TF7 (18F) (HUB 337 - 50 ppl)</t>
         </is>
@@ -4334,9 +4365,9 @@
       <c r="C195" s="9" t="n"/>
       <c r="D195" s="9" t="n"/>
       <c r="E195" s="9" t="n"/>
-      <c r="F195" s="18" t="inlineStr">
-        <is>
-          <t>CompF Report Discussion (200 ppl)</t>
+      <c r="F195" s="14" t="inlineStr">
+        <is>
+          <t>CompF CompF7 Reinterpretation and long-term preservation of data and code (20D) (20 ppl)</t>
         </is>
       </c>
       <c r="G195" s="9" t="n"/>
@@ -4344,12 +4375,12 @@
       <c r="I195" s="9" t="n"/>
       <c r="J195" s="9" t="n"/>
       <c r="K195" s="9" t="n"/>
-      <c r="L195" s="23" t="inlineStr">
+      <c r="L195" s="19" t="inlineStr">
         <is>
           <t>RF RF5 Discussions (21R) (40 ppl)</t>
         </is>
       </c>
-      <c r="M195" s="24" t="inlineStr">
+      <c r="M195" s="20" t="inlineStr">
         <is>
           <t>UF UF5 UF3 (22Q) (25 ppl)</t>
         </is>
@@ -4387,7 +4418,7 @@
       <c r="N196" s="9" t="n"/>
       <c r="O196" s="9" t="n"/>
       <c r="P196" s="9" t="n"/>
-      <c r="Q196" s="18" t="inlineStr">
+      <c r="Q196" s="25" t="inlineStr">
         <is>
           <t>CompF Industry Session (JHN 175 - 50 ppl)</t>
         </is>
@@ -4535,9 +4566,9 @@
           <t>7-22 2pm</t>
         </is>
       </c>
-      <c r="C203" s="19" t="inlineStr">
-        <is>
-          <t>UF Underground (22V) (KNE 130 - 129 ppl)</t>
+      <c r="C203" s="10" t="inlineStr">
+        <is>
+          <t>Underground (22V) (KNE 130 - 129 ppl)</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
@@ -4605,9 +4636,9 @@
           <t>7-22 3:30pm</t>
         </is>
       </c>
-      <c r="C206" s="21" t="inlineStr">
-        <is>
-          <t>TF Theory (129 ppl)</t>
+      <c r="C206" s="10" t="inlineStr">
+        <is>
+          <t>Theory (129 ppl)</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
@@ -4675,9 +4706,9 @@
           <t>7-22 5pm</t>
         </is>
       </c>
-      <c r="C209" s="17" t="inlineStr">
-        <is>
-          <t>NF Neutrino (22W) (KNE 130 - 430 ppl)</t>
+      <c r="C209" s="10" t="inlineStr">
+        <is>
+          <t>Neutrino (22W) (KNE 130 - 430 ppl)</t>
         </is>
       </c>
       <c r="D209" t="inlineStr"/>
@@ -4940,12 +4971,12 @@
           <t>7-23 8am</t>
         </is>
       </c>
-      <c r="C221" s="20" t="inlineStr">
+      <c r="C221" s="23" t="inlineStr">
         <is>
           <t>AF All-Frontier (18M) (KNE 110 - 150 ppl)</t>
         </is>
       </c>
-      <c r="D221" s="20" t="inlineStr">
+      <c r="D221" s="23" t="inlineStr">
         <is>
           <t>AF Summary report discussion and tuneup (24C) (JHN 175 - 70 ppl)</t>
         </is>
@@ -4955,7 +4986,7 @@
           <t>EF Discussion and Summaries (24N) (KNE 130 - 300 ppl)</t>
         </is>
       </c>
-      <c r="F221" s="27" t="inlineStr">
+      <c r="F221" s="24" t="inlineStr">
         <is>
           <t>NF Early Career Presentations (Topic 1) (20I) (30 ppl)</t>
         </is>
@@ -4970,12 +5001,12 @@
           <t>RF All-Frontier Discussions (23Y) (KNE 220 - 140 ppl)</t>
         </is>
       </c>
-      <c r="I221" s="28" t="inlineStr">
+      <c r="I221" s="27" t="inlineStr">
         <is>
           <t>TF TF1-TF3-TF4a (18G) (30 ppl)</t>
         </is>
       </c>
-      <c r="J221" s="21" t="inlineStr">
+      <c r="J221" s="22" t="inlineStr">
         <is>
           <t>TF TF8-TF10 (18E) (JHN 111 - 50 ppl)</t>
         </is>
@@ -5080,7 +5111,7 @@
           <t>7-23 10am</t>
         </is>
       </c>
-      <c r="C225" s="25" t="inlineStr">
+      <c r="C225" s="21" t="inlineStr">
         <is>
           <t>IF Report (KNE 110 - 100 ppl)</t>
         </is>
@@ -5093,7 +5124,7 @@
       <c r="I225" s="9" t="n"/>
       <c r="J225" s="9" t="n"/>
       <c r="K225" s="9" t="n"/>
-      <c r="L225" s="24" t="inlineStr">
+      <c r="L225" s="20" t="inlineStr">
         <is>
           <t>UF UF4 (21C) (25 ppl)</t>
         </is>
@@ -5264,9 +5295,9 @@
           <t>7-23 2pm</t>
         </is>
       </c>
-      <c r="C233" s="13" t="inlineStr">
-        <is>
-          <t>CF Cosmic (23W) (KNE 130 - 172 ppl)</t>
+      <c r="C233" s="10" t="inlineStr">
+        <is>
+          <t>Cosmic (23W) (KNE 130 - 172 ppl)</t>
         </is>
       </c>
       <c r="D233" t="inlineStr"/>
@@ -5331,9 +5362,9 @@
           <t>7-23 3:30pm</t>
         </is>
       </c>
-      <c r="C236" s="18" t="inlineStr">
-        <is>
-          <t>CompF Computing (172 ppl)</t>
+      <c r="C236" s="10" t="inlineStr">
+        <is>
+          <t>Computing (172 ppl)</t>
         </is>
       </c>
       <c r="D236" t="inlineStr"/>
@@ -5419,9 +5450,9 @@
           <t>7-23 5:30pm</t>
         </is>
       </c>
-      <c r="C240" s="18" t="inlineStr">
-        <is>
-          <t>CompF Quantum Information Science in HEP (23X) (KNE 130 - 430 ppl)</t>
+      <c r="C240" s="10" t="inlineStr">
+        <is>
+          <t>Quantum Information Science in HEP (23X) (KNE 130 - 430 ppl)</t>
         </is>
       </c>
       <c r="D240" t="inlineStr"/>
@@ -5738,7 +5769,7 @@
           <t>7-24 10am</t>
         </is>
       </c>
-      <c r="C255" s="20" t="inlineStr">
+      <c r="C255" s="23" t="inlineStr">
         <is>
           <t>AF All-Frontier (KNE 120 - 150 ppl)</t>
         </is>
@@ -5748,17 +5779,17 @@
           <t>AF Success Stories from AF (22D) (30 ppl)</t>
         </is>
       </c>
-      <c r="E255" s="25" t="inlineStr">
+      <c r="E255" s="21" t="inlineStr">
         <is>
           <t>IF Report (24D) (JHN 102 - 100 ppl)</t>
         </is>
       </c>
-      <c r="F255" s="27" t="inlineStr">
+      <c r="F255" s="24" t="inlineStr">
         <is>
           <t>NF Community Engagement Success Stories (22I) (20 ppl)</t>
         </is>
       </c>
-      <c r="G255" s="27" t="inlineStr">
+      <c r="G255" s="24" t="inlineStr">
         <is>
           <t>NF Early Career Presentations (Topic 3) (20H) (30 ppl)</t>
         </is>
@@ -5768,12 +5799,12 @@
           <t>NF Early Career Presentations (Topic 4) (20J) (JHN 175 - 60 ppl)</t>
         </is>
       </c>
-      <c r="I255" s="21" t="inlineStr">
+      <c r="I255" s="22" t="inlineStr">
         <is>
           <t>TF Discussion and frontier reports (19P) (KNE 220 - 175 ppl)</t>
         </is>
       </c>
-      <c r="J255" s="24" t="inlineStr">
+      <c r="J255" s="20" t="inlineStr">
         <is>
           <t>UF UF6 (23B) (25 ppl)</t>
         </is>
@@ -5968,7 +5999,7 @@
       </c>
       <c r="C263" s="10" t="inlineStr">
         <is>
-          <t>SEC Snowmass Early Career (24S) (KNE 130 - 430 ppl)</t>
+          <t>Snowmass Early Career (24S) (KNE 130 - 430 ppl)</t>
         </is>
       </c>
       <c r="D263" t="inlineStr"/>
@@ -6033,14 +6064,14 @@
           <t>7-24 3:30pm</t>
         </is>
       </c>
-      <c r="C266" s="22" t="inlineStr">
-        <is>
-          <t>CEF Underrepresented Minorities (KNE 130 - 129 ppl)</t>
-        </is>
-      </c>
-      <c r="D266" s="25" t="inlineStr">
-        <is>
-          <t>IF Instrumentation Awards (129 ppl)</t>
+      <c r="C266" s="10" t="inlineStr">
+        <is>
+          <t>Instrumentation Awards (129 ppl)</t>
+        </is>
+      </c>
+      <c r="D266" s="10" t="inlineStr">
+        <is>
+          <t>Underrepresented Minorities (KNE 130 - 129 ppl)</t>
         </is>
       </c>
       <c r="E266" t="inlineStr"/>
@@ -6800,7 +6831,7 @@
       <c r="C337" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="168">
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="C40:C42"/>
     <mergeCell ref="C43:C48"/>
@@ -6817,6 +6848,7 @@
     <mergeCell ref="J71:J78"/>
     <mergeCell ref="K71:K78"/>
     <mergeCell ref="L71:L78"/>
+    <mergeCell ref="M71:M78"/>
     <mergeCell ref="E73:E74"/>
     <mergeCell ref="E75:E76"/>
     <mergeCell ref="F75:F78"/>
@@ -6835,17 +6867,19 @@
     <mergeCell ref="G101:G104"/>
     <mergeCell ref="H101:H108"/>
     <mergeCell ref="I101:I108"/>
-    <mergeCell ref="J101:J104"/>
-    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="J101:J108"/>
+    <mergeCell ref="K101:K108"/>
     <mergeCell ref="L101:L104"/>
-    <mergeCell ref="M101:M108"/>
-    <mergeCell ref="N101:N108"/>
+    <mergeCell ref="M101:M104"/>
+    <mergeCell ref="N101:N104"/>
+    <mergeCell ref="O101:O108"/>
+    <mergeCell ref="P101:P108"/>
     <mergeCell ref="F103:F104"/>
     <mergeCell ref="F105:F106"/>
     <mergeCell ref="G105:G108"/>
-    <mergeCell ref="J105:J108"/>
-    <mergeCell ref="K105:K108"/>
     <mergeCell ref="L105:L108"/>
+    <mergeCell ref="M105:M108"/>
+    <mergeCell ref="N105:N108"/>
     <mergeCell ref="F107:F108"/>
     <mergeCell ref="C109:C112"/>
     <mergeCell ref="C113:C115"/>
@@ -6860,16 +6894,14 @@
     <mergeCell ref="H131:H138"/>
     <mergeCell ref="I131:I138"/>
     <mergeCell ref="J131:J138"/>
-    <mergeCell ref="K131:K138"/>
-    <mergeCell ref="L131:L138"/>
-    <mergeCell ref="M131:M134"/>
+    <mergeCell ref="K131:K134"/>
+    <mergeCell ref="L131:L134"/>
+    <mergeCell ref="M131:M138"/>
     <mergeCell ref="N131:N134"/>
-    <mergeCell ref="O131:O138"/>
-    <mergeCell ref="P131:P134"/>
     <mergeCell ref="F135:F138"/>
-    <mergeCell ref="M135:M138"/>
+    <mergeCell ref="K135:K138"/>
+    <mergeCell ref="L135:L138"/>
     <mergeCell ref="N135:N138"/>
-    <mergeCell ref="P135:P138"/>
     <mergeCell ref="C139:C142"/>
     <mergeCell ref="C143:C145"/>
     <mergeCell ref="D143:D145"/>
@@ -6982,7 +7014,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:H14"/>
+  <dimension ref="A3:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -7039,31 +7071,31 @@
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>7-18</t>
+          <t>7-19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2pm-3:30pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>KNE 130</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>723</v>
-      </c>
-      <c r="G4" t="n">
-        <v>430</v>
+        <v>2</v>
+      </c>
+      <c r="E4" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F4" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="29" t="n">
+        <v>25</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>UF Underground (18U)</t>
+          <t>UF UF2 (19B)</t>
         </is>
       </c>
     </row>
@@ -7075,57 +7107,57 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F5" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="30" t="n">
-        <v>25</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>JHN 102</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>195</v>
+      </c>
+      <c r="G5" t="n">
+        <v>50</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>UF UF2 (19B)</t>
+          <t>XF UF-NF-RF 0nuBB from Natural Sources (19A)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>7-19</t>
+          <t>7-20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>JHN 102</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>195</v>
-      </c>
-      <c r="G6" t="n">
-        <v>50</v>
+      <c r="E6" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F6" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="29" t="n">
+        <v>25</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>XF UF-NF-RF 0nuBB from Natural Sources (19A)</t>
+          <t>UF UF1 (18B)</t>
         </is>
       </c>
     </row>
@@ -7137,241 +7169,179 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D7" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="29" t="inlineStr">
+      <c r="E7" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F7" s="30" t="n">
+      <c r="F7" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G7" s="30" t="n">
-        <v>25</v>
+      <c r="G7" s="29" t="n">
+        <v>40</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>UF UF1 (18B)</t>
+          <t>XF UF-NF Long Baseline (18Q)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>7-20</t>
+          <t>7-21</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F8" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="30" t="n">
-        <v>40</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HUB 337</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>50</v>
+      </c>
+      <c r="G8" t="n">
+        <v>50</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>XF UF-NF Long Baseline (18Q)</t>
+          <t>XF UF-IF QIS (22F)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>HUB 337</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>50</v>
-      </c>
-      <c r="G9" t="n">
-        <v>50</v>
+      <c r="E9" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F9" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="29" t="n">
+        <v>25</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>XF UF-IF QIS (22F)</t>
+          <t>UF UF5 UF3 (22Q)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="29" t="inlineStr">
+      <c r="E10" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F10" s="30" t="n">
+      <c r="F10" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G10" s="30" t="n">
-        <v>25</v>
+      <c r="G10" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>UF UF5 UF3 (22Q)</t>
+          <t>XF IF-UF Cross-cutting Facilities (21F)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2pm-3:30pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KNE 130</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>723</v>
-      </c>
-      <c r="G11" t="n">
-        <v>129</v>
+        <v>2</v>
+      </c>
+      <c r="E11" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F11" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="29" t="n">
+        <v>25</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>UF Underground (22V)</t>
+          <t>UF UF4 (21C)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>7-24</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="29" t="inlineStr">
+      <c r="E12" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F12" s="30" t="n">
+      <c r="F12" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G12" s="30" t="n">
-        <v>30</v>
+      <c r="G12" s="29" t="n">
+        <v>25</v>
       </c>
       <c r="H12" t="inlineStr">
-        <is>
-          <t>XF IF-UF Cross-cutting Facilities (21F)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>7-23</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F13" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="30" t="n">
-        <v>25</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>UF UF4 (21C)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>7-24</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F14" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="30" t="n">
-        <v>25</v>
-      </c>
-      <c r="H14" t="inlineStr">
         <is>
           <t>UF UF6 (23B)</t>
         </is>
@@ -7391,7 +7361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:H7"/>
+  <dimension ref="B3:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -7448,124 +7418,31 @@
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>7-18</t>
+          <t>7-19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>5:30pm-7pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E4" s="29" t="inlineStr">
-        <is>
-          <t>KNE 130</t>
+        <v>4</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>KNE 210</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>723</v>
+        <v>242</v>
       </c>
       <c r="G4" t="n">
-        <v>430</v>
+        <v>50</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>CEF DEI Talks and Panel (18Z)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>7-19</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>KNE 210</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>242</v>
-      </c>
-      <c r="G5" t="n">
-        <v>50</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
           <t>CEF Frontier Discussion (21D)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>7-19</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5:30pm-7pm</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E6" s="29" t="inlineStr">
-        <is>
-          <t>KNE 130</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>723</v>
-      </c>
-      <c r="G6" t="n">
-        <v>430</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>CEF Community Engagement (19V)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>7-24</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>3:30pm-5pm</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>KNE 130</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>723</v>
-      </c>
-      <c r="G7" t="n">
-        <v>129</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>CEF Underrepresented Minorities</t>
         </is>
       </c>
     </row>
@@ -8089,7 +7966,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:H29"/>
+  <dimension ref="A3:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -8187,7 +8064,7 @@
       <c r="D5" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="29" t="inlineStr">
+      <c r="E5" s="28" t="inlineStr">
         <is>
           <t>HUB 332</t>
         </is>
@@ -8300,31 +8177,31 @@
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>7-19</t>
+          <t>7-20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>3:30pm-5pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>KNE 130</t>
+          <t>KNE 220</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>723</v>
+        <v>239</v>
       </c>
       <c r="G9" t="n">
-        <v>430</v>
+        <v>100</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>EF Lepton Colliders (19S)</t>
+          <t>EF TOP I (19M)</t>
         </is>
       </c>
     </row>
@@ -8344,18 +8221,18 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>KNE 220</t>
+          <t>KNE 120</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>239</v>
+        <v>435</v>
       </c>
       <c r="G10" t="n">
         <v>100</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>EF TOP I (19M)</t>
+          <t>EF EWK I (19N)</t>
         </is>
       </c>
     </row>
@@ -8375,49 +8252,49 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>KNE 120</t>
+          <t>KNE 210</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>435</v>
+        <v>242</v>
       </c>
       <c r="G11" t="n">
         <v>100</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>EF EWK I (19N)</t>
+          <t>EF BSM II - non DM (19O)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>7-20</t>
+          <t>7-21</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>KNE 210</t>
+          <t>HUB 340</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="G12" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>EF BSM II - non DM (19O)</t>
+          <t>XF RF-EF-TF RF1 Flavor anomalies and exotics at colliders (22A)</t>
         </is>
       </c>
     </row>
@@ -8435,20 +8312,20 @@
       <c r="D13" t="n">
         <v>2</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>HUB 340</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>72</v>
-      </c>
-      <c r="G13" t="n">
-        <v>50</v>
+      <c r="E13" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F13" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="29" t="n">
+        <v>40</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>XF RF-EF-TF RF1 Flavor anomalies and exotics at colliders (22A)</t>
+          <t>XF EF-CompF EF Centric Discussions (18X)</t>
         </is>
       </c>
     </row>
@@ -8460,26 +8337,26 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="29" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="E14" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F14" s="30" t="n">
+      <c r="F14" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G14" s="30" t="n">
+      <c r="G14" s="29" t="n">
         <v>40</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>XF EF-CompF EF Centric Discussions (18X)</t>
+          <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I)</t>
         </is>
       </c>
     </row>
@@ -8497,20 +8374,20 @@
       <c r="D15" t="n">
         <v>4</v>
       </c>
-      <c r="E15" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F15" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="30" t="n">
-        <v>40</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>KNE 110</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>223</v>
+      </c>
+      <c r="G15" t="n">
+        <v>100</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I)</t>
+          <t>EF BSM III (21N)</t>
         </is>
       </c>
     </row>
@@ -8530,18 +8407,18 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>KNE 110</t>
+          <t>KNE 210</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="G16" t="n">
         <v>100</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>EF BSM III (21N)</t>
+          <t>EF EWK II (21P)</t>
         </is>
       </c>
     </row>
@@ -8561,18 +8438,18 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>KNE 210</t>
+          <t>KNE 220</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G17" t="n">
         <v>100</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>EF EWK II (21P)</t>
+          <t>EF Higgs II (21Q)</t>
         </is>
       </c>
     </row>
@@ -8584,26 +8461,26 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>KNE 220</t>
+          <t>HUB 340</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>239</v>
+        <v>72</v>
       </c>
       <c r="G18" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>EF Higgs II (21Q)</t>
+          <t>XF IF-RF-EF Focus on timing and more generally tracking detectors (21J)</t>
         </is>
       </c>
     </row>
@@ -8630,73 +8507,73 @@
         <v>72</v>
       </c>
       <c r="G19" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>XF IF-RF-EF Focus on timing and more generally tracking detectors (21J)</t>
+          <t>XF RF-EF-AF RF5 to discuss CLFV and heavy states (24O)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>2</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>HUB 340</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>72</v>
-      </c>
-      <c r="G20" t="n">
-        <v>50</v>
+      <c r="E20" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F20" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>XF RF-EF-AF RF5 to discuss CLFV and heavy states (24O)</t>
+          <t>XF NF-EF Cross-cutting issues (22H)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>5:30pm-7pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E21" s="29" t="inlineStr">
-        <is>
-          <t>KNE 130</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>723</v>
-      </c>
-      <c r="G21" t="n">
-        <v>430</v>
+        <v>2</v>
+      </c>
+      <c r="E21" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F21" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="29" t="n">
+        <v>40</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>EF Energy (21W)</t>
+          <t>XF AF-EF Accelerator R&amp;D Overseas (22G)</t>
         </is>
       </c>
     </row>
@@ -8708,26 +8585,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F22" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G22" s="30" t="n">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>JHN 102</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>195</v>
+      </c>
+      <c r="G22" t="n">
+        <v>100</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>XF NF-EF Cross-cutting issues (22H)</t>
+          <t>EF BSM IV (23N)</t>
         </is>
       </c>
     </row>
@@ -8739,26 +8616,26 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F23" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G23" s="30" t="n">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>KNE 210</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>242</v>
+      </c>
+      <c r="G23" t="n">
+        <v>100</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>XF AF-EF Accelerator R&amp;D Overseas (22G)</t>
+          <t>EF Top II (23O)</t>
         </is>
       </c>
     </row>
@@ -8778,18 +8655,18 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>JHN 102</t>
+          <t>KNE 220</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="G24" t="n">
         <v>100</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>EF BSM IV (23N)</t>
+          <t>EF Strong Interactions II (23P)</t>
         </is>
       </c>
     </row>
@@ -8801,26 +8678,26 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>KNE 210</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>242</v>
-      </c>
-      <c r="G25" t="n">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="E25" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F25" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="29" t="n">
+        <v>20</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>EF Top II (23O)</t>
+          <t>XF RF-EF-TF RF7-EF6-EF7 hadrons as production probes; production mechanisms probing the internal structure of exotic hadrons (23A)</t>
         </is>
       </c>
     </row>
@@ -8832,117 +8709,55 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>KNE 220</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>239</v>
-      </c>
-      <c r="G26" t="n">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="E26" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F26" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G26" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>EF Strong Interactions II (23P)</t>
+          <t>XF EF-AF combined EF/AF report discussion (21V)</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F27" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G27" s="30" t="n">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>KNE 130</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>723</v>
+      </c>
+      <c r="G27" t="n">
+        <v>300</v>
       </c>
       <c r="H27" t="inlineStr">
-        <is>
-          <t>XF RF-EF-TF RF7-EF6-EF7 hadrons as production probes; production mechanisms probing the internal structure of exotic hadrons (23A)</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="1" t="inlineStr">
-        <is>
-          <t>7-22</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>2</v>
-      </c>
-      <c r="E28" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F28" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G28" s="30" t="n">
-        <v>30</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>XF EF-AF combined EF/AF report discussion (21V)</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>7-23</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>4</v>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>KNE 130</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>723</v>
-      </c>
-      <c r="G29" t="n">
-        <v>300</v>
-      </c>
-      <c r="H29" t="inlineStr">
         <is>
           <t>EF Discussion and Summaries (24N)</t>
         </is>
@@ -8962,7 +8777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:H27"/>
+  <dimension ref="A3:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -9185,15 +9000,15 @@
       <c r="D9" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="29" t="inlineStr">
+      <c r="E9" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F9" s="30" t="n">
+      <c r="F9" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G9" s="30" t="n">
+      <c r="G9" s="29" t="n">
         <v>40</v>
       </c>
       <c r="H9" t="inlineStr">
@@ -9236,31 +9051,31 @@
     <row r="11">
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>7-20</t>
+          <t>7-21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2pm-3:30pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KNE 130</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>723</v>
-      </c>
-      <c r="G11" t="n">
-        <v>172</v>
+        <v>4</v>
+      </c>
+      <c r="E11" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F11" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="29" t="n">
+        <v>20</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>NF Neutrino (20BB)</t>
+          <t>NF Beyond neutrino mass physics reach of precision beta-decay experiments (21K)</t>
         </is>
       </c>
     </row>
@@ -9278,51 +9093,51 @@
       <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="29" t="inlineStr">
+      <c r="E12" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F12" s="30" t="n">
+      <c r="F12" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G12" s="30" t="n">
-        <v>20</v>
+      <c r="G12" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>NF Beyond neutrino mass physics reach of precision beta-decay experiments (21K)</t>
+          <t>NF Blue Skye/Very Long Term ideas (21M)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E13" s="29" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="E13" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F13" s="30" t="n">
+      <c r="F13" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G13" s="30" t="n">
+      <c r="G13" s="29" t="n">
         <v>30</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>NF Blue Skye/Very Long Term ideas (21M)</t>
+          <t>XF NF-EF Cross-cutting issues (22H)</t>
         </is>
       </c>
     </row>
@@ -9340,82 +9155,82 @@
       <c r="D14" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="29" t="inlineStr">
+      <c r="E14" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F14" s="30" t="n">
+      <c r="F14" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G14" s="30" t="n">
+      <c r="G14" s="29" t="n">
         <v>30</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>XF NF-EF Cross-cutting issues (22H)</t>
+          <t>NF Optimizing Among Funding Agencies (21L)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="29" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="E15" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F15" s="30" t="n">
+      <c r="F15" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G15" s="30" t="n">
+      <c r="G15" s="29" t="n">
         <v>30</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>NF Optimizing Among Funding Agencies (21L)</t>
+          <t>NF Early Career Presentations (Topic 1) (20I)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5pm-7pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="29" t="inlineStr">
-        <is>
-          <t>KNE 130</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>723</v>
-      </c>
-      <c r="G16" t="n">
-        <v>430</v>
+        <v>4</v>
+      </c>
+      <c r="E16" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F16" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>NF Neutrino (22W)</t>
+          <t>XF IF-NF Instrumentation for Neutrino Experiments (21G)</t>
         </is>
       </c>
     </row>
@@ -9433,20 +9248,20 @@
       <c r="D17" t="n">
         <v>4</v>
       </c>
-      <c r="E17" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F17" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="30" t="n">
-        <v>30</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>KNE 210</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>242</v>
+      </c>
+      <c r="G17" t="n">
+        <v>50</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>NF Early Career Presentations (Topic 1) (20I)</t>
+          <t>XF NF-CF-IF Dark matter detector (22J)</t>
         </is>
       </c>
     </row>
@@ -9464,20 +9279,20 @@
       <c r="D18" t="n">
         <v>4</v>
       </c>
-      <c r="E18" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F18" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="30" t="n">
-        <v>30</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>JHN 102</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>195</v>
+      </c>
+      <c r="G18" t="n">
+        <v>60</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>XF IF-NF Instrumentation for Neutrino Experiments (21G)</t>
+          <t>NF Early Career Presentations (Topic 2) (20K)</t>
         </is>
       </c>
     </row>
@@ -9489,64 +9304,64 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>KNE 210</t>
+          <t>KNE 110</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>242</v>
+        <v>223</v>
       </c>
       <c r="G19" t="n">
         <v>50</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>XF NF-CF-IF Dark matter detector (22J)</t>
+          <t>XF NF-TF Neutrino theory network (22K)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>7-24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>JHN 102</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>195</v>
-      </c>
-      <c r="G20" t="n">
-        <v>60</v>
+        <v>2</v>
+      </c>
+      <c r="E20" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F20" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="29" t="n">
+        <v>20</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>NF Early Career Presentations (Topic 2) (20K)</t>
+          <t>NF Community Engagement Success Stories (22I)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>7-24</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -9557,20 +9372,20 @@
       <c r="D21" t="n">
         <v>2</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>KNE 110</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>223</v>
-      </c>
-      <c r="G21" t="n">
-        <v>50</v>
+      <c r="E21" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F21" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>XF NF-TF Neutrino theory network (22K)</t>
+          <t>XF NF-CF Neutrino mass scale with beta decay kinematics (22C)</t>
         </is>
       </c>
     </row>
@@ -9588,20 +9403,20 @@
       <c r="D22" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="29" t="inlineStr">
+      <c r="E22" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F22" s="30" t="n">
+      <c r="F22" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G22" s="30" t="n">
-        <v>20</v>
+      <c r="G22" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>NF Community Engagement Success Stories (22I)</t>
+          <t>XF RF-NF RF5 to discuss CLFV and neutrinos - mu2e and facilities (24A)</t>
         </is>
       </c>
     </row>
@@ -9619,20 +9434,20 @@
       <c r="D23" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="29" t="inlineStr">
+      <c r="E23" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F23" s="30" t="n">
+      <c r="F23" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G23" s="30" t="n">
+      <c r="G23" s="29" t="n">
         <v>30</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>XF NF-CF Neutrino mass scale with beta decay kinematics (22C)</t>
+          <t>NF Early Career Presentations (Topic 3) (20H)</t>
         </is>
       </c>
     </row>
@@ -9650,20 +9465,20 @@
       <c r="D24" t="n">
         <v>2</v>
       </c>
-      <c r="E24" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F24" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G24" s="30" t="n">
-        <v>30</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>JHN 175</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>70</v>
+      </c>
+      <c r="G24" t="n">
+        <v>60</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>XF RF-NF RF5 to discuss CLFV and neutrinos - mu2e and facilities (24A)</t>
+          <t>NF Early Career Presentations (Topic 4) (20J)</t>
         </is>
       </c>
     </row>
@@ -9681,80 +9496,18 @@
       <c r="D25" t="n">
         <v>2</v>
       </c>
-      <c r="E25" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F25" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G25" s="30" t="n">
-        <v>30</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>KNE 110</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>223</v>
+      </c>
+      <c r="G25" t="n">
+        <v>100</v>
       </c>
       <c r="H25" t="inlineStr">
-        <is>
-          <t>NF Early Career Presentations (Topic 3) (20H)</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>7-24</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>JHN 175</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>70</v>
-      </c>
-      <c r="G26" t="n">
-        <v>60</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>NF Early Career Presentations (Topic 4) (20J)</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>7-24</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>2</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>KNE 110</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>223</v>
-      </c>
-      <c r="G27" t="n">
-        <v>100</v>
-      </c>
-      <c r="H27" t="inlineStr">
         <is>
           <t>XF NF-CF-TF high energy and ultrahigh energy astrophysical neutrino (22N)</t>
         </is>
@@ -9774,7 +9527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:H22"/>
+  <dimension ref="A3:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -9842,15 +9595,15 @@
       <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="29" t="inlineStr">
+      <c r="E4" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F4" s="30" t="n">
+      <c r="F4" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G4" s="30" t="n">
+      <c r="G4" s="29" t="n">
         <v>40</v>
       </c>
       <c r="H4" t="inlineStr">
@@ -9935,15 +9688,15 @@
       <c r="D7" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="29" t="inlineStr">
+      <c r="E7" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F7" s="30" t="n">
+      <c r="F7" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G7" s="30" t="n">
+      <c r="G7" s="29" t="n">
         <v>40</v>
       </c>
       <c r="H7" t="inlineStr">
@@ -9966,15 +9719,15 @@
       <c r="D8" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="29" t="inlineStr">
+      <c r="E8" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F8" s="30" t="n">
+      <c r="F8" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G8" s="30" t="n">
+      <c r="G8" s="29" t="n">
         <v>40</v>
       </c>
       <c r="H8" t="inlineStr">
@@ -9997,15 +9750,15 @@
       <c r="D9" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="29" t="inlineStr">
+      <c r="E9" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F9" s="30" t="n">
+      <c r="F9" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G9" s="30" t="n">
+      <c r="G9" s="29" t="n">
         <v>40</v>
       </c>
       <c r="H9" t="inlineStr">
@@ -10017,31 +9770,31 @@
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>7-20</t>
+          <t>7-21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2pm-3:30pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E10" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F10" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="30" t="n">
-        <v>215</v>
+        <v>2</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>HUB 340</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>72</v>
+      </c>
+      <c r="G10" t="n">
+        <v>50</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>RF Rare Processes and AMO</t>
+          <t>XF RF-EF-TF RF1 Flavor anomalies and exotics at colliders (22A)</t>
         </is>
       </c>
     </row>
@@ -10053,26 +9806,26 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HUB 340</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>72</v>
-      </c>
-      <c r="G11" t="n">
-        <v>50</v>
+      <c r="E11" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F11" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>XF RF-EF-TF RF1 Flavor anomalies and exotics at colliders (22A)</t>
+          <t>XF RF-CF RF1 large-volume data analysis and simulation and usage of HPC in data analysis (24B)</t>
         </is>
       </c>
     </row>
@@ -10090,20 +9843,20 @@
       <c r="D12" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F12" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="30" t="n">
-        <v>30</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>HUB 340</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>72</v>
+      </c>
+      <c r="G12" t="n">
+        <v>40</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>XF RF-CF RF1 large-volume data analysis and simulation and usage of HPC in data analysis (24B)</t>
+          <t>XF IF-RF-EF Focus on timing and more generally tracking detectors (21J)</t>
         </is>
       </c>
     </row>
@@ -10130,73 +9883,73 @@
         <v>72</v>
       </c>
       <c r="G13" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>XF IF-RF-EF Focus on timing and more generally tracking detectors (21J)</t>
+          <t>XF RF-EF-AF RF5 to discuss CLFV and heavy states (24O)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>2</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>HUB 340</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>72</v>
-      </c>
-      <c r="G14" t="n">
-        <v>50</v>
+      <c r="E14" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F14" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="29" t="n">
+        <v>40</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>XF RF-EF-AF RF5 to discuss CLFV and heavy states (24O)</t>
+          <t>RF RF3 Discussions (21B)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2pm-3:30pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E15" s="29" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="E15" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F15" s="30" t="n">
+      <c r="F15" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G15" s="30" t="n">
-        <v>129</v>
+      <c r="G15" s="29" t="n">
+        <v>20</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>RF Rare Processes (21U)</t>
+          <t>XF RF-EF-TF RF7-EF6-EF7 hadrons as production probes; production mechanisms probing the internal structure of exotic hadrons (23A)</t>
         </is>
       </c>
     </row>
@@ -10208,64 +9961,64 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="29" t="inlineStr">
+      <c r="E16" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F16" s="30" t="n">
+      <c r="F16" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G16" s="30" t="n">
+      <c r="G16" s="29" t="n">
         <v>40</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>RF RF3 Discussions (21B)</t>
+          <t>RF RF5 Discussions (21R)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-11am</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F17" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="30" t="n">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>KNE 220</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>239</v>
+      </c>
+      <c r="G17" t="n">
+        <v>140</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>XF RF-EF-TF RF7-EF6-EF7 hadrons as production probes; production mechanisms probing the internal structure of exotic hadrons (23A)</t>
+          <t>RF All-Frontier Discussions (23Y)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>7-24</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -10276,51 +10029,51 @@
       <c r="D18" t="n">
         <v>2</v>
       </c>
-      <c r="E18" s="29" t="inlineStr">
+      <c r="E18" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F18" s="30" t="n">
+      <c r="F18" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G18" s="30" t="n">
-        <v>40</v>
+      <c r="G18" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>RF RF5 Discussions (21R)</t>
+          <t>XF RF-NF RF5 to discuss CLFV and neutrinos - mu2e and facilities (24A)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>7-24</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8am-11am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>KNE 220</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>239</v>
-      </c>
-      <c r="G19" t="n">
-        <v>140</v>
+        <v>2</v>
+      </c>
+      <c r="E19" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F19" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="29" t="n">
+        <v>40</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>RF All-Frontier Discussions (23Y)</t>
+          <t>XF AF-RF cross-cutting issues (22B)</t>
         </is>
       </c>
     </row>
@@ -10338,80 +10091,18 @@
       <c r="D20" t="n">
         <v>2</v>
       </c>
-      <c r="E20" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F20" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G20" s="30" t="n">
-        <v>30</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>JHN 111</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>50</v>
+      </c>
+      <c r="G20" t="n">
+        <v>50</v>
       </c>
       <c r="H20" t="inlineStr">
-        <is>
-          <t>XF RF-NF RF5 to discuss CLFV and neutrinos - mu2e and facilities (24A)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>7-24</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F21" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G21" s="30" t="n">
-        <v>40</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>XF AF-RF cross-cutting issues (22B)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>7-24</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>JHN 111</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>50</v>
-      </c>
-      <c r="G22" t="n">
-        <v>50</v>
-      </c>
-      <c r="H22" t="inlineStr">
         <is>
           <t>XF RF-IF RF1 Discuss picosecond detectors - fast timing in tracking and calorimetry (22P)</t>
         </is>
@@ -10431,7 +10122,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:H22"/>
+  <dimension ref="A3:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -10767,38 +10458,38 @@
     <row r="13">
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>7-19</t>
+          <t>7-20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3:30pm-5pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E13" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F13" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="30" t="n">
-        <v>430</v>
+        <v>4</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KNE 130</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>723</v>
+      </c>
+      <c r="G13" t="n">
+        <v>300</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>CF Cosmic</t>
+          <t>CF Report Discussion (23Q)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>7-20</t>
+          <t>7-21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -10811,18 +10502,18 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>KNE 130</t>
+          <t>KNE 120</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>723</v>
+        <v>435</v>
       </c>
       <c r="G14" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>CF Report Discussion (23Q)</t>
+          <t>CF Report Discussion (24M)</t>
         </is>
       </c>
     </row>
@@ -10834,57 +10525,57 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>KNE 120</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>435</v>
-      </c>
-      <c r="G15" t="n">
-        <v>200</v>
+        <v>2</v>
+      </c>
+      <c r="E15" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F15" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>CF Report Discussion (24M)</t>
+          <t>XF RF-CF RF1 large-volume data analysis and simulation and usage of HPC in data analysis (24B)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="29" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="E16" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F16" s="30" t="n">
+      <c r="F16" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G16" s="30" t="n">
+      <c r="G16" s="29" t="n">
         <v>30</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>XF RF-CF RF1 large-volume data analysis and simulation and usage of HPC in data analysis (24B)</t>
+          <t>XF IF-CF-CompF Instrumentation for Cosmic Frontier (21H)</t>
         </is>
       </c>
     </row>
@@ -10902,20 +10593,20 @@
       <c r="D17" t="n">
         <v>4</v>
       </c>
-      <c r="E17" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F17" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="30" t="n">
-        <v>30</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>KNE 210</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>242</v>
+      </c>
+      <c r="G17" t="n">
+        <v>50</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>XF IF-CF-CompF Instrumentation for Cosmic Frontier (21H)</t>
+          <t>XF NF-CF-IF Dark matter detector (22J)</t>
         </is>
       </c>
     </row>
@@ -10935,140 +10626,78 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>KNE 210</t>
+          <t>KNE 120</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>242</v>
+        <v>435</v>
       </c>
       <c r="G18" t="n">
         <v>50</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>XF NF-CF-IF Dark matter detector (22J)</t>
+          <t>XF TF-CF Cosmic Frontier Theory (19K)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>7-24</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>KNE 120</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>435</v>
-      </c>
-      <c r="G19" t="n">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="E19" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F19" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>XF TF-CF Cosmic Frontier Theory (19K)</t>
+          <t>XF NF-CF Neutrino mass scale with beta decay kinematics (22C)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>7-24</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2pm-3:30pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>KNE 130</t>
+          <t>KNE 110</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>723</v>
+        <v>223</v>
       </c>
       <c r="G20" t="n">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="H20" t="inlineStr">
-        <is>
-          <t>CF Cosmic (23W)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>7-24</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F21" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G21" s="30" t="n">
-        <v>30</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>XF NF-CF Neutrino mass scale with beta decay kinematics (22C)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>7-24</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>KNE 110</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>223</v>
-      </c>
-      <c r="G22" t="n">
-        <v>100</v>
-      </c>
-      <c r="H22" t="inlineStr">
         <is>
           <t>XF NF-CF-TF high energy and ultrahigh energy astrophysical neutrino (22N)</t>
         </is>
@@ -11088,7 +10717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:H19"/>
+  <dimension ref="A3:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -11145,31 +10774,31 @@
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>7-18</t>
+          <t>7-19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3:30pm-5pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E4" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F4" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="30" t="n">
-        <v>430</v>
+        <v>4</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>KNE 220</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>239</v>
+      </c>
+      <c r="G4" t="n">
+        <v>150</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>TF Lattice QCD</t>
+          <t>XF CF-EF-RF-TF CF1 CF2 CF3 CF7 DM Complementarity (20L)</t>
         </is>
       </c>
     </row>
@@ -11189,25 +10818,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>KNE 220</t>
+          <t>JHN 175</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>239</v>
+        <v>70</v>
       </c>
       <c r="G5" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>XF CF-EF-RF-TF CF1 CF2 CF3 CF7 DM Complementarity (20L)</t>
+          <t>XF TF-EF Energy Frontier Theory (19J)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>7-19</t>
+          <t>7-20</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -11220,49 +10849,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>JHN 175</t>
+          <t>HUB 337</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="G6" t="n">
         <v>50</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>XF TF-EF Energy Frontier Theory (19J)</t>
+          <t>TF TF9-TF11 (18C)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>7-20</t>
+          <t>7-21</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>HUB 337</t>
+          <t>HUB 340</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G7" t="n">
         <v>50</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>TF TF9-TF11 (18C)</t>
+          <t>XF RF-EF-TF RF1 Flavor anomalies and exotics at colliders (22A)</t>
         </is>
       </c>
     </row>
@@ -11274,57 +10903,57 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>HUB 340</t>
+          <t>JHN 111</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
         <v>50</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>XF RF-EF-TF RF1 Flavor anomalies and exotics at colliders (22A)</t>
+          <t>TF TF2-TF5 (18D)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>JHN 111</t>
+          <t>HUB 214</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G9" t="n">
         <v>50</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>TF TF2-TF5 (18D)</t>
+          <t>XF TF-CompF QIS (21Z)</t>
         </is>
       </c>
     </row>
@@ -11336,26 +10965,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>HUB 214</t>
+          <t>HUB 337</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G10" t="n">
         <v>50</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>XF TF-CompF QIS (21Z)</t>
+          <t>TF TF4b-TF6-TF7 (18F)</t>
         </is>
       </c>
     </row>
@@ -11367,88 +10996,88 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HUB 337</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>50</v>
-      </c>
-      <c r="G11" t="n">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="E11" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F11" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="29" t="n">
+        <v>20</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>TF TF4b-TF6-TF7 (18F)</t>
+          <t>XF RF-EF-TF RF7-EF6-EF7 hadrons as production probes; production mechanisms probing the internal structure of exotic hadrons (23A)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="29" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="E12" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F12" s="30" t="n">
+      <c r="F12" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G12" s="30" t="n">
-        <v>20</v>
+      <c r="G12" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>XF RF-EF-TF RF7-EF6-EF7 hadrons as production probes; production mechanisms probing the internal structure of exotic hadrons (23A)</t>
+          <t>TF TF1-TF3-TF4a (18G)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>3:30pm-5pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E13" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F13" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="30" t="n">
-        <v>129</v>
+        <v>4</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>KNE 120</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>435</v>
+      </c>
+      <c r="G13" t="n">
+        <v>50</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>TF Theory</t>
+          <t>XF TF-CF Cosmic Frontier Theory (19K)</t>
         </is>
       </c>
     </row>
@@ -11466,20 +11095,20 @@
       <c r="D14" t="n">
         <v>4</v>
       </c>
-      <c r="E14" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F14" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="30" t="n">
-        <v>30</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>JHN 111</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>50</v>
+      </c>
+      <c r="G14" t="n">
+        <v>50</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>TF TF1-TF3-TF4a (18G)</t>
+          <t>TF TF8-TF10 (18E)</t>
         </is>
       </c>
     </row>
@@ -11491,64 +11120,64 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>KNE 120</t>
+          <t>KNE 110</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>435</v>
+        <v>223</v>
       </c>
       <c r="G15" t="n">
         <v>50</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>XF TF-CF Cosmic Frontier Theory (19K)</t>
+          <t>XF NF-TF Neutrino theory network (22K)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>7-24</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>JHN 111</t>
+          <t>KNE 110</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>50</v>
+        <v>223</v>
       </c>
       <c r="G16" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>TF TF8-TF10 (18E)</t>
+          <t>XF NF-CF-TF high energy and ultrahigh energy astrophysical neutrino (22N)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>7-24</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -11561,78 +11190,16 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>KNE 110</t>
+          <t>KNE 220</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="G17" t="n">
-        <v>50</v>
+        <v>175</v>
       </c>
       <c r="H17" t="inlineStr">
-        <is>
-          <t>XF NF-TF Neutrino theory network (22K)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>7-24</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>KNE 110</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>223</v>
-      </c>
-      <c r="G18" t="n">
-        <v>100</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>XF NF-CF-TF high energy and ultrahigh energy astrophysical neutrino (22N)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>7-24</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>KNE 220</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>239</v>
-      </c>
-      <c r="G19" t="n">
-        <v>175</v>
-      </c>
-      <c r="H19" t="inlineStr">
         <is>
           <t>TF Discussion and frontier reports (19P)</t>
         </is>
@@ -11647,6 +11214,725 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A3:H24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="7.109375" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="14" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="15.5546875" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="11.33203125" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="16" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
+    <col width="18.44140625" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
+    <col width="104.6640625" bestFit="1" customWidth="1" style="4" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Number Hours</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Room Capacity</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Requested People</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Meeting Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>7-18</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F4" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>AF AF1 (19H)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>7-18</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F5" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="29" t="n">
+        <v>30</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>AF AF2-5 (19G)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>7-19</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F6" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="29" t="n">
+        <v>30</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>AF AF4 (19E)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>7-19</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F7" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G7" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>AF AF3 (19F)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>7-20</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F8" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>AF AF6 (19D)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>7-20</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F9" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="29" t="n">
+        <v>30</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>AF AF7 (19C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>7-21</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F10" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="29" t="n">
+        <v>40</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>7-21</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>JHN 175</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>70</v>
+      </c>
+      <c r="G11" t="n">
+        <v>70</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>AF P5 Strategy technologies and test facilities (24K)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>7-21</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>JHN 102</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>195</v>
+      </c>
+      <c r="G12" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>AF P5 Strategy colliders (24L)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>7-21</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10am-12pm</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>HUB 340</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>72</v>
+      </c>
+      <c r="G13" t="n">
+        <v>50</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>XF RF-EF-AF RF5 to discuss CLFV and heavy states (24O)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>7-22</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8am-10am</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F14" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="29" t="n">
+        <v>40</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>XF AF-EF Accelerator R&amp;D Overseas (22G)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>7-22</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>JHN 111</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>50</v>
+      </c>
+      <c r="G15" t="n">
+        <v>50</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>AF P5 Strategy beam physics and facilities (24H)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>7-22</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>4</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HUB 250</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>181</v>
+      </c>
+      <c r="G16" t="n">
+        <v>70</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>AF P5 Strategy optimizing among funding sources (24I)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>7-22</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>4</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HUB 332</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>120</v>
+      </c>
+      <c r="G17" t="n">
+        <v>70</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>AF P5 Strategy accel for neutrinos and PBC (24J)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>7-22</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10am-12pm</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F18" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="29" t="n">
+        <v>30</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>XF EF-AF combined EF/AF report discussion (21V)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>7-23</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>JHN 175</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>70</v>
+      </c>
+      <c r="G19" t="n">
+        <v>70</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>AF Summary report discussion and tuneup (24C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>7-23</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>8am-10am</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>KNE 110</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>223</v>
+      </c>
+      <c r="G20" t="n">
+        <v>150</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>AF All-Frontier (18M)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>7-24</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10am-12pm</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F21" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="29" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>AF Success Stories from AF (22D)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>7-24</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>10am-12pm</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F22" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="29" t="n">
+        <v>40</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>XF AF-RF cross-cutting issues (22B)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>7-24</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>10am-12pm</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>JHN 075</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>100</v>
+      </c>
+      <c r="G23" t="n">
+        <v>70</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>XF AF-CompF Cross-cutting issues (22E)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>7-24</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>10am-12pm</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>KNE 120</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>435</v>
+      </c>
+      <c r="G24" t="n">
+        <v>150</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>AF All-Frontier</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11720,20 +12006,20 @@
       <c r="D4" t="n">
         <v>4</v>
       </c>
-      <c r="E4" s="29" t="inlineStr">
+      <c r="E4" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F4" s="30" t="n">
+      <c r="F4" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G4" s="30" t="n">
+      <c r="G4" s="29" t="n">
         <v>20</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>AF AF1 (19H)</t>
+          <t>IF IF5 (23D)</t>
         </is>
       </c>
     </row>
@@ -11751,20 +12037,20 @@
       <c r="D5" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="29" t="inlineStr">
+      <c r="E5" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F5" s="30" t="n">
+      <c r="F5" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G5" s="30" t="n">
-        <v>30</v>
+      <c r="G5" s="29" t="n">
+        <v>20</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AF AF2-5 (19G)</t>
+          <t>IF IF2 (23G)</t>
         </is>
       </c>
     </row>
@@ -11776,26 +12062,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>3:30pm-5pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E6" s="29" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="E6" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F6" s="30" t="n">
+      <c r="F6" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G6" s="30" t="n">
-        <v>430</v>
+      <c r="G6" s="29" t="n">
+        <v>20</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>AF The Next Accelerators</t>
+          <t>IF IF1 (23H)</t>
         </is>
       </c>
     </row>
@@ -11813,20 +12099,20 @@
       <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="E7" s="29" t="inlineStr">
+      <c r="E7" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F7" s="30" t="n">
+      <c r="F7" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G7" s="30" t="n">
-        <v>30</v>
+      <c r="G7" s="29" t="n">
+        <v>20</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>AF AF4 (19E)</t>
+          <t>IF IF10 (23E)</t>
         </is>
       </c>
     </row>
@@ -11844,27 +12130,27 @@
       <c r="D8" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="29" t="inlineStr">
+      <c r="E8" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F8" s="30" t="n">
+      <c r="F8" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G8" s="30" t="n">
+      <c r="G8" s="29" t="n">
         <v>20</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>AF AF3 (19F)</t>
+          <t>IF IF6 (23C)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>7-20</t>
+          <t>7-19</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -11875,27 +12161,27 @@
       <c r="D9" t="n">
         <v>4</v>
       </c>
-      <c r="E9" s="29" t="inlineStr">
+      <c r="E9" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F9" s="30" t="n">
+      <c r="F9" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G9" s="30" t="n">
+      <c r="G9" s="29" t="n">
         <v>20</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>AF AF6 (19D)</t>
+          <t>IF IF4 (23E)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>7-20</t>
+          <t>7-19</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -11906,27 +12192,27 @@
       <c r="D10" t="n">
         <v>4</v>
       </c>
-      <c r="E10" s="29" t="inlineStr">
+      <c r="E10" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F10" s="30" t="n">
+      <c r="F10" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G10" s="30" t="n">
-        <v>30</v>
+      <c r="G10" s="29" t="n">
+        <v>20</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>AF AF7 (19C)</t>
+          <t>IF IF3 (23F)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -11937,20 +12223,20 @@
       <c r="D11" t="n">
         <v>4</v>
       </c>
-      <c r="E11" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F11" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="30" t="n">
-        <v>40</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HUB 250</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>181</v>
+      </c>
+      <c r="G11" t="n">
+        <v>100</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I)</t>
+          <t>IF Workshop Plans</t>
         </is>
       </c>
     </row>
@@ -11968,20 +12254,20 @@
       <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>JHN 175</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>70</v>
-      </c>
-      <c r="G12" t="n">
-        <v>70</v>
+      <c r="E12" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F12" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="29" t="n">
+        <v>20</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>AF P5 Strategy technologies and test facilities (24K)</t>
+          <t>IF IF7 (24G)</t>
         </is>
       </c>
     </row>
@@ -11999,20 +12285,20 @@
       <c r="D13" t="n">
         <v>4</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>JHN 102</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>195</v>
-      </c>
-      <c r="G13" t="n">
-        <v>100</v>
+      <c r="E13" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F13" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="29" t="n">
+        <v>40</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>AF P5 Strategy colliders (24L)</t>
+          <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I)</t>
         </is>
       </c>
     </row>
@@ -12024,26 +12310,26 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>HUB 340</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>72</v>
-      </c>
-      <c r="G14" t="n">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="E14" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F14" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="29" t="n">
+        <v>40</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>XF RF-EF-AF RF5 to discuss CLFV and heavy states (24O)</t>
+          <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I)</t>
         </is>
       </c>
     </row>
@@ -12055,57 +12341,57 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>3:30pm-5pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E15" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F15" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="30" t="n">
-        <v>129</v>
+        <v>2</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>HUB 337</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>50</v>
+      </c>
+      <c r="G15" t="n">
+        <v>50</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>AF Accelerator</t>
+          <t>XF UF-IF QIS (22F)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>7-21</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F16" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="30" t="n">
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HUB 340</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>72</v>
+      </c>
+      <c r="G16" t="n">
         <v>40</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>XF AF-EF Accelerator R&amp;D Overseas (22G)</t>
+          <t>XF IF-RF-EF Focus on timing and more generally tracking detectors (21J)</t>
         </is>
       </c>
     </row>
@@ -12123,20 +12409,20 @@
       <c r="D17" t="n">
         <v>4</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>JHN 111</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>50</v>
-      </c>
-      <c r="G17" t="n">
-        <v>50</v>
+      <c r="E17" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F17" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="29" t="n">
+        <v>20</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>AF P5 Strategy beam physics and facilities (24H)</t>
+          <t>IF IF9 (24E)</t>
         </is>
       </c>
     </row>
@@ -12154,82 +12440,82 @@
       <c r="D18" t="n">
         <v>4</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>HUB 250</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>181</v>
-      </c>
-      <c r="G18" t="n">
-        <v>70</v>
+      <c r="E18" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F18" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="29" t="n">
+        <v>20</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>AF P5 Strategy optimizing among funding sources (24I)</t>
+          <t>IF IF8 (24F)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>HUB 332</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>120</v>
-      </c>
-      <c r="G19" t="n">
-        <v>70</v>
+        <v>2</v>
+      </c>
+      <c r="E19" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F19" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>AF P5 Strategy accel for neutrinos and PBC (24J)</t>
+          <t>XF IF-UF Cross-cutting Facilities (21F)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="29" t="inlineStr">
+        <v>4</v>
+      </c>
+      <c r="E20" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F20" s="30" t="n">
+      <c r="F20" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G20" s="30" t="n">
+      <c r="G20" s="29" t="n">
         <v>30</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>XF EF-AF combined EF/AF report discussion (21V)</t>
+          <t>XF IF-NF Instrumentation for Neutrino Experiments (21G)</t>
         </is>
       </c>
     </row>
@@ -12247,20 +12533,20 @@
       <c r="D21" t="n">
         <v>4</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>JHN 175</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>70</v>
-      </c>
-      <c r="G21" t="n">
-        <v>70</v>
+      <c r="E21" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F21" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>AF Summary report discussion and tuneup (24C)</t>
+          <t>XF IF-CF-CompF Instrumentation for Cosmic Frontier (21H)</t>
         </is>
       </c>
     </row>
@@ -12280,56 +12566,56 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>KNE 110</t>
+          <t>JHN 175</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>223</v>
+        <v>70</v>
       </c>
       <c r="G22" t="n">
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>AF All-Frontier (18M)</t>
+          <t>XF IF-CompF readout and AI/ML (21E)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>7-24</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F23" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G23" s="30" t="n">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>KNE 210</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>242</v>
+      </c>
+      <c r="G23" t="n">
+        <v>50</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>AF Success Stories from AF (22D)</t>
+          <t>XF NF-CF-IF Dark matter detector (22J)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>7-24</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -12340,20 +12626,20 @@
       <c r="D24" t="n">
         <v>2</v>
       </c>
-      <c r="E24" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F24" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G24" s="30" t="n">
-        <v>40</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>KNE 110</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>223</v>
+      </c>
+      <c r="G24" t="n">
+        <v>100</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>XF AF-RF cross-cutting issues (22B)</t>
+          <t>IF Report</t>
         </is>
       </c>
     </row>
@@ -12373,18 +12659,18 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>JHN 075</t>
+          <t>JHN 111</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G25" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>XF AF-CompF Cross-cutting issues (22E)</t>
+          <t>XF RF-IF RF1 Discuss picosecond detectors - fast timing in tracking and calorimetry (22P)</t>
         </is>
       </c>
     </row>
@@ -12404,18 +12690,18 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>KNE 120</t>
+          <t>JHN 102</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>435</v>
+        <v>195</v>
       </c>
       <c r="G26" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>AF All-Frontier</t>
+          <t>IF Report (24D)</t>
         </is>
       </c>
     </row>
@@ -12427,13 +12713,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:H27"/>
+  <dimension ref="A3:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -12495,26 +12781,26 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" s="29" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="E4" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F4" s="30" t="n">
+      <c r="F4" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G4" s="30" t="n">
+      <c r="G4" s="29" t="n">
         <v>20</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>IF IF2 (23G)</t>
+          <t>CompF CompF1 Experimental Algorithm Parallelization (20G)</t>
         </is>
       </c>
     </row>
@@ -12526,26 +12812,26 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" s="29" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="E5" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F5" s="30" t="n">
+      <c r="F5" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G5" s="30" t="n">
+      <c r="G5" s="29" t="n">
         <v>20</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>IF IF1 (23H)</t>
+          <t>CompF CompF2 Theoretical Calculations and SImulation (20V)</t>
         </is>
       </c>
     </row>
@@ -12557,26 +12843,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" s="29" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="E6" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F6" s="30" t="n">
+      <c r="F6" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G6" s="30" t="n">
+      <c r="G6" s="29" t="n">
         <v>20</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>IF IF4 (23E)</t>
+          <t>CompF CompF3 Machine Learning (20F)</t>
         </is>
       </c>
     </row>
@@ -12588,26 +12874,26 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" s="29" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="E7" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F7" s="30" t="n">
+      <c r="F7" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G7" s="30" t="n">
+      <c r="G7" s="29" t="n">
         <v>20</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>IF IF3 (23F)</t>
+          <t>CompF CompF4 Storage and Processing Resource Areas (20U)</t>
         </is>
       </c>
     </row>
@@ -12619,26 +12905,26 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" s="29" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="E8" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F8" s="30" t="n">
+      <c r="F8" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G8" s="30" t="n">
+      <c r="G8" s="29" t="n">
         <v>20</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>IF IF6 (23C)</t>
+          <t>CompF CompF5 End User Analysis (20E)</t>
         </is>
       </c>
     </row>
@@ -12650,224 +12936,224 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" s="29" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="E9" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F9" s="30" t="n">
+      <c r="F9" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G9" s="30" t="n">
+      <c r="G9" s="29" t="n">
         <v>20</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>IF IF5 (23D)</t>
+          <t>CompF CompF6 Quantum Computing (20T)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>7-20</t>
+          <t>7-21</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HUB 250</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>181</v>
-      </c>
-      <c r="G10" t="n">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="E10" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F10" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="29" t="n">
+        <v>40</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>IF Workshop Plans</t>
+          <t>XF EF-CompF EF Centric Discussions (18X)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>7-20</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3:30pm-5pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>KNE 130</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>723</v>
-      </c>
-      <c r="G11" t="n">
-        <v>430</v>
+        <v>2</v>
+      </c>
+      <c r="E11" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F11" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="29" t="n">
+        <v>200</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>IF Instrumentation</t>
+          <t>CompF Report Discussion</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F12" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="30" t="n">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>HUB 214</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>80</v>
+      </c>
+      <c r="G12" t="n">
+        <v>50</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>IF IF7 (24G)</t>
+          <t>XF TF-CompF QIS (21Z)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
-      </c>
-      <c r="E13" s="29" t="inlineStr">
+        <v>2</v>
+      </c>
+      <c r="E13" s="28" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F13" s="30" t="n">
+      <c r="F13" s="29" t="n">
         <v>-1</v>
       </c>
-      <c r="G13" s="30" t="n">
-        <v>40</v>
+      <c r="G13" s="29" t="n">
+        <v>20</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I)</t>
+          <t>CompF CompF7 Reinterpretation and long-term preservation of data and code (20D)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10:30am-12:30pm</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
-      </c>
-      <c r="E14" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F14" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="30" t="n">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>JHN 175</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>70</v>
+      </c>
+      <c r="G14" t="n">
+        <v>50</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I)</t>
+          <t>CompF Industry Session</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>HUB 337</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>50</v>
-      </c>
-      <c r="G15" t="n">
-        <v>50</v>
+        <v>4</v>
+      </c>
+      <c r="E15" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F15" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>XF UF-IF QIS (22F)</t>
+          <t>XF IF-CF-CompF Instrumentation for Cosmic Frontier (21H)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -12875,842 +13161,30 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>HUB 340</t>
+          <t>JHN 175</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G16" t="n">
         <v>40</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>XF IF-RF-EF Focus on timing and more generally tracking detectors (21J)</t>
+          <t>XF IF-CompF readout and AI/ML (21E)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>7-24</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>4</v>
-      </c>
-      <c r="E17" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F17" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>IF IF9 (24E)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>7-22</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>4</v>
-      </c>
-      <c r="E18" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F18" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>IF IF8 (24F)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>7-23</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>8am-10am</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F19" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G19" s="30" t="n">
-        <v>30</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>XF IF-UF Cross-cutting Facilities (21F)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>7-23</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>4</v>
-      </c>
-      <c r="E20" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F20" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G20" s="30" t="n">
-        <v>30</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>XF IF-NF Instrumentation for Neutrino Experiments (21G)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>7-23</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>4</v>
-      </c>
-      <c r="E21" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F21" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G21" s="30" t="n">
-        <v>30</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>XF IF-CF-CompF Instrumentation for Cosmic Frontier (21H)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>7-23</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>8am-10am</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>JHN 175</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>70</v>
-      </c>
-      <c r="G22" t="n">
-        <v>40</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>XF IF-CompF readout and AI/ML (21E)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>7-23</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>KNE 210</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>242</v>
-      </c>
-      <c r="G23" t="n">
-        <v>50</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>XF NF-CF-IF Dark matter detector (22J)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>7-23</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
           <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>KNE 110</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>223</v>
-      </c>
-      <c r="G24" t="n">
-        <v>100</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>IF Report</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>7-24</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>JHN 111</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>50</v>
-      </c>
-      <c r="G25" t="n">
-        <v>50</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>XF RF-IF RF1 Discuss picosecond detectors - fast timing in tracking and calorimetry (22P)</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>7-24</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>JHN 102</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>195</v>
-      </c>
-      <c r="G26" t="n">
-        <v>100</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>IF Report (24D)</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>7-24</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>3:30pm-5pm</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E27" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F27" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G27" s="30" t="n">
-        <v>129</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>IF Instrumentation Awards</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A3:H20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="7.109375" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="14" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-    <col width="15.5546875" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
-    <col width="11.33203125" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
-    <col width="16" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
-    <col width="18.44140625" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
-    <col width="104.6640625" bestFit="1" customWidth="1" style="4" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Number Hours</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Room</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Room Capacity</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Requested People</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Meeting Name</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>7-18</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8am-10am</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F4" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>CompF CompF1 Experimental Algorithm Parallelization (20G)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>7-18</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F5" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>CompF CompF2 Theoretical Calculations and SImulation (20V)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>7-18</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2pm-3:30pm</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E6" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F6" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="30" t="n">
-        <v>430</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>CompF AI/ML</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>7-19</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>8am-10am</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F7" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>CompF CompF3 Machine Learning (20F)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>7-19</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F8" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>CompF CompF4 Storage and Processing Resource Areas (20U)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>7-20</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>8am-10am</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F9" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>CompF CompF5 End User Analysis (20E)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>7-20</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>2</v>
-      </c>
-      <c r="E10" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F10" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>CompF CompF6 Quantum Computing (20T)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>7-21</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>8am-10am</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F11" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="30" t="n">
-        <v>40</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>XF EF-CompF EF Centric Discussions (18X)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>7-22</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>8am-10am</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F12" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="30" t="n">
-        <v>20</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>CompF CompF7 Reinterpretation and long-term preservation of data and code (20D)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>7-22</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>8am-10am</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>HUB 214</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>80</v>
-      </c>
-      <c r="G13" t="n">
-        <v>50</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>XF TF-CompF QIS (21Z)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>7-22</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F14" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="30" t="n">
-        <v>200</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>CompF Report Discussion</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>7-22</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10:30am-12:30pm</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>JHN 175</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>70</v>
-      </c>
-      <c r="G15" t="n">
-        <v>50</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>CompF Industry Session</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>7-23</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F16" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="30" t="n">
-        <v>30</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>XF IF-CF-CompF Instrumentation for Cosmic Frontier (21H)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>7-23</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>8am-10am</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -13718,109 +13192,16 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>JHN 175</t>
+          <t>JHN 075</t>
         </is>
       </c>
       <c r="F17" t="n">
+        <v>100</v>
+      </c>
+      <c r="G17" t="n">
         <v>70</v>
       </c>
-      <c r="G17" t="n">
-        <v>40</v>
-      </c>
       <c r="H17" t="inlineStr">
-        <is>
-          <t>XF IF-CompF readout and AI/ML (21E)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>7-23</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>3:30pm-5pm</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E18" s="29" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F18" s="30" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="30" t="n">
-        <v>172</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>CompF Computing</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>7-23</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>5:30pm-7pm</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="E19" s="29" t="inlineStr">
-        <is>
-          <t>KNE 130</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>723</v>
-      </c>
-      <c r="G19" t="n">
-        <v>430</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>CompF Quantum Information Science in HEP (23X)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>7-24</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>JHN 075</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>100</v>
-      </c>
-      <c r="G20" t="n">
-        <v>70</v>
-      </c>
-      <c r="H20" t="inlineStr">
         <is>
           <t>XF AF-CompF Cross-cutting issues (22E)</t>
         </is>

--- a/assets/schedule/frontier.xlsx
+++ b/assets/schedule/frontier.xlsx
@@ -21,7 +21,7 @@
     <sheet name="Key!!" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="current_date">"2022-05-21 13:37:40.362538"</definedName>
+    <definedName name="current_date">"2022-05-27 17:15:55.675360"</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -394,7 +394,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Schedule_UF" displayName="Schedule_UF" ref="B3:H12" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Schedule_UF" displayName="Schedule_UF" ref="B3:H13" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B3:H4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="7"/>
@@ -410,7 +410,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Schedule_CEF" displayName="Schedule_CEF" ref="B3:H4" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Schedule_CEF" displayName="Schedule_CEF" ref="B3:H5" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B3:H4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="5"/>
@@ -456,7 +456,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Schedule_EF" displayName="Schedule_EF" ref="B3:H27" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Schedule_EF" displayName="Schedule_EF" ref="B3:H25" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B3:H4">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -480,7 +480,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Schedule_NF" displayName="Schedule_NF" ref="B3:H25" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Schedule_NF" displayName="Schedule_NF" ref="B3:H27" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B3:H4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="21"/>
@@ -496,7 +496,7 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Schedule_RF" displayName="Schedule_RF" ref="B3:H20" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Schedule_RF" displayName="Schedule_RF" ref="B3:H21" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B3:H4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="19"/>
@@ -512,7 +512,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Schedule_CF" displayName="Schedule_CF" ref="B3:H20" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Schedule_CF" displayName="Schedule_CF" ref="B3:H21" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B3:H4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="17"/>
@@ -528,7 +528,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Schedule_TF" displayName="Schedule_TF" ref="B3:H17" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Schedule_TF" displayName="Schedule_TF" ref="B3:H18" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B3:H4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="15"/>
@@ -544,7 +544,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Schedule_AF" displayName="Schedule_AF" ref="B3:H24" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Schedule_AF" displayName="Schedule_AF" ref="B3:H26" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B3:H4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="13"/>
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Schedule_IF" displayName="Schedule_IF" ref="B3:H26" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Schedule_IF" displayName="Schedule_IF" ref="B3:H27" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B3:H4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="11"/>
@@ -576,7 +576,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Schedule_CompF" displayName="Schedule_CompF" ref="B3:H17" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Schedule_CompF" displayName="Schedule_CompF" ref="B3:H18" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B3:H4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Date" dataDxfId="9"/>
@@ -858,7 +858,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:Q337"/>
+  <dimension ref="B3:P337"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C4"/>
@@ -881,7 +881,6 @@
     <col width="15" customWidth="1" style="4" min="14" max="14"/>
     <col width="15" customWidth="1" style="4" min="15" max="15"/>
     <col width="15" customWidth="1" style="4" min="16" max="16"/>
-    <col width="15" customWidth="1" style="4" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="3">
@@ -1474,12 +1473,12 @@
       </c>
       <c r="C71" s="12" t="inlineStr">
         <is>
-          <t>AF AF1 (19H) (20 ppl)</t>
+          <t>AF AF2-5 (19G) (30 ppl)</t>
         </is>
       </c>
       <c r="D71" s="12" t="inlineStr">
         <is>
-          <t>AF AF2-5 (19G) (30 ppl)</t>
+          <t>AF AFx Internal (19H) (20 ppl)</t>
         </is>
       </c>
       <c r="E71" s="13" t="inlineStr">
@@ -1494,37 +1493,37 @@
       </c>
       <c r="G71" s="15" t="inlineStr">
         <is>
-          <t>EF BSM I (18K) (HUB 332 - 100 ppl)</t>
+          <t>EF Higgs and BSM I (18K) (HUB 332 - 100 ppl)</t>
         </is>
       </c>
       <c r="H71" s="15" t="inlineStr">
         <is>
-          <t>EF Higgs I (18J) (JHN 102 - 100 ppl)</t>
-        </is>
-      </c>
-      <c r="I71" s="15" t="inlineStr">
-        <is>
           <t>EF Strong Interactions I (18L) (KNE 220 - 100 ppl)</t>
         </is>
       </c>
+      <c r="I71" s="16" t="inlineStr">
+        <is>
+          <t>IF IF1 (23H) (20 ppl)</t>
+        </is>
+      </c>
       <c r="J71" s="16" t="inlineStr">
         <is>
-          <t>IF IF1 (23H) (20 ppl)</t>
+          <t>IF IF2 (23G) (20 ppl)</t>
         </is>
       </c>
       <c r="K71" s="16" t="inlineStr">
         <is>
-          <t>IF IF2 (23G) (20 ppl)</t>
-        </is>
-      </c>
-      <c r="L71" s="16" t="inlineStr">
-        <is>
           <t>IF IF5 (23D) (20 ppl)</t>
         </is>
       </c>
-      <c r="M71" s="17" t="inlineStr">
+      <c r="L71" s="17" t="inlineStr">
         <is>
           <t>NF All-Frontier (18N) (KNE 130 - 300 ppl)</t>
+        </is>
+      </c>
+      <c r="M71" s="10" t="inlineStr">
+        <is>
+          <t>XF CEF-EF-NF-RF-CF-TF-AF-IF-CompF-UF CEF Feedback (18A) (HUB 340 - 70 ppl)</t>
         </is>
       </c>
     </row>
@@ -2111,12 +2110,12 @@
       </c>
       <c r="C101" s="12" t="inlineStr">
         <is>
-          <t>AF AF3 (19F) (20 ppl)</t>
+          <t>AF AAF6 and AF1 Internal (19E) (30 ppl)</t>
         </is>
       </c>
       <c r="D101" s="12" t="inlineStr">
         <is>
-          <t>AF AF4 (19E) (30 ppl)</t>
+          <t>AF AF3 and AF4 Internal (19F) (20 ppl)</t>
         </is>
       </c>
       <c r="E101" s="18" t="inlineStr">
@@ -2156,7 +2155,7 @@
       </c>
       <c r="L101" s="17" t="inlineStr">
         <is>
-          <t>NF DUNE P5 Strategy (Detector Technology) (20N) (KNE 120 - 150 ppl)</t>
+          <t>NF DUNE P5 Strategy (Oscillation Physics) (20N) (KNE 120 - 150 ppl)</t>
         </is>
       </c>
       <c r="M101" s="19" t="inlineStr">
@@ -2272,7 +2271,7 @@
       <c r="K105" s="9" t="n"/>
       <c r="L105" s="17" t="inlineStr">
         <is>
-          <t>NF DUNE P5 Strategy (Expanded Physics Scope in Phase II) (20X) (KNE 110 - 150 ppl)</t>
+          <t>NF DUNE P5 Strategy (BSM Physics) (20X) (KNE 110 - 150 ppl)</t>
         </is>
       </c>
       <c r="M105" s="19" t="inlineStr">
@@ -2839,7 +2838,7 @@
       </c>
       <c r="C131" s="12" t="inlineStr">
         <is>
-          <t>AF AF6 (19D) (20 ppl)</t>
+          <t>AF AF2 and AF5 Internal (19D) (20 ppl)</t>
         </is>
       </c>
       <c r="D131" s="12" t="inlineStr">
@@ -2879,7 +2878,7 @@
       </c>
       <c r="K131" s="17" t="inlineStr">
         <is>
-          <t>NF DUNE P5 Strategy (Oscillation Physics) (20O) (JHN 102 - 150 ppl)</t>
+          <t>NF DUNE P5 Strategy (Detector Technology) (20O) (JHN 102 - 150 ppl)</t>
         </is>
       </c>
       <c r="L131" s="19" t="inlineStr">
@@ -2969,18 +2968,22 @@
           <t>CompF CompF6 Quantum Computing (20T) (20 ppl)</t>
         </is>
       </c>
-      <c r="G135" s="9" t="n"/>
+      <c r="G135" s="17" t="inlineStr">
+        <is>
+          <t>NF DUNE P5 Strategy (Expanded Physics Scope in Phase II) (20Y) (JHN 102 - 150 ppl)</t>
+        </is>
+      </c>
       <c r="H135" s="9" t="n"/>
       <c r="I135" s="9" t="n"/>
       <c r="J135" s="9" t="n"/>
-      <c r="K135" s="17" t="inlineStr">
-        <is>
-          <t>NF DUNE P5 Strategy (BSM Physics) (20Y) (JHN 102 - 150 ppl)</t>
-        </is>
-      </c>
-      <c r="L135" s="19" t="inlineStr">
+      <c r="K135" s="19" t="inlineStr">
         <is>
           <t>RF RF7 Exp And Theory Overview - Hadron Spectroscopy (20R) (40 ppl)</t>
+        </is>
+      </c>
+      <c r="L135" s="8" t="inlineStr">
+        <is>
+          <t>XF NF-AF Accelerator neutrino sources/cross-cutting issues (40 ppl)</t>
         </is>
       </c>
       <c r="M135" s="9" t="n"/>
@@ -3447,7 +3450,6 @@
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="B159" t="inlineStr">
@@ -3468,7 +3470,6 @@
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr"/>
       <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="B160" t="inlineStr">
@@ -3489,7 +3490,6 @@
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr"/>
       <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="B161" t="inlineStr">
@@ -3499,12 +3499,12 @@
       </c>
       <c r="C161" s="23" t="inlineStr">
         <is>
-          <t>AF P5 Strategy colliders (24L) (JHN 102 - 100 ppl)</t>
+          <t>AF AF2 and AF5 Reports (24L) (JHN 102 - 100 ppl)</t>
         </is>
       </c>
       <c r="D161" s="23" t="inlineStr">
         <is>
-          <t>AF P5 Strategy technologies and test facilities (24K) (JHN 175 - 70 ppl)</t>
+          <t>AF AF7 Internal (24K) (JHN 175 - 70 ppl)</t>
         </is>
       </c>
       <c r="E161" s="13" t="inlineStr">
@@ -3514,59 +3514,50 @@
       </c>
       <c r="F161" s="15" t="inlineStr">
         <is>
-          <t>EF BSM III (21N) (KNE 110 - 100 ppl)</t>
-        </is>
-      </c>
-      <c r="G161" s="15" t="inlineStr">
-        <is>
           <t>EF EWK II (21P) (KNE 210 - 100 ppl)</t>
         </is>
       </c>
-      <c r="H161" s="15" t="inlineStr">
-        <is>
-          <t>EF Higgs II (21Q) (KNE 220 - 100 ppl)</t>
-        </is>
-      </c>
-      <c r="I161" s="16" t="inlineStr">
+      <c r="G161" s="16" t="inlineStr">
         <is>
           <t>IF IF7 (24G) (20 ppl)</t>
         </is>
       </c>
-      <c r="J161" s="24" t="inlineStr">
+      <c r="H161" s="24" t="inlineStr">
         <is>
           <t>NF Beyond neutrino mass physics reach of precision beta-decay experiments (21K) (20 ppl)</t>
         </is>
       </c>
-      <c r="K161" s="24" t="inlineStr">
+      <c r="I161" s="24" t="inlineStr">
         <is>
           <t>NF Blue Skye/Very Long Term ideas (21M) (30 ppl)</t>
         </is>
       </c>
-      <c r="L161" s="22" t="inlineStr">
+      <c r="J161" s="22" t="inlineStr">
         <is>
           <t>TF TF2-TF5 (18D) (JHN 111 - 50 ppl)</t>
         </is>
       </c>
-      <c r="M161" s="8" t="inlineStr">
+      <c r="K161" s="8" t="inlineStr">
         <is>
           <t>XF EF-CompF EF Centric Discussions (18X) (40 ppl)</t>
         </is>
       </c>
-      <c r="N161" s="8" t="inlineStr">
+      <c r="L161" s="8" t="inlineStr">
         <is>
           <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I) (40 ppl)</t>
         </is>
       </c>
-      <c r="O161" s="10" t="inlineStr">
+      <c r="M161" s="10" t="inlineStr">
         <is>
           <t>XF RF-EF-TF RF1 Flavor anomalies and exotics at colliders (22A) (HUB 340 - 50 ppl)</t>
         </is>
       </c>
-      <c r="P161" s="10" t="inlineStr">
+      <c r="N161" s="10" t="inlineStr">
         <is>
           <t>XF UF-IF QIS (22F) (HUB 337 - 50 ppl)</t>
         </is>
       </c>
+      <c r="O161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="B162" t="inlineStr">
@@ -3586,8 +3577,7 @@
       <c r="L162" s="9" t="n"/>
       <c r="M162" s="9" t="n"/>
       <c r="N162" s="9" t="n"/>
-      <c r="O162" s="9" t="n"/>
-      <c r="P162" s="9" t="n"/>
+      <c r="O162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="B163" t="inlineStr">
@@ -3607,8 +3597,7 @@
       <c r="L163" s="9" t="n"/>
       <c r="M163" s="9" t="n"/>
       <c r="N163" s="9" t="n"/>
-      <c r="O163" s="9" t="n"/>
-      <c r="P163" s="9" t="n"/>
+      <c r="O163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="B164" t="inlineStr">
@@ -3628,8 +3617,7 @@
       <c r="L164" s="9" t="n"/>
       <c r="M164" s="9" t="n"/>
       <c r="N164" s="9" t="n"/>
-      <c r="O164" s="9" t="n"/>
-      <c r="P164" s="9" t="n"/>
+      <c r="O164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="B165" t="inlineStr">
@@ -3645,20 +3633,23 @@
       <c r="H165" s="9" t="n"/>
       <c r="I165" s="9" t="n"/>
       <c r="J165" s="9" t="n"/>
-      <c r="K165" s="9" t="n"/>
+      <c r="K165" s="15" t="inlineStr">
+        <is>
+          <t>EF DM Discussion (21N) (KNE 110 - 100 ppl)</t>
+        </is>
+      </c>
       <c r="L165" s="9" t="n"/>
       <c r="M165" s="8" t="inlineStr">
         <is>
           <t>XF IF-RF-EF Focus on timing and more generally tracking detectors (21J) (HUB 340 - 40 ppl)</t>
         </is>
       </c>
-      <c r="N165" s="9" t="n"/>
-      <c r="O165" s="8" t="inlineStr">
+      <c r="N165" s="8" t="inlineStr">
         <is>
           <t>XF RF-CF RF1 large-volume data analysis and simulation and usage of HPC in data analysis (24B) (30 ppl)</t>
         </is>
       </c>
-      <c r="P165" s="10" t="inlineStr">
+      <c r="O165" s="10" t="inlineStr">
         <is>
           <t>XF RF-EF-AF RF5 to discuss CLFV and heavy states (24O) (HUB 340 - 50 ppl)</t>
         </is>
@@ -3683,7 +3674,6 @@
       <c r="M166" s="9" t="n"/>
       <c r="N166" s="9" t="n"/>
       <c r="O166" s="9" t="n"/>
-      <c r="P166" s="9" t="n"/>
     </row>
     <row r="167">
       <c r="B167" t="inlineStr">
@@ -3704,7 +3694,6 @@
       <c r="M167" s="9" t="n"/>
       <c r="N167" s="9" t="n"/>
       <c r="O167" s="9" t="n"/>
-      <c r="P167" s="9" t="n"/>
     </row>
     <row r="168">
       <c r="B168" t="inlineStr">
@@ -3725,7 +3714,6 @@
       <c r="M168" s="9" t="n"/>
       <c r="N168" s="9" t="n"/>
       <c r="O168" s="9" t="n"/>
-      <c r="P168" s="9" t="n"/>
     </row>
     <row r="169">
       <c r="B169" t="inlineStr">
@@ -3750,7 +3738,6 @@
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="B170" t="inlineStr">
@@ -3771,7 +3758,6 @@
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
       <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="B171" t="inlineStr">
@@ -3792,7 +3778,6 @@
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr"/>
       <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="B172" t="inlineStr">
@@ -3813,7 +3798,6 @@
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr"/>
       <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="B173" t="inlineStr">
@@ -3838,7 +3822,6 @@
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr"/>
       <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="B174" t="inlineStr">
@@ -3859,7 +3842,6 @@
       <c r="M174" t="inlineStr"/>
       <c r="N174" t="inlineStr"/>
       <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="B175" t="inlineStr">
@@ -3880,7 +3862,6 @@
       <c r="M175" t="inlineStr"/>
       <c r="N175" t="inlineStr"/>
       <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="B176" t="inlineStr">
@@ -3905,7 +3886,6 @@
       <c r="M176" t="inlineStr"/>
       <c r="N176" t="inlineStr"/>
       <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="B177" t="inlineStr">
@@ -3926,7 +3906,6 @@
       <c r="M177" t="inlineStr"/>
       <c r="N177" t="inlineStr"/>
       <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="B178" t="inlineStr">
@@ -3947,7 +3926,6 @@
       <c r="M178" t="inlineStr"/>
       <c r="N178" t="inlineStr"/>
       <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="B179" t="inlineStr">
@@ -3968,7 +3946,6 @@
       <c r="M179" t="inlineStr"/>
       <c r="N179" t="inlineStr"/>
       <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="B180" t="inlineStr">
@@ -3978,7 +3955,7 @@
       </c>
       <c r="C180" s="10" t="inlineStr">
         <is>
-          <t>Energy (21W) (KNE 130 - 430 ppl)</t>
+          <t>Cosmic Frontier Probes of Fundamental Physics (23W) (KNE 130 - 172 ppl)</t>
         </is>
       </c>
       <c r="D180" t="inlineStr"/>
@@ -3993,7 +3970,6 @@
       <c r="M180" t="inlineStr"/>
       <c r="N180" t="inlineStr"/>
       <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="B181" t="inlineStr">
@@ -4014,7 +3990,6 @@
       <c r="M181" t="inlineStr"/>
       <c r="N181" t="inlineStr"/>
       <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="B182" t="inlineStr">
@@ -4035,7 +4010,6 @@
       <c r="M182" t="inlineStr"/>
       <c r="N182" t="inlineStr"/>
       <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="B183" t="inlineStr">
@@ -4056,7 +4030,6 @@
       <c r="M183" t="inlineStr"/>
       <c r="N183" t="inlineStr"/>
       <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="B184" t="inlineStr">
@@ -4077,7 +4050,6 @@
       <c r="M184" t="inlineStr"/>
       <c r="N184" t="inlineStr"/>
       <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="B185" t="inlineStr">
@@ -4098,7 +4070,6 @@
       <c r="M185" t="inlineStr"/>
       <c r="N185" t="inlineStr"/>
       <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="B186" t="inlineStr">
@@ -4119,7 +4090,6 @@
       <c r="M186" t="inlineStr"/>
       <c r="N186" t="inlineStr"/>
       <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="B187" t="inlineStr">
@@ -4140,7 +4110,6 @@
       <c r="M187" t="inlineStr"/>
       <c r="N187" t="inlineStr"/>
       <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="B188" t="inlineStr">
@@ -4162,7 +4131,6 @@
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
       <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="B189" t="inlineStr">
@@ -4184,7 +4152,6 @@
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
       <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="B190" t="inlineStr">
@@ -4206,7 +4173,6 @@
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
       <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="B191" t="inlineStr">
@@ -4216,19 +4182,19 @@
       </c>
       <c r="C191" s="23" t="inlineStr">
         <is>
+          <t>AF AFx Internal (24H) (JHN 111 - 50 ppl)</t>
+        </is>
+      </c>
+      <c r="D191" s="23" t="inlineStr">
+        <is>
+          <t>AF AFx Internal (24I) (HUB 250 - 70 ppl)</t>
+        </is>
+      </c>
+      <c r="E191" s="23" t="inlineStr">
+        <is>
           <t>AF P5 Strategy accel for neutrinos and PBC (24J) (HUB 332 - 70 ppl)</t>
         </is>
       </c>
-      <c r="D191" s="23" t="inlineStr">
-        <is>
-          <t>AF P5 Strategy beam physics and facilities (24H) (JHN 111 - 50 ppl)</t>
-        </is>
-      </c>
-      <c r="E191" s="23" t="inlineStr">
-        <is>
-          <t>AF P5 Strategy optimizing among funding sources (24I) (HUB 250 - 70 ppl)</t>
-        </is>
-      </c>
       <c r="F191" s="25" t="inlineStr">
         <is>
           <t>CompF Report Discussion (200 ppl)</t>
@@ -4241,50 +4207,45 @@
       </c>
       <c r="H191" s="15" t="inlineStr">
         <is>
-          <t>EF Strong Interactions II (23P) (KNE 220 - 100 ppl)</t>
-        </is>
-      </c>
-      <c r="I191" s="15" t="inlineStr">
-        <is>
           <t>EF Top II (23O) (KNE 210 - 100 ppl)</t>
         </is>
       </c>
+      <c r="I191" s="16" t="inlineStr">
+        <is>
+          <t>IF IF8 (24F) (20 ppl)</t>
+        </is>
+      </c>
       <c r="J191" s="16" t="inlineStr">
         <is>
-          <t>IF IF8 (24F) (20 ppl)</t>
-        </is>
-      </c>
-      <c r="K191" s="16" t="inlineStr">
-        <is>
           <t>IF IF9 (24E) (20 ppl)</t>
         </is>
       </c>
-      <c r="L191" s="24" t="inlineStr">
+      <c r="K191" s="24" t="inlineStr">
         <is>
           <t>NF Optimizing Among Funding Agencies (21L) (30 ppl)</t>
         </is>
       </c>
-      <c r="M191" s="19" t="inlineStr">
+      <c r="L191" s="19" t="inlineStr">
         <is>
           <t>RF RF3 Discussions (21B) (40 ppl)</t>
         </is>
       </c>
-      <c r="N191" s="22" t="inlineStr">
+      <c r="M191" s="22" t="inlineStr">
         <is>
           <t>TF TF4b-TF6-TF7 (18F) (HUB 337 - 50 ppl)</t>
         </is>
       </c>
+      <c r="N191" s="8" t="inlineStr">
+        <is>
+          <t>XF AF-EF Accelerator R&amp;D Overseas (22G) (40 ppl)</t>
+        </is>
+      </c>
       <c r="O191" s="8" t="inlineStr">
         <is>
-          <t>XF AF-EF Accelerator R&amp;D Overseas (22G) (40 ppl)</t>
-        </is>
-      </c>
-      <c r="P191" s="8" t="inlineStr">
-        <is>
           <t>XF NF-EF Cross-cutting issues (22H) (30 ppl)</t>
         </is>
       </c>
-      <c r="Q191" s="10" t="inlineStr">
+      <c r="P191" s="10" t="inlineStr">
         <is>
           <t>XF TF-CompF QIS (21Z) (HUB 214 - 50 ppl)</t>
         </is>
@@ -4310,7 +4271,6 @@
       <c r="N192" s="9" t="n"/>
       <c r="O192" s="9" t="n"/>
       <c r="P192" s="9" t="n"/>
-      <c r="Q192" s="9" t="n"/>
     </row>
     <row r="193">
       <c r="B193" t="inlineStr">
@@ -4322,7 +4282,7 @@
       <c r="D193" s="9" t="n"/>
       <c r="E193" s="9" t="n"/>
       <c r="F193" s="9" t="n"/>
-      <c r="G193" s="9" t="n"/>
+      <c r="G193" t="inlineStr"/>
       <c r="H193" s="9" t="n"/>
       <c r="I193" s="9" t="n"/>
       <c r="J193" s="9" t="n"/>
@@ -4332,7 +4292,6 @@
       <c r="N193" s="9" t="n"/>
       <c r="O193" s="9" t="n"/>
       <c r="P193" s="9" t="n"/>
-      <c r="Q193" s="9" t="n"/>
     </row>
     <row r="194">
       <c r="B194" t="inlineStr">
@@ -4344,7 +4303,7 @@
       <c r="D194" s="9" t="n"/>
       <c r="E194" s="9" t="n"/>
       <c r="F194" s="9" t="n"/>
-      <c r="G194" s="9" t="n"/>
+      <c r="G194" t="inlineStr"/>
       <c r="H194" s="9" t="n"/>
       <c r="I194" s="9" t="n"/>
       <c r="J194" s="9" t="n"/>
@@ -4354,7 +4313,6 @@
       <c r="N194" s="9" t="n"/>
       <c r="O194" s="9" t="n"/>
       <c r="P194" s="9" t="n"/>
-      <c r="Q194" s="9" t="n"/>
     </row>
     <row r="195">
       <c r="B195" t="inlineStr">
@@ -4370,33 +4328,32 @@
           <t>CompF CompF7 Reinterpretation and long-term preservation of data and code (20D) (20 ppl)</t>
         </is>
       </c>
-      <c r="G195" s="9" t="n"/>
+      <c r="G195" s="19" t="inlineStr">
+        <is>
+          <t>RF RF5 Discussions (21R) (40 ppl)</t>
+        </is>
+      </c>
       <c r="H195" s="9" t="n"/>
       <c r="I195" s="9" t="n"/>
       <c r="J195" s="9" t="n"/>
-      <c r="K195" s="9" t="n"/>
-      <c r="L195" s="19" t="inlineStr">
-        <is>
-          <t>RF RF5 Discussions (21R) (40 ppl)</t>
-        </is>
-      </c>
-      <c r="M195" s="20" t="inlineStr">
+      <c r="K195" s="20" t="inlineStr">
         <is>
           <t>UF UF5 UF3 (22Q) (25 ppl)</t>
         </is>
       </c>
-      <c r="N195" s="9" t="n"/>
-      <c r="O195" s="8" t="inlineStr">
+      <c r="L195" s="8" t="inlineStr">
         <is>
           <t>XF EF-AF combined EF/AF report discussion (21V) (30 ppl)</t>
         </is>
       </c>
-      <c r="P195" s="8" t="inlineStr">
+      <c r="M195" s="9" t="n"/>
+      <c r="N195" s="8" t="inlineStr">
         <is>
           <t>XF RF-EF-TF RF7-EF6-EF7 hadrons as production probes; production mechanisms probing the internal structure of exotic hadrons (23A) (20 ppl)</t>
         </is>
       </c>
-      <c r="Q195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="B196" t="inlineStr">
@@ -4416,13 +4373,12 @@
       <c r="L196" s="9" t="n"/>
       <c r="M196" s="9" t="n"/>
       <c r="N196" s="9" t="n"/>
-      <c r="O196" s="9" t="n"/>
-      <c r="P196" s="9" t="n"/>
-      <c r="Q196" s="25" t="inlineStr">
+      <c r="O196" s="25" t="inlineStr">
         <is>
           <t>CompF Industry Session (JHN 175 - 50 ppl)</t>
         </is>
       </c>
+      <c r="P196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="B197" t="inlineStr">
@@ -4443,8 +4399,7 @@
       <c r="M197" s="9" t="n"/>
       <c r="N197" s="9" t="n"/>
       <c r="O197" s="9" t="n"/>
-      <c r="P197" s="9" t="n"/>
-      <c r="Q197" s="9" t="n"/>
+      <c r="P197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="B198" t="inlineStr">
@@ -4465,8 +4420,7 @@
       <c r="M198" s="9" t="n"/>
       <c r="N198" s="9" t="n"/>
       <c r="O198" s="9" t="n"/>
-      <c r="P198" s="9" t="n"/>
-      <c r="Q198" s="9" t="n"/>
+      <c r="P198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="B199" t="inlineStr">
@@ -4490,9 +4444,8 @@
       <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr"/>
       <c r="N199" t="inlineStr"/>
-      <c r="O199" t="inlineStr"/>
+      <c r="O199" s="9" t="n"/>
       <c r="P199" t="inlineStr"/>
-      <c r="Q199" s="9" t="n"/>
     </row>
     <row r="200">
       <c r="B200" t="inlineStr">
@@ -4514,7 +4467,6 @@
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
       <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="B201" t="inlineStr">
@@ -4536,7 +4488,6 @@
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
       <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="B202" t="inlineStr">
@@ -4558,7 +4509,6 @@
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
       <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="B203" t="inlineStr">
@@ -4584,7 +4534,6 @@
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="B204" t="inlineStr">
@@ -4606,7 +4555,6 @@
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="B205" t="inlineStr">
@@ -4628,7 +4576,6 @@
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="B206" t="inlineStr">
@@ -4654,7 +4601,6 @@
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr"/>
       <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="B207" t="inlineStr">
@@ -4676,7 +4622,6 @@
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="B208" t="inlineStr">
@@ -4698,7 +4643,6 @@
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="B209" t="inlineStr">
@@ -4724,7 +4668,6 @@
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
       <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="B210" t="inlineStr">
@@ -4746,7 +4689,6 @@
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="B211" t="inlineStr">
@@ -4768,7 +4710,6 @@
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
       <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="B212" t="inlineStr">
@@ -4790,7 +4731,6 @@
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
       <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="B213" t="inlineStr">
@@ -4812,7 +4752,6 @@
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="B214" t="inlineStr">
@@ -4834,7 +4773,6 @@
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
       <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="B215" t="inlineStr">
@@ -4856,7 +4794,6 @@
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
       <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="B216" t="inlineStr">
@@ -4878,7 +4815,6 @@
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
       <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="B217" t="inlineStr">
@@ -4900,7 +4836,6 @@
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
       <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="B218" t="inlineStr">
@@ -4973,12 +4908,12 @@
       </c>
       <c r="C221" s="23" t="inlineStr">
         <is>
-          <t>AF All-Frontier (18M) (KNE 110 - 150 ppl)</t>
+          <t>AF AF7 Reports (24C) (JHN 175 - 70 ppl)</t>
         </is>
       </c>
       <c r="D221" s="23" t="inlineStr">
         <is>
-          <t>AF Summary report discussion and tuneup (24C) (JHN 175 - 70 ppl)</t>
+          <t>AF AFx Internal (18M) (KNE 110 - 150 ppl)</t>
         </is>
       </c>
       <c r="E221" s="15" t="inlineStr">
@@ -5111,12 +5046,12 @@
           <t>7-23 10am</t>
         </is>
       </c>
-      <c r="C225" s="21" t="inlineStr">
+      <c r="C225" s="9" t="n"/>
+      <c r="D225" s="21" t="inlineStr">
         <is>
           <t>IF Report (KNE 110 - 100 ppl)</t>
         </is>
       </c>
-      <c r="D225" s="9" t="n"/>
       <c r="E225" s="9" t="n"/>
       <c r="F225" s="9" t="n"/>
       <c r="G225" s="9" t="n"/>
@@ -5297,7 +5232,7 @@
       </c>
       <c r="C233" s="10" t="inlineStr">
         <is>
-          <t>Cosmic (23W) (KNE 130 - 172 ppl)</t>
+          <t>Energy (21W) (KNE 130 - 430 ppl)</t>
         </is>
       </c>
       <c r="D233" t="inlineStr"/>
@@ -5771,7 +5706,7 @@
       </c>
       <c r="C255" s="23" t="inlineStr">
         <is>
-          <t>AF All-Frontier (KNE 120 - 150 ppl)</t>
+          <t>AF AF1 Report (KNE 120 - 150 ppl)</t>
         </is>
       </c>
       <c r="D255" s="12" t="inlineStr">
@@ -6831,7 +6766,7 @@
       <c r="C337" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="168">
+  <mergeCells count="167">
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="C40:C42"/>
     <mergeCell ref="C43:C48"/>
@@ -6890,7 +6825,7 @@
     <mergeCell ref="D131:D138"/>
     <mergeCell ref="E131:E138"/>
     <mergeCell ref="F131:F134"/>
-    <mergeCell ref="G131:G138"/>
+    <mergeCell ref="G131:G134"/>
     <mergeCell ref="H131:H138"/>
     <mergeCell ref="I131:I138"/>
     <mergeCell ref="J131:J138"/>
@@ -6899,6 +6834,7 @@
     <mergeCell ref="M131:M138"/>
     <mergeCell ref="N131:N134"/>
     <mergeCell ref="F135:F138"/>
+    <mergeCell ref="G135:G138"/>
     <mergeCell ref="K135:K138"/>
     <mergeCell ref="L135:L138"/>
     <mergeCell ref="N135:N138"/>
@@ -6915,15 +6851,14 @@
     <mergeCell ref="H161:H168"/>
     <mergeCell ref="I161:I168"/>
     <mergeCell ref="J161:J168"/>
-    <mergeCell ref="K161:K168"/>
+    <mergeCell ref="K161:K164"/>
     <mergeCell ref="L161:L168"/>
     <mergeCell ref="M161:M164"/>
-    <mergeCell ref="N161:N168"/>
-    <mergeCell ref="O161:O164"/>
-    <mergeCell ref="P161:P164"/>
+    <mergeCell ref="N161:N164"/>
+    <mergeCell ref="K165:K168"/>
     <mergeCell ref="M165:M168"/>
+    <mergeCell ref="N165:N168"/>
     <mergeCell ref="O165:O168"/>
-    <mergeCell ref="P165:P168"/>
     <mergeCell ref="C169:C172"/>
     <mergeCell ref="C173:C175"/>
     <mergeCell ref="C176:C178"/>
@@ -6932,29 +6867,28 @@
     <mergeCell ref="D191:D198"/>
     <mergeCell ref="E191:E198"/>
     <mergeCell ref="F191:F194"/>
-    <mergeCell ref="G191:G198"/>
+    <mergeCell ref="G191:G192"/>
     <mergeCell ref="H191:H198"/>
     <mergeCell ref="I191:I198"/>
     <mergeCell ref="J191:J198"/>
-    <mergeCell ref="K191:K198"/>
+    <mergeCell ref="K191:K194"/>
     <mergeCell ref="L191:L194"/>
-    <mergeCell ref="M191:M194"/>
-    <mergeCell ref="N191:N198"/>
+    <mergeCell ref="M191:M198"/>
+    <mergeCell ref="N191:N194"/>
     <mergeCell ref="O191:O194"/>
     <mergeCell ref="P191:P194"/>
-    <mergeCell ref="Q191:Q194"/>
     <mergeCell ref="F195:F198"/>
+    <mergeCell ref="G195:G198"/>
+    <mergeCell ref="K195:K198"/>
     <mergeCell ref="L195:L198"/>
-    <mergeCell ref="M195:M198"/>
-    <mergeCell ref="O195:O198"/>
-    <mergeCell ref="P195:P198"/>
-    <mergeCell ref="Q196:Q199"/>
+    <mergeCell ref="N195:N198"/>
+    <mergeCell ref="O196:O199"/>
     <mergeCell ref="C199:C202"/>
     <mergeCell ref="C203:C205"/>
     <mergeCell ref="C206:C208"/>
     <mergeCell ref="C209:C212"/>
-    <mergeCell ref="C221:C224"/>
-    <mergeCell ref="D221:D228"/>
+    <mergeCell ref="C221:C228"/>
+    <mergeCell ref="D221:D224"/>
     <mergeCell ref="E221:E228"/>
     <mergeCell ref="F221:F228"/>
     <mergeCell ref="G221:G228"/>
@@ -6967,7 +6901,7 @@
     <mergeCell ref="N221:N224"/>
     <mergeCell ref="O221:O228"/>
     <mergeCell ref="P221:P228"/>
-    <mergeCell ref="C225:C228"/>
+    <mergeCell ref="D225:D228"/>
     <mergeCell ref="L225:L228"/>
     <mergeCell ref="N225:N228"/>
     <mergeCell ref="C229:C232"/>
@@ -7014,7 +6948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:H12"/>
+  <dimension ref="A3:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -7071,31 +7005,31 @@
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>7-19</t>
+          <t>7-18</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F4" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="29" t="n">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HUB 340</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>72</v>
+      </c>
+      <c r="G4" t="n">
+        <v>70</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>UF UF2 (19B)</t>
+          <t>XF CEF-EF-NF-RF-CF-TF-AF-IF-CompF-UF CEF Feedback (18A)</t>
         </is>
       </c>
     </row>
@@ -7107,57 +7041,57 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>JHN 102</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>195</v>
-      </c>
-      <c r="G5" t="n">
-        <v>50</v>
+      <c r="E5" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F5" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="29" t="n">
+        <v>25</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>XF UF-NF-RF 0nuBB from Natural Sources (19A)</t>
+          <t>UF UF2 (19B)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>7-20</t>
+          <t>7-19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F6" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="29" t="n">
-        <v>25</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>JHN 102</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>195</v>
+      </c>
+      <c r="G6" t="n">
+        <v>50</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>UF UF1 (18B)</t>
+          <t>XF UF-NF-RF 0nuBB from Natural Sources (19A)</t>
         </is>
       </c>
     </row>
@@ -7169,7 +7103,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7184,85 +7118,85 @@
         <v>-1</v>
       </c>
       <c r="G7" s="29" t="n">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>XF UF-NF Long Baseline (18Q)</t>
+          <t>UF UF1 (18B)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-20</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D8" t="n">
         <v>2</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>HUB 337</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>50</v>
-      </c>
-      <c r="G8" t="n">
-        <v>50</v>
+      <c r="E8" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F8" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="29" t="n">
+        <v>40</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>XF UF-IF QIS (22F)</t>
+          <t>XF UF-NF Long Baseline (18Q)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>7-21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F9" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="29" t="n">
-        <v>25</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>HUB 337</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>50</v>
+      </c>
+      <c r="G9" t="n">
+        <v>50</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>UF UF5 UF3 (22Q)</t>
+          <t>XF UF-IF QIS (22F)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7277,11 +7211,11 @@
         <v>-1</v>
       </c>
       <c r="G10" s="29" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>XF IF-UF Cross-cutting Facilities (21F)</t>
+          <t>UF UF5 UF3 (22Q)</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7227,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -7308,18 +7242,18 @@
         <v>-1</v>
       </c>
       <c r="G11" s="29" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>UF UF4 (21C)</t>
+          <t>XF IF-UF Cross-cutting Facilities (21F)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>7-24</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -7342,6 +7276,37 @@
         <v>25</v>
       </c>
       <c r="H12" t="inlineStr">
+        <is>
+          <t>UF UF4 (21C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>7-24</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10am-12pm</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2</v>
+      </c>
+      <c r="E13" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F13" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="29" t="n">
+        <v>25</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>UF UF6 (23B)</t>
         </is>
@@ -7361,7 +7326,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B3:H4"/>
+  <dimension ref="A3:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -7418,7 +7383,7 @@
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>7-19</t>
+          <t>7-18</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -7431,16 +7396,47 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>HUB 340</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>72</v>
+      </c>
+      <c r="G4" t="n">
+        <v>70</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>XF CEF-EF-NF-RF-CF-TF-AF-IF-CompF-UF CEF Feedback (18A)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>7-19</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>KNE 210</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F5" t="n">
         <v>242</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
         <v>50</v>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>CEF Frontier Discussion (21D)</t>
         </is>
@@ -7966,7 +7962,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:H27"/>
+  <dimension ref="A3:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -8035,18 +8031,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>JHN 102</t>
+          <t>HUB 340</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c r="G4" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>EF Higgs I (18J)</t>
+          <t>XF CEF-EF-NF-RF-CF-TF-AF-IF-CompF-UF CEF Feedback (18A)</t>
         </is>
       </c>
     </row>
@@ -8077,7 +8073,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>EF BSM I (18K)</t>
+          <t>EF Higgs and BSM I (18K)</t>
         </is>
       </c>
     </row>
@@ -8244,11 +8240,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -8376,18 +8372,18 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>KNE 110</t>
+          <t>KNE 210</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="G15" t="n">
         <v>100</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>EF BSM III (21N)</t>
+          <t>EF EWK II (21P)</t>
         </is>
       </c>
     </row>
@@ -8399,26 +8395,26 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>KNE 210</t>
+          <t>HUB 340</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>242</v>
+        <v>72</v>
       </c>
       <c r="G16" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>EF EWK II (21P)</t>
+          <t>XF IF-RF-EF Focus on timing and more generally tracking detectors (21J)</t>
         </is>
       </c>
     </row>
@@ -8430,26 +8426,26 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>KNE 220</t>
+          <t>HUB 340</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>239</v>
+        <v>72</v>
       </c>
       <c r="G17" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>EF Higgs II (21Q)</t>
+          <t>XF RF-EF-AF RF5 to discuss CLFV and heavy states (24O)</t>
         </is>
       </c>
     </row>
@@ -8469,49 +8465,49 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>HUB 340</t>
+          <t>KNE 110</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>72</v>
+        <v>223</v>
       </c>
       <c r="G18" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>XF IF-RF-EF Focus on timing and more generally tracking detectors (21J)</t>
+          <t>EF DM Discussion (21N)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>2</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>HUB 340</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>72</v>
-      </c>
-      <c r="G19" t="n">
-        <v>50</v>
+      <c r="E19" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F19" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>XF RF-EF-AF RF5 to discuss CLFV and heavy states (24O)</t>
+          <t>XF NF-EF Cross-cutting issues (22H)</t>
         </is>
       </c>
     </row>
@@ -8538,11 +8534,11 @@
         <v>-1</v>
       </c>
       <c r="G20" s="29" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>XF NF-EF Cross-cutting issues (22H)</t>
+          <t>XF AF-EF Accelerator R&amp;D Overseas (22G)</t>
         </is>
       </c>
     </row>
@@ -8554,26 +8550,26 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>8am-9am</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F21" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G21" s="29" t="n">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>JHN 102</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>195</v>
+      </c>
+      <c r="G21" t="n">
+        <v>100</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>XF AF-EF Accelerator R&amp;D Overseas (22G)</t>
+          <t>EF BSM IV (23N)</t>
         </is>
       </c>
     </row>
@@ -8593,18 +8589,18 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>JHN 102</t>
+          <t>KNE 210</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="G22" t="n">
         <v>100</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>EF BSM IV (23N)</t>
+          <t>EF Top II (23O)</t>
         </is>
       </c>
     </row>
@@ -8616,26 +8612,26 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>KNE 210</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>242</v>
-      </c>
-      <c r="G23" t="n">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="E23" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F23" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="29" t="n">
+        <v>20</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>EF Top II (23O)</t>
+          <t>XF RF-EF-TF RF7-EF6-EF7 hadrons as production probes; production mechanisms probing the internal structure of exotic hadrons (23A)</t>
         </is>
       </c>
     </row>
@@ -8647,117 +8643,55 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>4</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>KNE 220</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>239</v>
-      </c>
-      <c r="G24" t="n">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="E24" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F24" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>EF Strong Interactions II (23P)</t>
+          <t>XF EF-AF combined EF/AF report discussion (21V)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>2</v>
-      </c>
-      <c r="E25" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F25" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G25" s="29" t="n">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>KNE 130</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>723</v>
+      </c>
+      <c r="G25" t="n">
+        <v>300</v>
       </c>
       <c r="H25" t="inlineStr">
-        <is>
-          <t>XF RF-EF-TF RF7-EF6-EF7 hadrons as production probes; production mechanisms probing the internal structure of exotic hadrons (23A)</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>7-22</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>2</v>
-      </c>
-      <c r="E26" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F26" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G26" s="29" t="n">
-        <v>30</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>XF EF-AF combined EF/AF report discussion (21V)</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>7-23</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>4</v>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>KNE 130</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>723</v>
-      </c>
-      <c r="G27" t="n">
-        <v>300</v>
-      </c>
-      <c r="H27" t="inlineStr">
         <is>
           <t>EF Discussion and Summaries (24N)</t>
         </is>
@@ -8777,7 +8711,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:H25"/>
+  <dimension ref="A3:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -8847,49 +8781,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>KNE 130</t>
+          <t>HUB 340</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>723</v>
+        <v>72</v>
       </c>
       <c r="G4" t="n">
-        <v>300</v>
+        <v>70</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>NF All-Frontier (18N)</t>
+          <t>XF CEF-EF-NF-RF-CF-TF-AF-IF-CompF-UF CEF Feedback (18A)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>7-19</t>
+          <t>7-18</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>KNE 120</t>
+          <t>KNE 130</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>435</v>
+        <v>723</v>
       </c>
       <c r="G5" t="n">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>NF DUNE P5 Strategy (Detector Technology) (20N)</t>
+          <t>NF All-Frontier (18N)</t>
         </is>
       </c>
     </row>
@@ -8901,7 +8835,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -8909,18 +8843,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>JHN 102</t>
+          <t>KNE 120</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>195</v>
+        <v>435</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>XF UF-NF-RF 0nuBB from Natural Sources (19A)</t>
+          <t>NF DUNE P5 Strategy (Oscillation Physics) (20N)</t>
         </is>
       </c>
     </row>
@@ -8940,30 +8874,30 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>KNE 110</t>
+          <t>JHN 102</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>223</v>
+        <v>195</v>
       </c>
       <c r="G7" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>NF DUNE P5 Strategy (Expanded Physics Scope in Phase II) (20X)</t>
+          <t>XF UF-NF-RF 0nuBB from Natural Sources (19A)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>7-20</t>
+          <t>7-19</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -8971,18 +8905,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>JHN 102</t>
+          <t>KNE 110</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="G8" t="n">
         <v>150</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>NF DUNE P5 Strategy (Oscillation Physics) (20O)</t>
+          <t>NF DUNE P5 Strategy (BSM Physics) (20X)</t>
         </is>
       </c>
     </row>
@@ -8994,26 +8928,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D9" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F9" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="29" t="n">
-        <v>40</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>JHN 102</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>195</v>
+      </c>
+      <c r="G9" t="n">
+        <v>150</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>XF UF-NF Long Baseline (18Q)</t>
+          <t>NF DUNE P5 Strategy (Detector Technology) (20O)</t>
         </is>
       </c>
     </row>
@@ -9031,36 +8965,36 @@
       <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>JHN 102</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>195</v>
-      </c>
-      <c r="G10" t="n">
-        <v>150</v>
+      <c r="E10" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F10" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="29" t="n">
+        <v>40</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>NF DUNE P5 Strategy (BSM Physics) (20Y)</t>
+          <t>XF UF-NF Long Baseline (18Q)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-20</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" s="28" t="inlineStr">
         <is>
@@ -9071,58 +9005,58 @@
         <v>-1</v>
       </c>
       <c r="G11" s="29" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>NF Beyond neutrino mass physics reach of precision beta-decay experiments (21K)</t>
+          <t>XF NF-AF Accelerator neutrino sources/cross-cutting issues</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F12" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G12" s="29" t="n">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>JHN 102</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>195</v>
+      </c>
+      <c r="G12" t="n">
+        <v>150</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>NF Blue Skye/Very Long Term ideas (21M)</t>
+          <t>NF DUNE P5 Strategy (Expanded Physics Scope in Phase II) (20Y)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>7-21</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="28" t="inlineStr">
         <is>
@@ -9133,27 +9067,27 @@
         <v>-1</v>
       </c>
       <c r="G13" s="29" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>XF NF-EF Cross-cutting issues (22H)</t>
+          <t>NF Beyond neutrino mass physics reach of precision beta-decay experiments (21K)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>7-21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" s="28" t="inlineStr">
         <is>
@@ -9168,23 +9102,23 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>NF Optimizing Among Funding Agencies (21L)</t>
+          <t>NF Blue Skye/Very Long Term ideas (21M)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" s="28" t="inlineStr">
         <is>
@@ -9199,23 +9133,23 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>NF Early Career Presentations (Topic 1) (20I)</t>
+          <t>XF NF-EF Cross-cutting issues (22H)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="28" t="inlineStr">
         <is>
@@ -9230,7 +9164,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>XF IF-NF Instrumentation for Neutrino Experiments (21G)</t>
+          <t>NF Optimizing Among Funding Agencies (21L)</t>
         </is>
       </c>
     </row>
@@ -9248,20 +9182,20 @@
       <c r="D17" t="n">
         <v>4</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>KNE 210</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>242</v>
-      </c>
-      <c r="G17" t="n">
-        <v>50</v>
+      <c r="E17" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F17" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>XF NF-CF-IF Dark matter detector (22J)</t>
+          <t>NF Early Career Presentations (Topic 1) (20I)</t>
         </is>
       </c>
     </row>
@@ -9279,20 +9213,20 @@
       <c r="D18" t="n">
         <v>4</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>JHN 102</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>195</v>
-      </c>
-      <c r="G18" t="n">
-        <v>60</v>
+      <c r="E18" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F18" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>NF Early Career Presentations (Topic 2) (20K)</t>
+          <t>XF IF-NF Instrumentation for Neutrino Experiments (21G)</t>
         </is>
       </c>
     </row>
@@ -9304,64 +9238,64 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>KNE 110</t>
+          <t>KNE 210</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="G19" t="n">
         <v>50</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>XF NF-TF Neutrino theory network (22K)</t>
+          <t>XF NF-CF-IF Dark matter detector (22J)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>7-24</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F20" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G20" s="29" t="n">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>JHN 102</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>195</v>
+      </c>
+      <c r="G20" t="n">
+        <v>60</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>NF Community Engagement Success Stories (22I)</t>
+          <t>NF Early Career Presentations (Topic 2) (20K)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>7-24</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -9372,20 +9306,20 @@
       <c r="D21" t="n">
         <v>2</v>
       </c>
-      <c r="E21" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F21" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G21" s="29" t="n">
-        <v>30</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>KNE 110</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>223</v>
+      </c>
+      <c r="G21" t="n">
+        <v>50</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>XF NF-CF Neutrino mass scale with beta decay kinematics (22C)</t>
+          <t>XF NF-TF Neutrino theory network (22K)</t>
         </is>
       </c>
     </row>
@@ -9412,11 +9346,11 @@
         <v>-1</v>
       </c>
       <c r="G22" s="29" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>XF RF-NF RF5 to discuss CLFV and neutrinos - mu2e and facilities (24A)</t>
+          <t>NF Community Engagement Success Stories (22I)</t>
         </is>
       </c>
     </row>
@@ -9447,7 +9381,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>NF Early Career Presentations (Topic 3) (20H)</t>
+          <t>XF NF-CF Neutrino mass scale with beta decay kinematics (22C)</t>
         </is>
       </c>
     </row>
@@ -9465,20 +9399,20 @@
       <c r="D24" t="n">
         <v>2</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>JHN 175</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>70</v>
-      </c>
-      <c r="G24" t="n">
-        <v>60</v>
+      <c r="E24" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F24" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>NF Early Career Presentations (Topic 4) (20J)</t>
+          <t>XF RF-NF RF5 to discuss CLFV and neutrinos - mu2e and facilities (24A)</t>
         </is>
       </c>
     </row>
@@ -9496,18 +9430,80 @@
       <c r="D25" t="n">
         <v>2</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="E25" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F25" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G25" s="29" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NF Early Career Presentations (Topic 3) (20H)</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>7-24</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>10am-12pm</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>JHN 175</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>70</v>
+      </c>
+      <c r="G26" t="n">
+        <v>60</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>NF Early Career Presentations (Topic 4) (20J)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>7-24</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>10am-12pm</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>KNE 110</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="F27" t="n">
         <v>223</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G27" t="n">
         <v>100</v>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>XF NF-CF-TF high energy and ultrahigh energy astrophysical neutrino (22N)</t>
         </is>
@@ -9527,7 +9523,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:H20"/>
+  <dimension ref="A3:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -9584,31 +9580,31 @@
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>7-19</t>
+          <t>7-18</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F4" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="29" t="n">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HUB 340</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>72</v>
+      </c>
+      <c r="G4" t="n">
+        <v>70</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>RF RF1 Discussions (20C)</t>
+          <t>XF CEF-EF-NF-RF-CF-TF-AF-IF-CompF-UF CEF Feedback (18A)</t>
         </is>
       </c>
     </row>
@@ -9620,26 +9616,26 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>KNE 220</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>239</v>
-      </c>
-      <c r="G5" t="n">
-        <v>150</v>
+        <v>2</v>
+      </c>
+      <c r="E5" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F5" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="29" t="n">
+        <v>40</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>XF CF-EF-RF-TF CF1 CF2 CF3 CF7 DM Complementarity (20L)</t>
+          <t>RF RF1 Discussions (20C)</t>
         </is>
       </c>
     </row>
@@ -9651,26 +9647,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>JHN 102</t>
+          <t>KNE 220</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>195</v>
+        <v>239</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>XF UF-NF-RF 0nuBB from Natural Sources (19A)</t>
+          <t>XF CF-EF-RF-TF CF1 CF2 CF3 CF7 DM Complementarity (20L)</t>
         </is>
       </c>
     </row>
@@ -9688,32 +9684,32 @@
       <c r="D7" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F7" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="29" t="n">
-        <v>40</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>JHN 102</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>195</v>
+      </c>
+      <c r="G7" t="n">
+        <v>50</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>RF RF2 Discussions (20S)</t>
+          <t>XF UF-NF-RF 0nuBB from Natural Sources (19A)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>7-20</t>
+          <t>7-19</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -9732,7 +9728,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>RF RF6 3 Big Idea + 1 Experimental Summary White Papers (20B)</t>
+          <t>RF RF2 Discussions (20S)</t>
         </is>
       </c>
     </row>
@@ -9744,7 +9740,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -9763,38 +9759,38 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>RF RF7 Exp And Theory Overview - Hadron Spectroscopy (20R)</t>
+          <t>RF RF6 3 Big Idea + 1 Experimental Summary White Papers (20B)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>HUB 340</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>72</v>
-      </c>
-      <c r="G10" t="n">
-        <v>50</v>
+      <c r="E10" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F10" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="29" t="n">
+        <v>40</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>XF RF-EF-TF RF1 Flavor anomalies and exotics at colliders (22A)</t>
+          <t>RF RF7 Exp And Theory Overview - Hadron Spectroscopy (20R)</t>
         </is>
       </c>
     </row>
@@ -9806,26 +9802,26 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F11" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="29" t="n">
-        <v>30</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HUB 340</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>72</v>
+      </c>
+      <c r="G11" t="n">
+        <v>50</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>XF RF-CF RF1 large-volume data analysis and simulation and usage of HPC in data analysis (24B)</t>
+          <t>XF RF-EF-TF RF1 Flavor anomalies and exotics at colliders (22A)</t>
         </is>
       </c>
     </row>
@@ -9843,20 +9839,20 @@
       <c r="D12" t="n">
         <v>2</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>HUB 340</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>72</v>
-      </c>
-      <c r="G12" t="n">
-        <v>40</v>
+      <c r="E12" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F12" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>XF IF-RF-EF Focus on timing and more generally tracking detectors (21J)</t>
+          <t>XF RF-CF RF1 large-volume data analysis and simulation and usage of HPC in data analysis (24B)</t>
         </is>
       </c>
     </row>
@@ -9883,42 +9879,42 @@
         <v>72</v>
       </c>
       <c r="G13" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>XF RF-EF-AF RF5 to discuss CLFV and heavy states (24O)</t>
+          <t>XF IF-RF-EF Focus on timing and more generally tracking detectors (21J)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>7-21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F14" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="29" t="n">
-        <v>40</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>HUB 340</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>72</v>
+      </c>
+      <c r="G14" t="n">
+        <v>50</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>RF RF3 Discussions (21B)</t>
+          <t>XF RF-EF-AF RF5 to discuss CLFV and heavy states (24O)</t>
         </is>
       </c>
     </row>
@@ -9930,7 +9926,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -9945,11 +9941,11 @@
         <v>-1</v>
       </c>
       <c r="G15" s="29" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>XF RF-EF-TF RF7-EF6-EF7 hadrons as production probes; production mechanisms probing the internal structure of exotic hadrons (23A)</t>
+          <t>RF RF3 Discussions (21B)</t>
         </is>
       </c>
     </row>
@@ -9976,73 +9972,73 @@
         <v>-1</v>
       </c>
       <c r="G16" s="29" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>RF RF5 Discussions (21R)</t>
+          <t>XF RF-EF-TF RF7-EF6-EF7 hadrons as production probes; production mechanisms probing the internal structure of exotic hadrons (23A)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8am-11am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>KNE 220</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>239</v>
-      </c>
-      <c r="G17" t="n">
-        <v>140</v>
+        <v>2</v>
+      </c>
+      <c r="E17" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F17" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="29" t="n">
+        <v>40</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>RF All-Frontier Discussions (23Y)</t>
+          <t>RF RF5 Discussions (21R)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>7-24</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-11am</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F18" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="29" t="n">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>KNE 220</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>239</v>
+      </c>
+      <c r="G18" t="n">
+        <v>140</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>XF RF-NF RF5 to discuss CLFV and neutrinos - mu2e and facilities (24A)</t>
+          <t>RF All-Frontier Discussions (23Y)</t>
         </is>
       </c>
     </row>
@@ -10069,11 +10065,11 @@
         <v>-1</v>
       </c>
       <c r="G19" s="29" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>XF AF-RF cross-cutting issues (22B)</t>
+          <t>XF RF-NF RF5 to discuss CLFV and neutrinos - mu2e and facilities (24A)</t>
         </is>
       </c>
     </row>
@@ -10091,18 +10087,49 @@
       <c r="D20" t="n">
         <v>2</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F20" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="29" t="n">
+        <v>40</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>XF AF-RF cross-cutting issues (22B)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>7-24</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10am-12pm</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>JHN 111</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="F21" t="n">
         <v>50</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>50</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>XF RF-IF RF1 Discuss picosecond detectors - fast timing in tracking and calorimetry (22P)</t>
         </is>
@@ -10122,7 +10149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:H20"/>
+  <dimension ref="A3:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -10215,26 +10242,26 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9am-10am</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>HUB 337</t>
+          <t>HUB 340</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CF CF2 Discussion (18P)</t>
+          <t>XF CEF-EF-NF-RF-CF-TF-AF-IF-CompF-UF CEF Feedback (18A)</t>
         </is>
       </c>
     </row>
@@ -10246,7 +10273,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10am-11am</t>
+          <t>9am-10am</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -10265,7 +10292,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CF CF3 Discussion (18S)</t>
+          <t>CF CF2 Discussion (18P)</t>
         </is>
       </c>
     </row>
@@ -10277,7 +10304,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11am-12pm</t>
+          <t>10am-11am</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -10296,38 +10323,38 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CF CF4 Discussion (18T)</t>
+          <t>CF CF3 Discussion (18S)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>7-19</t>
+          <t>7-18</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>11am-12pm</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>KNE 220</t>
+          <t>HUB 337</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>239</v>
+        <v>50</v>
       </c>
       <c r="G8" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>XF CF-EF-RF-TF CF1 CF2 CF3 CF7 DM Complementarity (20L)</t>
+          <t>CF CF4 Discussion (18T)</t>
         </is>
       </c>
     </row>
@@ -10339,26 +10366,26 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8am-9am</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>HUB 337</t>
+          <t>KNE 220</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>239</v>
       </c>
       <c r="G9" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CF CF5 Discussion (18H)</t>
+          <t>XF CF-EF-RF-TF CF1 CF2 CF3 CF7 DM Complementarity (20L)</t>
         </is>
       </c>
     </row>
@@ -10370,7 +10397,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9am-10am</t>
+          <t>8am-9am</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -10389,7 +10416,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>CF CF6 Discussion (18O)</t>
+          <t>CF CF5 Discussion (18H)</t>
         </is>
       </c>
     </row>
@@ -10401,7 +10428,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10am-11am</t>
+          <t>9am-10am</t>
         </is>
       </c>
       <c r="D11" t="n">
@@ -10420,7 +10447,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>CF CF7 Discussion (18R)</t>
+          <t>CF CF6 Discussion (18O)</t>
         </is>
       </c>
     </row>
@@ -10432,7 +10459,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11am-12pm</t>
+          <t>10am-11am</t>
         </is>
       </c>
       <c r="D12" t="n">
@@ -10451,45 +10478,45 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>CF CF4 CF5 CF6 CF7 Dark Energy Complementarity (20W)</t>
+          <t>CF CF7 Discussion (18R)</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>7-20</t>
+          <t>7-19</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>11am-12pm</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>KNE 130</t>
+          <t>HUB 337</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>723</v>
+        <v>50</v>
       </c>
       <c r="G13" t="n">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>CF Report Discussion (23Q)</t>
+          <t>CF CF4 CF5 CF6 CF7 Dark Energy Complementarity (20W)</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -10502,18 +10529,18 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>KNE 120</t>
+          <t>KNE 130</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>435</v>
+        <v>723</v>
       </c>
       <c r="G14" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>CF Report Discussion (24M)</t>
+          <t>CF Report Discussion (23Q)</t>
         </is>
       </c>
     </row>
@@ -10525,42 +10552,42 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F15" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="29" t="n">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>KNE 120</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>435</v>
+      </c>
+      <c r="G15" t="n">
+        <v>200</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>XF RF-CF RF1 large-volume data analysis and simulation and usage of HPC in data analysis (24B)</t>
+          <t>CF Report Discussion (24M)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>7-21</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="28" t="inlineStr">
         <is>
@@ -10575,7 +10602,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>XF IF-CF-CompF Instrumentation for Cosmic Frontier (21H)</t>
+          <t>XF RF-CF RF1 large-volume data analysis and simulation and usage of HPC in data analysis (24B)</t>
         </is>
       </c>
     </row>
@@ -10593,20 +10620,20 @@
       <c r="D17" t="n">
         <v>4</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>KNE 210</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>242</v>
-      </c>
-      <c r="G17" t="n">
-        <v>50</v>
+      <c r="E17" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F17" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G17" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>XF NF-CF-IF Dark matter detector (22J)</t>
+          <t>XF IF-CF-CompF Instrumentation for Cosmic Frontier (21H)</t>
         </is>
       </c>
     </row>
@@ -10626,49 +10653,49 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>KNE 120</t>
+          <t>KNE 210</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>435</v>
+        <v>242</v>
       </c>
       <c r="G18" t="n">
         <v>50</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>XF TF-CF Cosmic Frontier Theory (19K)</t>
+          <t>XF NF-CF-IF Dark matter detector (22J)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>7-24</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F19" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G19" s="29" t="n">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>KNE 120</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>435</v>
+      </c>
+      <c r="G19" t="n">
+        <v>50</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>XF NF-CF Neutrino mass scale with beta decay kinematics (22C)</t>
+          <t>XF TF-CF Cosmic Frontier Theory (19K)</t>
         </is>
       </c>
     </row>
@@ -10686,18 +10713,49 @@
       <c r="D20" t="n">
         <v>2</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="E20" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F20" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="29" t="n">
+        <v>30</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>XF NF-CF Neutrino mass scale with beta decay kinematics (22C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>7-24</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>10am-12pm</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>KNE 110</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="F21" t="n">
         <v>223</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>100</v>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>XF NF-CF-TF high energy and ultrahigh energy astrophysical neutrino (22N)</t>
         </is>
@@ -10717,7 +10775,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:H17"/>
+  <dimension ref="A3:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -10774,7 +10832,7 @@
     <row r="4">
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>7-19</t>
+          <t>7-18</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -10787,18 +10845,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>KNE 220</t>
+          <t>HUB 340</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>239</v>
+        <v>72</v>
       </c>
       <c r="G4" t="n">
-        <v>150</v>
+        <v>70</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>XF CF-EF-RF-TF CF1 CF2 CF3 CF7 DM Complementarity (20L)</t>
+          <t>XF CEF-EF-NF-RF-CF-TF-AF-IF-CompF-UF CEF Feedback (18A)</t>
         </is>
       </c>
     </row>
@@ -10818,25 +10876,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>JHN 175</t>
+          <t>KNE 220</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>70</v>
+        <v>239</v>
       </c>
       <c r="G5" t="n">
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>XF TF-EF Energy Frontier Theory (19J)</t>
+          <t>XF CF-EF-RF-TF CF1 CF2 CF3 CF7 DM Complementarity (20L)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>7-20</t>
+          <t>7-19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -10849,49 +10907,49 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>HUB 337</t>
+          <t>JHN 175</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G6" t="n">
         <v>50</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>TF TF9-TF11 (18C)</t>
+          <t>XF TF-EF Energy Frontier Theory (19J)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>HUB 340</t>
+          <t>HUB 337</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="G7" t="n">
         <v>50</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>XF RF-EF-TF RF1 Flavor anomalies and exotics at colliders (22A)</t>
+          <t>TF TF9-TF11 (18C)</t>
         </is>
       </c>
     </row>
@@ -10903,57 +10961,57 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>JHN 111</t>
+          <t>HUB 340</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G8" t="n">
         <v>50</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>TF TF2-TF5 (18D)</t>
+          <t>XF RF-EF-TF RF1 Flavor anomalies and exotics at colliders (22A)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>7-21</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>HUB 214</t>
+          <t>JHN 111</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="G9" t="n">
         <v>50</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>XF TF-CompF QIS (21Z)</t>
+          <t>TF TF2-TF5 (18D)</t>
         </is>
       </c>
     </row>
@@ -10965,26 +11023,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>HUB 337</t>
+          <t>HUB 214</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="G10" t="n">
         <v>50</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>TF TF4b-TF6-TF7 (18F)</t>
+          <t>XF TF-CompF QIS (21Z)</t>
         </is>
       </c>
     </row>
@@ -10996,42 +11054,42 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
-      </c>
-      <c r="E11" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F11" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G11" s="29" t="n">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>HUB 337</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>50</v>
+      </c>
+      <c r="G11" t="n">
+        <v>50</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>XF RF-EF-TF RF7-EF6-EF7 hadrons as production probes; production mechanisms probing the internal structure of exotic hadrons (23A)</t>
+          <t>TF TF4b-TF6-TF7 (18F)</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="28" t="inlineStr">
         <is>
@@ -11042,11 +11100,11 @@
         <v>-1</v>
       </c>
       <c r="G12" s="29" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>TF TF1-TF3-TF4a (18G)</t>
+          <t>XF RF-EF-TF RF7-EF6-EF7 hadrons as production probes; production mechanisms probing the internal structure of exotic hadrons (23A)</t>
         </is>
       </c>
     </row>
@@ -11064,20 +11122,20 @@
       <c r="D13" t="n">
         <v>4</v>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>KNE 120</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>435</v>
-      </c>
-      <c r="G13" t="n">
-        <v>50</v>
+      <c r="E13" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F13" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>XF TF-CF Cosmic Frontier Theory (19K)</t>
+          <t>TF TF1-TF3-TF4a (18G)</t>
         </is>
       </c>
     </row>
@@ -11097,18 +11155,18 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>JHN 111</t>
+          <t>KNE 120</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>50</v>
+        <v>435</v>
       </c>
       <c r="G14" t="n">
         <v>50</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>TF TF8-TF10 (18E)</t>
+          <t>XF TF-CF Cosmic Frontier Theory (19K)</t>
         </is>
       </c>
     </row>
@@ -11120,33 +11178,33 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>KNE 110</t>
+          <t>JHN 111</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>223</v>
+        <v>50</v>
       </c>
       <c r="G15" t="n">
         <v>50</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>XF NF-TF Neutrino theory network (22K)</t>
+          <t>TF TF8-TF10 (18E)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>7-24</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -11166,11 +11224,11 @@
         <v>223</v>
       </c>
       <c r="G16" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>XF NF-CF-TF high energy and ultrahigh energy astrophysical neutrino (22N)</t>
+          <t>XF NF-TF Neutrino theory network (22K)</t>
         </is>
       </c>
     </row>
@@ -11190,16 +11248,47 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>KNE 110</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>223</v>
+      </c>
+      <c r="G17" t="n">
+        <v>100</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>XF NF-CF-TF high energy and ultrahigh energy astrophysical neutrino (22N)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>7-24</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10am-12pm</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>KNE 220</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="F18" t="n">
         <v>239</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>175</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>TF Discussion and frontier reports (19P)</t>
         </is>
@@ -11214,725 +11303,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A3:H24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="7.109375" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
-    <col width="14" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
-    <col width="15.5546875" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
-    <col width="11.33203125" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
-    <col width="16" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
-    <col width="18.44140625" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
-    <col width="104.6640625" bestFit="1" customWidth="1" style="4" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="3">
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Number Hours</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Room</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Room Capacity</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Requested People</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Meeting Name</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="1" t="inlineStr">
-        <is>
-          <t>7-18</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F4" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="29" t="n">
-        <v>20</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>AF AF1 (19H)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="1" t="inlineStr">
-        <is>
-          <t>7-18</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F5" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="29" t="n">
-        <v>30</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>AF AF2-5 (19G)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="1" t="inlineStr">
-        <is>
-          <t>7-19</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F6" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="29" t="n">
-        <v>30</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>AF AF4 (19E)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>7-19</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>4</v>
-      </c>
-      <c r="E7" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F7" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="29" t="n">
-        <v>20</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>AF AF3 (19F)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="1" t="inlineStr">
-        <is>
-          <t>7-20</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>4</v>
-      </c>
-      <c r="E8" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F8" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G8" s="29" t="n">
-        <v>20</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>AF AF6 (19D)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="1" t="inlineStr">
-        <is>
-          <t>7-20</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F9" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="29" t="n">
-        <v>30</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>AF AF7 (19C)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>7-21</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>4</v>
-      </c>
-      <c r="E10" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F10" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="29" t="n">
-        <v>40</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="1" t="inlineStr">
-        <is>
-          <t>7-21</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>JHN 175</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>70</v>
-      </c>
-      <c r="G11" t="n">
-        <v>70</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>AF P5 Strategy technologies and test facilities (24K)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="1" t="inlineStr">
-        <is>
-          <t>7-21</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>4</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>JHN 102</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>195</v>
-      </c>
-      <c r="G12" t="n">
-        <v>100</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>AF P5 Strategy colliders (24L)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="1" t="inlineStr">
-        <is>
-          <t>7-21</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>HUB 340</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>72</v>
-      </c>
-      <c r="G13" t="n">
-        <v>50</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>XF RF-EF-AF RF5 to discuss CLFV and heavy states (24O)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="1" t="inlineStr">
-        <is>
-          <t>7-22</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>8am-10am</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F14" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="29" t="n">
-        <v>40</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>XF AF-EF Accelerator R&amp;D Overseas (22G)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="1" t="inlineStr">
-        <is>
-          <t>7-22</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>JHN 111</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>50</v>
-      </c>
-      <c r="G15" t="n">
-        <v>50</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>AF P5 Strategy beam physics and facilities (24H)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="1" t="inlineStr">
-        <is>
-          <t>7-22</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>4</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HUB 250</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>181</v>
-      </c>
-      <c r="G16" t="n">
-        <v>70</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>AF P5 Strategy optimizing among funding sources (24I)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="1" t="inlineStr">
-        <is>
-          <t>7-22</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>4</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>HUB 332</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>120</v>
-      </c>
-      <c r="G17" t="n">
-        <v>70</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>AF P5 Strategy accel for neutrinos and PBC (24J)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>7-22</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F18" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="29" t="n">
-        <v>30</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>XF EF-AF combined EF/AF report discussion (21V)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="1" t="inlineStr">
-        <is>
-          <t>7-23</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>4</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>JHN 175</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>70</v>
-      </c>
-      <c r="G19" t="n">
-        <v>70</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>AF Summary report discussion and tuneup (24C)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>7-23</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>8am-10am</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>KNE 110</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>223</v>
-      </c>
-      <c r="G20" t="n">
-        <v>150</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>AF All-Frontier (18M)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="1" t="inlineStr">
-        <is>
-          <t>7-24</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>2</v>
-      </c>
-      <c r="E21" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F21" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G21" s="29" t="n">
-        <v>30</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>AF Success Stories from AF (22D)</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>7-24</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F22" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G22" s="29" t="n">
-        <v>40</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>XF AF-RF cross-cutting issues (22B)</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>7-24</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>JHN 075</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>100</v>
-      </c>
-      <c r="G23" t="n">
-        <v>70</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>XF AF-CompF Cross-cutting issues (22E)</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>7-24</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>10am-12pm</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>KNE 120</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>435</v>
-      </c>
-      <c r="G24" t="n">
-        <v>150</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>AF All-Frontier</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12019,7 +11389,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>IF IF5 (23D)</t>
+          <t>AF AFx Internal (19H)</t>
         </is>
       </c>
     </row>
@@ -12046,11 +11416,11 @@
         <v>-1</v>
       </c>
       <c r="G5" s="29" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>IF IF2 (23G)</t>
+          <t>AF AF2-5 (19G)</t>
         </is>
       </c>
     </row>
@@ -12068,20 +11438,20 @@
       <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F6" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="29" t="n">
-        <v>20</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>HUB 340</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>72</v>
+      </c>
+      <c r="G6" t="n">
+        <v>70</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>IF IF1 (23H)</t>
+          <t>XF CEF-EF-NF-RF-CF-TF-AF-IF-CompF-UF CEF Feedback (18A)</t>
         </is>
       </c>
     </row>
@@ -12108,11 +11478,11 @@
         <v>-1</v>
       </c>
       <c r="G7" s="29" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>IF IF10 (23E)</t>
+          <t>AF AAF6 and AF1 Internal (19E)</t>
         </is>
       </c>
     </row>
@@ -12143,14 +11513,14 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>IF IF6 (23C)</t>
+          <t>AF AF3 and AF4 Internal (19F)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>7-19</t>
+          <t>7-20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -12174,14 +11544,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>IF IF4 (23E)</t>
+          <t>AF AF2 and AF5 Internal (19D)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>7-19</t>
+          <t>7-20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -12201,11 +11571,11 @@
         <v>-1</v>
       </c>
       <c r="G10" s="29" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>IF IF3 (23F)</t>
+          <t>AF AF7 (19C)</t>
         </is>
       </c>
     </row>
@@ -12217,26 +11587,26 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>HUB 250</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>181</v>
-      </c>
-      <c r="G11" t="n">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="E11" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F11" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="29" t="n">
+        <v>40</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>IF Workshop Plans</t>
+          <t>XF NF-AF Accelerator neutrino sources/cross-cutting issues</t>
         </is>
       </c>
     </row>
@@ -12263,11 +11633,11 @@
         <v>-1</v>
       </c>
       <c r="G12" s="29" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>IF IF7 (24G)</t>
+          <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I)</t>
         </is>
       </c>
     </row>
@@ -12285,20 +11655,20 @@
       <c r="D13" t="n">
         <v>4</v>
       </c>
-      <c r="E13" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F13" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="29" t="n">
-        <v>40</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>JHN 175</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>70</v>
+      </c>
+      <c r="G13" t="n">
+        <v>70</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I)</t>
+          <t>AF AF7 Internal (24K)</t>
         </is>
       </c>
     </row>
@@ -12316,20 +11686,20 @@
       <c r="D14" t="n">
         <v>4</v>
       </c>
-      <c r="E14" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F14" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G14" s="29" t="n">
-        <v>40</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>JHN 102</t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>195</v>
+      </c>
+      <c r="G14" t="n">
+        <v>100</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I)</t>
+          <t>AF AF2 and AF5 Reports (24L)</t>
         </is>
       </c>
     </row>
@@ -12341,7 +11711,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -12349,49 +11719,49 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>HUB 337</t>
+          <t>HUB 340</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="G15" t="n">
         <v>50</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>XF UF-IF QIS (22F)</t>
+          <t>XF RF-EF-AF RF5 to discuss CLFV and heavy states (24O)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>2</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>HUB 340</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>72</v>
-      </c>
-      <c r="G16" t="n">
+      <c r="E16" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F16" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="29" t="n">
         <v>40</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>XF IF-RF-EF Focus on timing and more generally tracking detectors (21J)</t>
+          <t>XF AF-EF Accelerator R&amp;D Overseas (22G)</t>
         </is>
       </c>
     </row>
@@ -12409,20 +11779,20 @@
       <c r="D17" t="n">
         <v>4</v>
       </c>
-      <c r="E17" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F17" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G17" s="29" t="n">
-        <v>20</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>JHN 111</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>50</v>
+      </c>
+      <c r="G17" t="n">
+        <v>50</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>IF IF9 (24E)</t>
+          <t>AF AFx Internal (24H)</t>
         </is>
       </c>
     </row>
@@ -12440,67 +11810,67 @@
       <c r="D18" t="n">
         <v>4</v>
       </c>
-      <c r="E18" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F18" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G18" s="29" t="n">
-        <v>20</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>HUB 250</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>181</v>
+      </c>
+      <c r="G18" t="n">
+        <v>70</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>IF IF8 (24F)</t>
+          <t>AF AFx Internal (24I)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
-      </c>
-      <c r="E19" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F19" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G19" s="29" t="n">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>HUB 332</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>120</v>
+      </c>
+      <c r="G19" t="n">
+        <v>70</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>XF IF-UF Cross-cutting Facilities (21F)</t>
+          <t>AF P5 Strategy accel for neutrinos and PBC (24J)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" s="28" t="inlineStr">
         <is>
@@ -12515,7 +11885,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>XF IF-NF Instrumentation for Neutrino Experiments (21G)</t>
+          <t>XF EF-AF combined EF/AF report discussion (21V)</t>
         </is>
       </c>
     </row>
@@ -12533,20 +11903,20 @@
       <c r="D21" t="n">
         <v>4</v>
       </c>
-      <c r="E21" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F21" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G21" s="29" t="n">
-        <v>30</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>JHN 175</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>70</v>
+      </c>
+      <c r="G21" t="n">
+        <v>70</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>XF IF-CF-CompF Instrumentation for Cosmic Frontier (21H)</t>
+          <t>AF AF7 Reports (24C)</t>
         </is>
       </c>
     </row>
@@ -12566,56 +11936,56 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>JHN 175</t>
+          <t>KNE 110</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>70</v>
+        <v>223</v>
       </c>
       <c r="G22" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>XF IF-CompF readout and AI/ML (21E)</t>
+          <t>AF AFx Internal (18M)</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>7-24</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>4</v>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>KNE 210</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>242</v>
-      </c>
-      <c r="G23" t="n">
-        <v>50</v>
+        <v>2</v>
+      </c>
+      <c r="E23" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F23" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G23" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>XF NF-CF-IF Dark matter detector (22J)</t>
+          <t>AF Success Stories from AF (22D)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>7-24</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -12626,20 +11996,20 @@
       <c r="D24" t="n">
         <v>2</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>KNE 110</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>223</v>
-      </c>
-      <c r="G24" t="n">
-        <v>100</v>
+      <c r="E24" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F24" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G24" s="29" t="n">
+        <v>40</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>IF Report</t>
+          <t>XF AF-RF cross-cutting issues (22B)</t>
         </is>
       </c>
     </row>
@@ -12659,18 +12029,18 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>JHN 111</t>
+          <t>JHN 075</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G25" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>XF RF-IF RF1 Discuss picosecond detectors - fast timing in tracking and calorimetry (22P)</t>
+          <t>XF AF-CompF Cross-cutting issues (22E)</t>
         </is>
       </c>
     </row>
@@ -12690,18 +12060,18 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>JHN 102</t>
+          <t>KNE 120</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>195</v>
+        <v>435</v>
       </c>
       <c r="G26" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>IF Report (24D)</t>
+          <t>AF AF1 Report</t>
         </is>
       </c>
     </row>
@@ -12713,13 +12083,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:H17"/>
+  <dimension ref="A3:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
@@ -12781,6 +12151,818 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F4" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>IF IF5 (23D)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="1" t="inlineStr">
+        <is>
+          <t>7-18</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F5" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G5" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>IF IF2 (23G)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="1" t="inlineStr">
+        <is>
+          <t>7-18</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F6" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G6" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>IF IF1 (23H)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>7-18</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>HUB 340</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>72</v>
+      </c>
+      <c r="G7" t="n">
+        <v>70</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>XF CEF-EF-NF-RF-CF-TF-AF-IF-CompF-UF CEF Feedback (18A)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>7-19</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F8" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G8" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>IF IF10 (23E)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="1" t="inlineStr">
+        <is>
+          <t>7-19</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>4</v>
+      </c>
+      <c r="E9" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F9" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>IF IF6 (23C)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="1" t="inlineStr">
+        <is>
+          <t>7-19</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F10" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G10" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>IF IF4 (23E)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>7-19</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F11" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G11" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>IF IF3 (23F)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>7-20</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>HUB 250</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>181</v>
+      </c>
+      <c r="G12" t="n">
+        <v>100</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>IF Workshop Plans</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>7-21</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>4</v>
+      </c>
+      <c r="E13" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F13" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G13" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>IF IF7 (24G)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>7-21</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F14" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="29" t="n">
+        <v>40</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>7-21</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F15" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="29" t="n">
+        <v>40</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="1" t="inlineStr">
+        <is>
+          <t>7-21</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>8am-10am</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>HUB 337</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>50</v>
+      </c>
+      <c r="G16" t="n">
+        <v>50</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>XF UF-IF QIS (22F)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>7-21</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10am-12pm</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>HUB 340</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>72</v>
+      </c>
+      <c r="G17" t="n">
+        <v>40</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>XF IF-RF-EF Focus on timing and more generally tracking detectors (21J)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>7-22</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>4</v>
+      </c>
+      <c r="E18" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F18" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>IF IF9 (24E)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>7-22</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>4</v>
+      </c>
+      <c r="E19" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F19" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G19" s="29" t="n">
+        <v>20</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>IF IF8 (24F)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>7-23</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>8am-10am</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>2</v>
+      </c>
+      <c r="E20" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F20" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G20" s="29" t="n">
+        <v>30</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>XF IF-UF Cross-cutting Facilities (21F)</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>7-23</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>4</v>
+      </c>
+      <c r="E21" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F21" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G21" s="29" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>XF IF-NF Instrumentation for Neutrino Experiments (21G)</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>7-23</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F22" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="29" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>XF IF-CF-CompF Instrumentation for Cosmic Frontier (21H)</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>7-23</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>8am-10am</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>JHN 175</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>70</v>
+      </c>
+      <c r="G23" t="n">
+        <v>40</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>XF IF-CompF readout and AI/ML (21E)</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>7-23</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>8am-12pm</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>4</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>KNE 210</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>242</v>
+      </c>
+      <c r="G24" t="n">
+        <v>50</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>XF NF-CF-IF Dark matter detector (22J)</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>7-23</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>10am-12pm</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>2</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>KNE 110</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>223</v>
+      </c>
+      <c r="G25" t="n">
+        <v>100</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>IF Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>7-24</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>10am-12pm</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>JHN 111</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>50</v>
+      </c>
+      <c r="G26" t="n">
+        <v>50</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>XF RF-IF RF1 Discuss picosecond detectors - fast timing in tracking and calorimetry (22P)</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>7-24</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>10am-12pm</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>JHN 102</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>195</v>
+      </c>
+      <c r="G27" t="n">
+        <v>100</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>IF Report (24D)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A3:H18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="7.109375" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="14" bestFit="1" customWidth="1" style="4" min="3" max="3"/>
+    <col width="15.5546875" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="11.33203125" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="16" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
+    <col width="18.44140625" bestFit="1" customWidth="1" style="4" min="7" max="7"/>
+    <col width="104.6640625" bestFit="1" customWidth="1" style="4" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Number Hours</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Room</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Room Capacity</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Requested People</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Meeting Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>7-18</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>8am-10am</t>
         </is>
       </c>
@@ -12812,38 +12994,38 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F5" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="29" t="n">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HUB 340</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>72</v>
+      </c>
+      <c r="G5" t="n">
+        <v>70</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>CompF CompF2 Theoretical Calculations and SImulation (20V)</t>
+          <t>XF CEF-EF-NF-RF-CF-TF-AF-IF-CompF-UF CEF Feedback (18A)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>7-19</t>
+          <t>7-18</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -12862,7 +13044,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>CompF CompF3 Machine Learning (20F)</t>
+          <t>CompF CompF2 Theoretical Calculations and SImulation (20V)</t>
         </is>
       </c>
     </row>
@@ -12874,7 +13056,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -12893,19 +13075,19 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>CompF CompF4 Storage and Processing Resource Areas (20U)</t>
+          <t>CompF CompF3 Machine Learning (20F)</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>7-20</t>
+          <t>7-19</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -12924,7 +13106,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>CompF CompF5 End User Analysis (20E)</t>
+          <t>CompF CompF4 Storage and Processing Resource Areas (20U)</t>
         </is>
       </c>
     </row>
@@ -12936,7 +13118,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -12955,19 +13137,19 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>CompF CompF6 Quantum Computing (20T)</t>
+          <t>CompF CompF5 End User Analysis (20E)</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>7-21</t>
+          <t>7-20</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -12982,18 +13164,18 @@
         <v>-1</v>
       </c>
       <c r="G10" s="29" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>XF EF-CompF EF Centric Discussions (18X)</t>
+          <t>CompF CompF6 Quantum Computing (20T)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>7-21</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -13013,11 +13195,11 @@
         <v>-1</v>
       </c>
       <c r="G11" s="29" t="n">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>CompF Report Discussion</t>
+          <t>XF EF-CompF EF Centric Discussions (18X)</t>
         </is>
       </c>
     </row>
@@ -13035,20 +13217,20 @@
       <c r="D12" t="n">
         <v>2</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>HUB 214</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>80</v>
-      </c>
-      <c r="G12" t="n">
-        <v>50</v>
+      <c r="E12" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F12" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G12" s="29" t="n">
+        <v>200</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>XF TF-CompF QIS (21Z)</t>
+          <t>CompF Report Discussion</t>
         </is>
       </c>
     </row>
@@ -13060,26 +13242,26 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>2</v>
       </c>
-      <c r="E13" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F13" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G13" s="29" t="n">
-        <v>20</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>HUB 214</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>80</v>
+      </c>
+      <c r="G13" t="n">
+        <v>50</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>CompF CompF7 Reinterpretation and long-term preservation of data and code (20D)</t>
+          <t>XF TF-CompF QIS (21Z)</t>
         </is>
       </c>
     </row>
@@ -13091,57 +13273,57 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10:30am-12:30pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>2</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>JHN 175</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>70</v>
-      </c>
-      <c r="G14" t="n">
-        <v>50</v>
+      <c r="E14" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F14" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G14" s="29" t="n">
+        <v>20</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>CompF Industry Session</t>
+          <t>CompF CompF7 Reinterpretation and long-term preservation of data and code (20D)</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>7-22</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10:30am-12:30pm</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>4</v>
-      </c>
-      <c r="E15" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F15" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G15" s="29" t="n">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>JHN 175</t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>70</v>
+      </c>
+      <c r="G15" t="n">
+        <v>50</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>XF IF-CF-CompF Instrumentation for Cosmic Frontier (21H)</t>
+          <t>CompF Industry Session</t>
         </is>
       </c>
     </row>
@@ -13153,38 +13335,38 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>8am-10am</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>JHN 175</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>70</v>
-      </c>
-      <c r="G16" t="n">
-        <v>40</v>
+        <v>4</v>
+      </c>
+      <c r="E16" s="28" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F16" s="29" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G16" s="29" t="n">
+        <v>30</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>XF IF-CompF readout and AI/ML (21E)</t>
+          <t>XF IF-CF-CompF Instrumentation for Cosmic Frontier (21H)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>7-24</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-10am</t>
         </is>
       </c>
       <c r="D17" t="n">
@@ -13192,16 +13374,47 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>JHN 175</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>70</v>
+      </c>
+      <c r="G17" t="n">
+        <v>40</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>XF IF-CompF readout and AI/ML (21E)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>7-24</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>10am-12pm</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>2</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
           <t>JHN 075</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="F18" t="n">
         <v>100</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G18" t="n">
         <v>70</v>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>XF AF-CompF Cross-cutting issues (22E)</t>
         </is>

--- a/assets/schedule/frontier.xlsx
+++ b/assets/schedule/frontier.xlsx
@@ -21,7 +21,7 @@
     <sheet name="Key!!" sheetId="13" state="visible" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="current_date">"2022-05-27 17:15:55.675360"</definedName>
+    <definedName name="current_date">"2022-05-27 23:57:23.571676"</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -174,7 +174,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -193,6 +193,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -203,6 +206,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -224,9 +230,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="14" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -456,7 +459,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Schedule_EF" displayName="Schedule_EF" ref="B3:H25" headerRowCount="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Schedule_EF" displayName="Schedule_EF" ref="B3:H24" headerRowCount="1" totalsRowShown="0">
   <autoFilter ref="B3:H4">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -1473,50 +1476,50 @@
       </c>
       <c r="C71" s="12" t="inlineStr">
         <is>
-          <t>AF AF2-5 (19G) (30 ppl)</t>
-        </is>
-      </c>
-      <c r="D71" s="12" t="inlineStr">
+          <t>AF AF3 and AF4 Reports (19G) (KNE 220 - 100 ppl)</t>
+        </is>
+      </c>
+      <c r="D71" s="13" t="inlineStr">
         <is>
           <t>AF AFx Internal (19H) (20 ppl)</t>
         </is>
       </c>
-      <c r="E71" s="13" t="inlineStr">
+      <c r="E71" s="14" t="inlineStr">
         <is>
           <t>CF CF1 Discussion (18I) (HUB 337 - 50 ppl)</t>
         </is>
       </c>
-      <c r="F71" s="14" t="inlineStr">
+      <c r="F71" s="15" t="inlineStr">
         <is>
           <t>CompF CompF1 Experimental Algorithm Parallelization (20G) (20 ppl)</t>
         </is>
       </c>
-      <c r="G71" s="15" t="inlineStr">
+      <c r="G71" s="16" t="inlineStr">
         <is>
           <t>EF Higgs and BSM I (18K) (HUB 332 - 100 ppl)</t>
         </is>
       </c>
-      <c r="H71" s="15" t="inlineStr">
-        <is>
-          <t>EF Strong Interactions I (18L) (KNE 220 - 100 ppl)</t>
-        </is>
-      </c>
-      <c r="I71" s="16" t="inlineStr">
+      <c r="H71" s="17" t="inlineStr">
+        <is>
+          <t>EF Strong Interactions I (18L) (30 ppl)</t>
+        </is>
+      </c>
+      <c r="I71" s="18" t="inlineStr">
         <is>
           <t>IF IF1 (23H) (20 ppl)</t>
         </is>
       </c>
-      <c r="J71" s="16" t="inlineStr">
+      <c r="J71" s="18" t="inlineStr">
         <is>
           <t>IF IF2 (23G) (20 ppl)</t>
         </is>
       </c>
-      <c r="K71" s="16" t="inlineStr">
+      <c r="K71" s="18" t="inlineStr">
         <is>
           <t>IF IF5 (23D) (20 ppl)</t>
         </is>
       </c>
-      <c r="L71" s="17" t="inlineStr">
+      <c r="L71" s="19" t="inlineStr">
         <is>
           <t>NF All-Frontier (18N) (KNE 130 - 300 ppl)</t>
         </is>
@@ -1553,7 +1556,7 @@
       </c>
       <c r="C73" s="9" t="n"/>
       <c r="D73" s="9" t="n"/>
-      <c r="E73" s="13" t="inlineStr">
+      <c r="E73" s="14" t="inlineStr">
         <is>
           <t>CF CF2 Discussion (18P) (HUB 337 - 50 ppl)</t>
         </is>
@@ -1593,12 +1596,12 @@
       </c>
       <c r="C75" s="9" t="n"/>
       <c r="D75" s="9" t="n"/>
-      <c r="E75" s="13" t="inlineStr">
+      <c r="E75" s="14" t="inlineStr">
         <is>
           <t>CF CF3 Discussion (18S) (HUB 337 - 50 ppl)</t>
         </is>
       </c>
-      <c r="F75" s="14" t="inlineStr">
+      <c r="F75" s="15" t="inlineStr">
         <is>
           <t>CompF CompF2 Theoretical Calculations and SImulation (20V) (20 ppl)</t>
         </is>
@@ -1637,7 +1640,7 @@
       </c>
       <c r="C77" s="9" t="n"/>
       <c r="D77" s="9" t="n"/>
-      <c r="E77" s="13" t="inlineStr">
+      <c r="E77" s="14" t="inlineStr">
         <is>
           <t>CF CF4 Discussion (18T) (HUB 337 - 50 ppl)</t>
         </is>
@@ -2108,62 +2111,62 @@
           <t>7-19 8am</t>
         </is>
       </c>
-      <c r="C101" s="12" t="inlineStr">
+      <c r="C101" s="13" t="inlineStr">
         <is>
           <t>AF AAF6 and AF1 Internal (19E) (30 ppl)</t>
         </is>
       </c>
-      <c r="D101" s="12" t="inlineStr">
+      <c r="D101" s="13" t="inlineStr">
         <is>
           <t>AF AF3 and AF4 Internal (19F) (20 ppl)</t>
         </is>
       </c>
-      <c r="E101" s="18" t="inlineStr">
+      <c r="E101" s="20" t="inlineStr">
         <is>
           <t>CEF Frontier Discussion (21D) (KNE 210 - 50 ppl)</t>
         </is>
       </c>
-      <c r="F101" s="13" t="inlineStr">
+      <c r="F101" s="14" t="inlineStr">
         <is>
           <t>CF CF5 Discussion (18H) (HUB 337 - 50 ppl)</t>
         </is>
       </c>
-      <c r="G101" s="14" t="inlineStr">
+      <c r="G101" s="15" t="inlineStr">
         <is>
           <t>CompF CompF3 Machine Learning (20F) (20 ppl)</t>
         </is>
       </c>
-      <c r="H101" s="16" t="inlineStr">
+      <c r="H101" s="18" t="inlineStr">
         <is>
           <t>IF IF10 (23E) (20 ppl)</t>
         </is>
       </c>
-      <c r="I101" s="16" t="inlineStr">
+      <c r="I101" s="18" t="inlineStr">
         <is>
           <t>IF IF3 (23F) (20 ppl)</t>
         </is>
       </c>
-      <c r="J101" s="16" t="inlineStr">
+      <c r="J101" s="18" t="inlineStr">
         <is>
           <t>IF IF4 (23E) (20 ppl)</t>
         </is>
       </c>
-      <c r="K101" s="16" t="inlineStr">
+      <c r="K101" s="18" t="inlineStr">
         <is>
           <t>IF IF6 (23C) (20 ppl)</t>
         </is>
       </c>
-      <c r="L101" s="17" t="inlineStr">
+      <c r="L101" s="19" t="inlineStr">
         <is>
           <t>NF DUNE P5 Strategy (Oscillation Physics) (20N) (KNE 120 - 150 ppl)</t>
         </is>
       </c>
-      <c r="M101" s="19" t="inlineStr">
+      <c r="M101" s="21" t="inlineStr">
         <is>
           <t>RF RF1 Discussions (20C) (40 ppl)</t>
         </is>
       </c>
-      <c r="N101" s="20" t="inlineStr">
+      <c r="N101" s="22" t="inlineStr">
         <is>
           <t>UF UF2 (19B) (25 ppl)</t>
         </is>
@@ -2209,7 +2212,7 @@
       <c r="C103" s="9" t="n"/>
       <c r="D103" s="9" t="n"/>
       <c r="E103" s="9" t="n"/>
-      <c r="F103" s="13" t="inlineStr">
+      <c r="F103" s="14" t="inlineStr">
         <is>
           <t>CF CF6 Discussion (18O) (HUB 337 - 50 ppl)</t>
         </is>
@@ -2255,12 +2258,12 @@
       <c r="C105" s="9" t="n"/>
       <c r="D105" s="9" t="n"/>
       <c r="E105" s="9" t="n"/>
-      <c r="F105" s="13" t="inlineStr">
+      <c r="F105" s="14" t="inlineStr">
         <is>
           <t>CF CF7 Discussion (18R) (HUB 337 - 50 ppl)</t>
         </is>
       </c>
-      <c r="G105" s="14" t="inlineStr">
+      <c r="G105" s="15" t="inlineStr">
         <is>
           <t>CompF CompF4 Storage and Processing Resource Areas (20U) (20 ppl)</t>
         </is>
@@ -2269,12 +2272,12 @@
       <c r="I105" s="9" t="n"/>
       <c r="J105" s="9" t="n"/>
       <c r="K105" s="9" t="n"/>
-      <c r="L105" s="17" t="inlineStr">
+      <c r="L105" s="19" t="inlineStr">
         <is>
           <t>NF DUNE P5 Strategy (BSM Physics) (20X) (KNE 110 - 150 ppl)</t>
         </is>
       </c>
-      <c r="M105" s="19" t="inlineStr">
+      <c r="M105" s="21" t="inlineStr">
         <is>
           <t>RF RF2 Discussions (20S) (40 ppl)</t>
         </is>
@@ -2317,7 +2320,7 @@
       <c r="C107" s="9" t="n"/>
       <c r="D107" s="9" t="n"/>
       <c r="E107" s="9" t="n"/>
-      <c r="F107" s="13" t="inlineStr">
+      <c r="F107" s="14" t="inlineStr">
         <is>
           <t>CF CF4 CF5 CF6 CF7 Dark Energy Complementarity (20W) (HUB 337 - 50 ppl)</t>
         </is>
@@ -2836,62 +2839,62 @@
           <t>7-20 8am</t>
         </is>
       </c>
-      <c r="C131" s="12" t="inlineStr">
+      <c r="C131" s="13" t="inlineStr">
         <is>
           <t>AF AF2 and AF5 Internal (19D) (20 ppl)</t>
         </is>
       </c>
       <c r="D131" s="12" t="inlineStr">
         <is>
-          <t>AF AF7 (19C) (30 ppl)</t>
-        </is>
-      </c>
-      <c r="E131" s="13" t="inlineStr">
+          <t>AF AF7 (19C) (KNE 220 - 100 ppl)</t>
+        </is>
+      </c>
+      <c r="E131" s="14" t="inlineStr">
         <is>
           <t>CF Report Discussion (23Q) (KNE 130 - 300 ppl)</t>
         </is>
       </c>
-      <c r="F131" s="14" t="inlineStr">
+      <c r="F131" s="15" t="inlineStr">
         <is>
           <t>CompF CompF5 End User Analysis (20E) (20 ppl)</t>
         </is>
       </c>
-      <c r="G131" s="15" t="inlineStr">
+      <c r="G131" s="16" t="inlineStr">
         <is>
           <t>EF BSM II - non DM (19O) (KNE 210 - 100 ppl)</t>
         </is>
       </c>
-      <c r="H131" s="15" t="inlineStr">
+      <c r="H131" s="16" t="inlineStr">
         <is>
           <t>EF EWK I (19N) (KNE 120 - 100 ppl)</t>
         </is>
       </c>
-      <c r="I131" s="15" t="inlineStr">
-        <is>
-          <t>EF TOP I (19M) (KNE 220 - 100 ppl)</t>
-        </is>
-      </c>
-      <c r="J131" s="21" t="inlineStr">
+      <c r="I131" s="17" t="inlineStr">
+        <is>
+          <t>EF TOP I (19M) (30 ppl)</t>
+        </is>
+      </c>
+      <c r="J131" s="23" t="inlineStr">
         <is>
           <t>IF Workshop Plans (HUB 250 - 100 ppl)</t>
         </is>
       </c>
-      <c r="K131" s="17" t="inlineStr">
+      <c r="K131" s="19" t="inlineStr">
         <is>
           <t>NF DUNE P5 Strategy (Detector Technology) (20O) (JHN 102 - 150 ppl)</t>
         </is>
       </c>
-      <c r="L131" s="19" t="inlineStr">
+      <c r="L131" s="21" t="inlineStr">
         <is>
           <t>RF RF6 3 Big Idea + 1 Experimental Summary White Papers (20B) (40 ppl)</t>
         </is>
       </c>
-      <c r="M131" s="22" t="inlineStr">
+      <c r="M131" s="24" t="inlineStr">
         <is>
           <t>TF TF9-TF11 (18C) (HUB 337 - 50 ppl)</t>
         </is>
       </c>
-      <c r="N131" s="20" t="inlineStr">
+      <c r="N131" s="22" t="inlineStr">
         <is>
           <t>UF UF1 (18B) (25 ppl)</t>
         </is>
@@ -2963,12 +2966,12 @@
       <c r="C135" s="9" t="n"/>
       <c r="D135" s="9" t="n"/>
       <c r="E135" s="9" t="n"/>
-      <c r="F135" s="14" t="inlineStr">
+      <c r="F135" s="15" t="inlineStr">
         <is>
           <t>CompF CompF6 Quantum Computing (20T) (20 ppl)</t>
         </is>
       </c>
-      <c r="G135" s="17" t="inlineStr">
+      <c r="G135" s="19" t="inlineStr">
         <is>
           <t>NF DUNE P5 Strategy (Expanded Physics Scope in Phase II) (20Y) (JHN 102 - 150 ppl)</t>
         </is>
@@ -2976,7 +2979,7 @@
       <c r="H135" s="9" t="n"/>
       <c r="I135" s="9" t="n"/>
       <c r="J135" s="9" t="n"/>
-      <c r="K135" s="19" t="inlineStr">
+      <c r="K135" s="21" t="inlineStr">
         <is>
           <t>RF RF7 Exp And Theory Overview - Hadron Spectroscopy (20R) (40 ppl)</t>
         </is>
@@ -3497,42 +3500,42 @@
           <t>7-21 8am</t>
         </is>
       </c>
-      <c r="C161" s="23" t="inlineStr">
+      <c r="C161" s="12" t="inlineStr">
         <is>
           <t>AF AF2 and AF5 Reports (24L) (JHN 102 - 100 ppl)</t>
         </is>
       </c>
-      <c r="D161" s="23" t="inlineStr">
+      <c r="D161" s="12" t="inlineStr">
         <is>
           <t>AF AF7 Internal (24K) (JHN 175 - 70 ppl)</t>
         </is>
       </c>
-      <c r="E161" s="13" t="inlineStr">
+      <c r="E161" s="14" t="inlineStr">
         <is>
           <t>CF Report Discussion (24M) (KNE 120 - 200 ppl)</t>
         </is>
       </c>
-      <c r="F161" s="15" t="inlineStr">
+      <c r="F161" s="16" t="inlineStr">
         <is>
           <t>EF EWK II (21P) (KNE 210 - 100 ppl)</t>
         </is>
       </c>
-      <c r="G161" s="16" t="inlineStr">
+      <c r="G161" s="18" t="inlineStr">
         <is>
           <t>IF IF7 (24G) (20 ppl)</t>
         </is>
       </c>
-      <c r="H161" s="24" t="inlineStr">
+      <c r="H161" s="25" t="inlineStr">
         <is>
           <t>NF Beyond neutrino mass physics reach of precision beta-decay experiments (21K) (20 ppl)</t>
         </is>
       </c>
-      <c r="I161" s="24" t="inlineStr">
+      <c r="I161" s="25" t="inlineStr">
         <is>
           <t>NF Blue Skye/Very Long Term ideas (21M) (30 ppl)</t>
         </is>
       </c>
-      <c r="J161" s="22" t="inlineStr">
+      <c r="J161" s="24" t="inlineStr">
         <is>
           <t>TF TF2-TF5 (18D) (JHN 111 - 50 ppl)</t>
         </is>
@@ -3633,7 +3636,7 @@
       <c r="H165" s="9" t="n"/>
       <c r="I165" s="9" t="n"/>
       <c r="J165" s="9" t="n"/>
-      <c r="K165" s="15" t="inlineStr">
+      <c r="K165" s="16" t="inlineStr">
         <is>
           <t>EF DM Discussion (21N) (KNE 110 - 100 ppl)</t>
         </is>
@@ -4130,7 +4133,6 @@
       <c r="M188" t="inlineStr"/>
       <c r="N188" t="inlineStr"/>
       <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="B189" t="inlineStr">
@@ -4151,7 +4153,6 @@
       <c r="M189" t="inlineStr"/>
       <c r="N189" t="inlineStr"/>
       <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="B190" t="inlineStr">
@@ -4172,7 +4173,6 @@
       <c r="M190" t="inlineStr"/>
       <c r="N190" t="inlineStr"/>
       <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="B191" t="inlineStr">
@@ -4180,72 +4180,67 @@
           <t>7-22 8am</t>
         </is>
       </c>
-      <c r="C191" s="23" t="inlineStr">
+      <c r="C191" s="12" t="inlineStr">
+        <is>
+          <t>AF AF Report Finalization (24J) (KNE 210 - 100 ppl)</t>
+        </is>
+      </c>
+      <c r="D191" s="12" t="inlineStr">
         <is>
           <t>AF AFx Internal (24H) (JHN 111 - 50 ppl)</t>
         </is>
       </c>
-      <c r="D191" s="23" t="inlineStr">
+      <c r="E191" s="12" t="inlineStr">
         <is>
           <t>AF AFx Internal (24I) (HUB 250 - 70 ppl)</t>
         </is>
       </c>
-      <c r="E191" s="23" t="inlineStr">
-        <is>
-          <t>AF P5 Strategy accel for neutrinos and PBC (24J) (HUB 332 - 70 ppl)</t>
-        </is>
-      </c>
-      <c r="F191" s="25" t="inlineStr">
+      <c r="F191" s="26" t="inlineStr">
         <is>
           <t>CompF Report Discussion (200 ppl)</t>
         </is>
       </c>
-      <c r="G191" s="15" t="inlineStr">
+      <c r="G191" s="16" t="inlineStr">
         <is>
           <t>EF BSM IV (23N) (JHN 102 - 100 ppl)</t>
         </is>
       </c>
-      <c r="H191" s="15" t="inlineStr">
-        <is>
-          <t>EF Top II (23O) (KNE 210 - 100 ppl)</t>
-        </is>
-      </c>
-      <c r="I191" s="16" t="inlineStr">
+      <c r="H191" s="18" t="inlineStr">
         <is>
           <t>IF IF8 (24F) (20 ppl)</t>
         </is>
       </c>
-      <c r="J191" s="16" t="inlineStr">
+      <c r="I191" s="18" t="inlineStr">
         <is>
           <t>IF IF9 (24E) (20 ppl)</t>
         </is>
       </c>
-      <c r="K191" s="24" t="inlineStr">
+      <c r="J191" s="25" t="inlineStr">
         <is>
           <t>NF Optimizing Among Funding Agencies (21L) (30 ppl)</t>
         </is>
       </c>
-      <c r="L191" s="19" t="inlineStr">
+      <c r="K191" s="21" t="inlineStr">
         <is>
           <t>RF RF3 Discussions (21B) (40 ppl)</t>
         </is>
       </c>
-      <c r="M191" s="22" t="inlineStr">
+      <c r="L191" s="24" t="inlineStr">
         <is>
           <t>TF TF4b-TF6-TF7 (18F) (HUB 337 - 50 ppl)</t>
         </is>
       </c>
+      <c r="M191" s="8" t="inlineStr">
+        <is>
+          <t>XF AF-EF Accelerator R&amp;D Overseas (22G) (40 ppl)</t>
+        </is>
+      </c>
       <c r="N191" s="8" t="inlineStr">
         <is>
-          <t>XF AF-EF Accelerator R&amp;D Overseas (22G) (40 ppl)</t>
-        </is>
-      </c>
-      <c r="O191" s="8" t="inlineStr">
-        <is>
           <t>XF NF-EF Cross-cutting issues (22H) (30 ppl)</t>
         </is>
       </c>
-      <c r="P191" s="10" t="inlineStr">
+      <c r="O191" s="10" t="inlineStr">
         <is>
           <t>XF TF-CompF QIS (21Z) (HUB 214 - 50 ppl)</t>
         </is>
@@ -4270,7 +4265,6 @@
       <c r="M192" s="9" t="n"/>
       <c r="N192" s="9" t="n"/>
       <c r="O192" s="9" t="n"/>
-      <c r="P192" s="9" t="n"/>
     </row>
     <row r="193">
       <c r="B193" t="inlineStr">
@@ -4291,7 +4285,6 @@
       <c r="M193" s="9" t="n"/>
       <c r="N193" s="9" t="n"/>
       <c r="O193" s="9" t="n"/>
-      <c r="P193" s="9" t="n"/>
     </row>
     <row r="194">
       <c r="B194" t="inlineStr">
@@ -4312,7 +4305,6 @@
       <c r="M194" s="9" t="n"/>
       <c r="N194" s="9" t="n"/>
       <c r="O194" s="9" t="n"/>
-      <c r="P194" s="9" t="n"/>
     </row>
     <row r="195">
       <c r="B195" t="inlineStr">
@@ -4323,37 +4315,36 @@
       <c r="C195" s="9" t="n"/>
       <c r="D195" s="9" t="n"/>
       <c r="E195" s="9" t="n"/>
-      <c r="F195" s="14" t="inlineStr">
+      <c r="F195" s="15" t="inlineStr">
         <is>
           <t>CompF CompF7 Reinterpretation and long-term preservation of data and code (20D) (20 ppl)</t>
         </is>
       </c>
-      <c r="G195" s="19" t="inlineStr">
+      <c r="G195" s="21" t="inlineStr">
         <is>
           <t>RF RF5 Discussions (21R) (40 ppl)</t>
         </is>
       </c>
       <c r="H195" s="9" t="n"/>
       <c r="I195" s="9" t="n"/>
-      <c r="J195" s="9" t="n"/>
-      <c r="K195" s="20" t="inlineStr">
+      <c r="J195" s="22" t="inlineStr">
         <is>
           <t>UF UF5 UF3 (22Q) (25 ppl)</t>
         </is>
       </c>
-      <c r="L195" s="8" t="inlineStr">
+      <c r="K195" s="8" t="inlineStr">
         <is>
           <t>XF EF-AF combined EF/AF report discussion (21V) (30 ppl)</t>
         </is>
       </c>
-      <c r="M195" s="9" t="n"/>
-      <c r="N195" s="8" t="inlineStr">
+      <c r="L195" s="9" t="n"/>
+      <c r="M195" s="8" t="inlineStr">
         <is>
           <t>XF RF-EF-TF RF7-EF6-EF7 hadrons as production probes; production mechanisms probing the internal structure of exotic hadrons (23A) (20 ppl)</t>
         </is>
       </c>
+      <c r="N195" t="inlineStr"/>
       <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="B196" t="inlineStr">
@@ -4372,13 +4363,12 @@
       <c r="K196" s="9" t="n"/>
       <c r="L196" s="9" t="n"/>
       <c r="M196" s="9" t="n"/>
-      <c r="N196" s="9" t="n"/>
-      <c r="O196" s="25" t="inlineStr">
+      <c r="N196" s="26" t="inlineStr">
         <is>
           <t>CompF Industry Session (JHN 175 - 50 ppl)</t>
         </is>
       </c>
-      <c r="P196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="B197" t="inlineStr">
@@ -4398,8 +4388,7 @@
       <c r="L197" s="9" t="n"/>
       <c r="M197" s="9" t="n"/>
       <c r="N197" s="9" t="n"/>
-      <c r="O197" s="9" t="n"/>
-      <c r="P197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="B198" t="inlineStr">
@@ -4419,8 +4408,7 @@
       <c r="L198" s="9" t="n"/>
       <c r="M198" s="9" t="n"/>
       <c r="N198" s="9" t="n"/>
-      <c r="O198" s="9" t="n"/>
-      <c r="P198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="B199" t="inlineStr">
@@ -4443,9 +4431,8 @@
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
       <c r="M199" t="inlineStr"/>
-      <c r="N199" t="inlineStr"/>
-      <c r="O199" s="9" t="n"/>
-      <c r="P199" t="inlineStr"/>
+      <c r="N199" s="9" t="n"/>
+      <c r="O199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="B200" t="inlineStr">
@@ -4466,7 +4453,6 @@
       <c r="M200" t="inlineStr"/>
       <c r="N200" t="inlineStr"/>
       <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="B201" t="inlineStr">
@@ -4487,7 +4473,6 @@
       <c r="M201" t="inlineStr"/>
       <c r="N201" t="inlineStr"/>
       <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="B202" t="inlineStr">
@@ -4508,7 +4493,6 @@
       <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr"/>
       <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="B203" t="inlineStr">
@@ -4533,7 +4517,6 @@
       <c r="M203" t="inlineStr"/>
       <c r="N203" t="inlineStr"/>
       <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="B204" t="inlineStr">
@@ -4554,7 +4537,6 @@
       <c r="M204" t="inlineStr"/>
       <c r="N204" t="inlineStr"/>
       <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="B205" t="inlineStr">
@@ -4575,7 +4557,6 @@
       <c r="M205" t="inlineStr"/>
       <c r="N205" t="inlineStr"/>
       <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="B206" t="inlineStr">
@@ -4600,7 +4581,6 @@
       <c r="M206" t="inlineStr"/>
       <c r="N206" t="inlineStr"/>
       <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="B207" t="inlineStr">
@@ -4621,7 +4601,6 @@
       <c r="M207" t="inlineStr"/>
       <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="B208" t="inlineStr">
@@ -4642,7 +4621,6 @@
       <c r="M208" t="inlineStr"/>
       <c r="N208" t="inlineStr"/>
       <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="B209" t="inlineStr">
@@ -4667,7 +4645,6 @@
       <c r="M209" t="inlineStr"/>
       <c r="N209" t="inlineStr"/>
       <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="B210" t="inlineStr">
@@ -4688,7 +4665,6 @@
       <c r="M210" t="inlineStr"/>
       <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="B211" t="inlineStr">
@@ -4709,7 +4685,6 @@
       <c r="M211" t="inlineStr"/>
       <c r="N211" t="inlineStr"/>
       <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="B212" t="inlineStr">
@@ -4730,7 +4705,6 @@
       <c r="M212" t="inlineStr"/>
       <c r="N212" t="inlineStr"/>
       <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="B213" t="inlineStr">
@@ -4751,7 +4725,6 @@
       <c r="M213" t="inlineStr"/>
       <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="B214" t="inlineStr">
@@ -4772,7 +4745,6 @@
       <c r="M214" t="inlineStr"/>
       <c r="N214" t="inlineStr"/>
       <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="B215" t="inlineStr">
@@ -4793,7 +4765,6 @@
       <c r="M215" t="inlineStr"/>
       <c r="N215" t="inlineStr"/>
       <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="B216" t="inlineStr">
@@ -4814,7 +4785,6 @@
       <c r="M216" t="inlineStr"/>
       <c r="N216" t="inlineStr"/>
       <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="B217" t="inlineStr">
@@ -4835,7 +4805,6 @@
       <c r="M217" t="inlineStr"/>
       <c r="N217" t="inlineStr"/>
       <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="B218" t="inlineStr">
@@ -4906,42 +4875,42 @@
           <t>7-23 8am</t>
         </is>
       </c>
-      <c r="C221" s="23" t="inlineStr">
+      <c r="C221" s="12" t="inlineStr">
+        <is>
+          <t>AF AF3 and AF4 Internal (TBD) (18M) (KNE 110 - 150 ppl)</t>
+        </is>
+      </c>
+      <c r="D221" s="12" t="inlineStr">
         <is>
           <t>AF AF7 Reports (24C) (JHN 175 - 70 ppl)</t>
         </is>
       </c>
-      <c r="D221" s="23" t="inlineStr">
-        <is>
-          <t>AF AFx Internal (18M) (KNE 110 - 150 ppl)</t>
-        </is>
-      </c>
-      <c r="E221" s="15" t="inlineStr">
+      <c r="E221" s="16" t="inlineStr">
         <is>
           <t>EF Discussion and Summaries (24N) (KNE 130 - 300 ppl)</t>
         </is>
       </c>
-      <c r="F221" s="24" t="inlineStr">
+      <c r="F221" s="25" t="inlineStr">
         <is>
           <t>NF Early Career Presentations (Topic 1) (20I) (30 ppl)</t>
         </is>
       </c>
-      <c r="G221" s="17" t="inlineStr">
+      <c r="G221" s="19" t="inlineStr">
         <is>
           <t>NF Early Career Presentations (Topic 2) (20K) (JHN 102 - 60 ppl)</t>
         </is>
       </c>
-      <c r="H221" s="26" t="inlineStr">
+      <c r="H221" s="27" t="inlineStr">
         <is>
           <t>RF All-Frontier Discussions (23Y) (KNE 220 - 140 ppl)</t>
         </is>
       </c>
-      <c r="I221" s="27" t="inlineStr">
+      <c r="I221" s="28" t="inlineStr">
         <is>
           <t>TF TF1-TF3-TF4a (18G) (30 ppl)</t>
         </is>
       </c>
-      <c r="J221" s="22" t="inlineStr">
+      <c r="J221" s="24" t="inlineStr">
         <is>
           <t>TF TF8-TF10 (18E) (JHN 111 - 50 ppl)</t>
         </is>
@@ -5046,12 +5015,12 @@
           <t>7-23 10am</t>
         </is>
       </c>
-      <c r="C225" s="9" t="n"/>
-      <c r="D225" s="21" t="inlineStr">
-        <is>
-          <t>IF Report (KNE 110 - 100 ppl)</t>
-        </is>
-      </c>
+      <c r="C225" s="23" t="inlineStr">
+        <is>
+          <t>IF Report (JHN 075 - 100 ppl)</t>
+        </is>
+      </c>
+      <c r="D225" s="9" t="n"/>
       <c r="E225" s="9" t="n"/>
       <c r="F225" s="9" t="n"/>
       <c r="G225" s="9" t="n"/>
@@ -5059,7 +5028,7 @@
       <c r="I225" s="9" t="n"/>
       <c r="J225" s="9" t="n"/>
       <c r="K225" s="9" t="n"/>
-      <c r="L225" s="20" t="inlineStr">
+      <c r="L225" s="22" t="inlineStr">
         <is>
           <t>UF UF4 (21C) (25 ppl)</t>
         </is>
@@ -5704,42 +5673,42 @@
           <t>7-24 10am</t>
         </is>
       </c>
-      <c r="C255" s="23" t="inlineStr">
+      <c r="C255" s="12" t="inlineStr">
         <is>
           <t>AF AF1 Report (KNE 120 - 150 ppl)</t>
         </is>
       </c>
-      <c r="D255" s="12" t="inlineStr">
+      <c r="D255" s="13" t="inlineStr">
         <is>
           <t>AF Success Stories from AF (22D) (30 ppl)</t>
         </is>
       </c>
-      <c r="E255" s="21" t="inlineStr">
+      <c r="E255" s="23" t="inlineStr">
         <is>
           <t>IF Report (24D) (JHN 102 - 100 ppl)</t>
         </is>
       </c>
-      <c r="F255" s="24" t="inlineStr">
+      <c r="F255" s="25" t="inlineStr">
         <is>
           <t>NF Community Engagement Success Stories (22I) (20 ppl)</t>
         </is>
       </c>
-      <c r="G255" s="24" t="inlineStr">
+      <c r="G255" s="25" t="inlineStr">
         <is>
           <t>NF Early Career Presentations (Topic 3) (20H) (30 ppl)</t>
         </is>
       </c>
-      <c r="H255" s="17" t="inlineStr">
+      <c r="H255" s="19" t="inlineStr">
         <is>
           <t>NF Early Career Presentations (Topic 4) (20J) (JHN 175 - 60 ppl)</t>
         </is>
       </c>
-      <c r="I255" s="22" t="inlineStr">
+      <c r="I255" s="24" t="inlineStr">
         <is>
           <t>TF Discussion and frontier reports (19P) (KNE 220 - 175 ppl)</t>
         </is>
       </c>
-      <c r="J255" s="20" t="inlineStr">
+      <c r="J255" s="22" t="inlineStr">
         <is>
           <t>UF UF6 (23B) (25 ppl)</t>
         </is>
@@ -6766,7 +6735,7 @@
       <c r="C337" t="inlineStr"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
+  <mergeCells count="166">
     <mergeCell ref="C27:C30"/>
     <mergeCell ref="C40:C42"/>
     <mergeCell ref="C43:C48"/>
@@ -6870,25 +6839,24 @@
     <mergeCell ref="G191:G192"/>
     <mergeCell ref="H191:H198"/>
     <mergeCell ref="I191:I198"/>
-    <mergeCell ref="J191:J198"/>
+    <mergeCell ref="J191:J194"/>
     <mergeCell ref="K191:K194"/>
-    <mergeCell ref="L191:L194"/>
-    <mergeCell ref="M191:M198"/>
+    <mergeCell ref="L191:L198"/>
+    <mergeCell ref="M191:M194"/>
     <mergeCell ref="N191:N194"/>
     <mergeCell ref="O191:O194"/>
-    <mergeCell ref="P191:P194"/>
     <mergeCell ref="F195:F198"/>
     <mergeCell ref="G195:G198"/>
+    <mergeCell ref="J195:J198"/>
     <mergeCell ref="K195:K198"/>
-    <mergeCell ref="L195:L198"/>
-    <mergeCell ref="N195:N198"/>
-    <mergeCell ref="O196:O199"/>
+    <mergeCell ref="M195:M198"/>
+    <mergeCell ref="N196:N199"/>
     <mergeCell ref="C199:C202"/>
     <mergeCell ref="C203:C205"/>
     <mergeCell ref="C206:C208"/>
     <mergeCell ref="C209:C212"/>
-    <mergeCell ref="C221:C228"/>
-    <mergeCell ref="D221:D224"/>
+    <mergeCell ref="C221:C224"/>
+    <mergeCell ref="D221:D228"/>
     <mergeCell ref="E221:E228"/>
     <mergeCell ref="F221:F228"/>
     <mergeCell ref="G221:G228"/>
@@ -6901,7 +6869,7 @@
     <mergeCell ref="N221:N224"/>
     <mergeCell ref="O221:O228"/>
     <mergeCell ref="P221:P228"/>
-    <mergeCell ref="D225:D228"/>
+    <mergeCell ref="C225:C228"/>
     <mergeCell ref="L225:L228"/>
     <mergeCell ref="N225:N228"/>
     <mergeCell ref="C229:C232"/>
@@ -7047,15 +7015,15 @@
       <c r="D5" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="28" t="inlineStr">
+      <c r="E5" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F5" s="29" t="n">
+      <c r="F5" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G5" s="29" t="n">
+      <c r="G5" s="30" t="n">
         <v>25</v>
       </c>
       <c r="H5" t="inlineStr">
@@ -7109,15 +7077,15 @@
       <c r="D7" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="28" t="inlineStr">
+      <c r="E7" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F7" s="29" t="n">
+      <c r="F7" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G7" s="29" t="n">
+      <c r="G7" s="30" t="n">
         <v>25</v>
       </c>
       <c r="H7" t="inlineStr">
@@ -7140,15 +7108,15 @@
       <c r="D8" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="28" t="inlineStr">
+      <c r="E8" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F8" s="29" t="n">
+      <c r="F8" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G8" s="29" t="n">
+      <c r="G8" s="30" t="n">
         <v>40</v>
       </c>
       <c r="H8" t="inlineStr">
@@ -7202,15 +7170,15 @@
       <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="28" t="inlineStr">
+      <c r="E10" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F10" s="29" t="n">
+      <c r="F10" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G10" s="29" t="n">
+      <c r="G10" s="30" t="n">
         <v>25</v>
       </c>
       <c r="H10" t="inlineStr">
@@ -7233,15 +7201,15 @@
       <c r="D11" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="28" t="inlineStr">
+      <c r="E11" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F11" s="29" t="n">
+      <c r="F11" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G11" s="29" t="n">
+      <c r="G11" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H11" t="inlineStr">
@@ -7264,15 +7232,15 @@
       <c r="D12" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="28" t="inlineStr">
+      <c r="E12" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F12" s="29" t="n">
+      <c r="F12" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G12" s="29" t="n">
+      <c r="G12" s="30" t="n">
         <v>25</v>
       </c>
       <c r="H12" t="inlineStr">
@@ -7295,15 +7263,15 @@
       <c r="D13" t="n">
         <v>2</v>
       </c>
-      <c r="E13" s="28" t="inlineStr">
+      <c r="E13" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F13" s="29" t="n">
+      <c r="F13" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G13" s="29" t="n">
+      <c r="G13" s="30" t="n">
         <v>25</v>
       </c>
       <c r="H13" t="inlineStr">
@@ -7962,7 +7930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A3:H25"/>
+  <dimension ref="A3:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:XFD1"/>
@@ -8029,20 +7997,20 @@
       <c r="D4" t="n">
         <v>4</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>HUB 340</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>72</v>
-      </c>
-      <c r="G4" t="n">
-        <v>70</v>
+      <c r="E4" s="29" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F4" s="30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G4" s="30" t="n">
+        <v>30</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>XF CEF-EF-NF-RF-CF-TF-AF-IF-CompF-UF CEF Feedback (18A)</t>
+          <t>EF Strong Interactions I (18L)</t>
         </is>
       </c>
     </row>
@@ -8060,20 +8028,20 @@
       <c r="D5" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="28" t="inlineStr">
-        <is>
-          <t>HUB 332</t>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HUB 340</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="G5" t="n">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>EF Higgs and BSM I (18K)</t>
+          <t>XF CEF-EF-NF-RF-CF-TF-AF-IF-CompF-UF CEF Feedback (18A)</t>
         </is>
       </c>
     </row>
@@ -8091,20 +8059,20 @@
       <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>KNE 220</t>
+      <c r="E6" s="29" t="inlineStr">
+        <is>
+          <t>HUB 332</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>239</v>
+        <v>120</v>
       </c>
       <c r="G6" t="n">
         <v>100</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>EF Strong Interactions I (18L)</t>
+          <t>EF Higgs and BSM I (18K)</t>
         </is>
       </c>
     </row>
@@ -8184,16 +8152,16 @@
       <c r="D9" t="n">
         <v>4</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>KNE 220</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>239</v>
-      </c>
-      <c r="G9" t="n">
-        <v>100</v>
+      <c r="E9" s="29" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F9" s="30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="30" t="n">
+        <v>30</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -8308,15 +8276,15 @@
       <c r="D13" t="n">
         <v>2</v>
       </c>
-      <c r="E13" s="28" t="inlineStr">
+      <c r="E13" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F13" s="29" t="n">
+      <c r="F13" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G13" s="29" t="n">
+      <c r="G13" s="30" t="n">
         <v>40</v>
       </c>
       <c r="H13" t="inlineStr">
@@ -8339,15 +8307,15 @@
       <c r="D14" t="n">
         <v>4</v>
       </c>
-      <c r="E14" s="28" t="inlineStr">
+      <c r="E14" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F14" s="29" t="n">
+      <c r="F14" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G14" s="29" t="n">
+      <c r="G14" s="30" t="n">
         <v>40</v>
       </c>
       <c r="H14" t="inlineStr">
@@ -8494,15 +8462,15 @@
       <c r="D19" t="n">
         <v>2</v>
       </c>
-      <c r="E19" s="28" t="inlineStr">
+      <c r="E19" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F19" s="29" t="n">
+      <c r="F19" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G19" s="29" t="n">
+      <c r="G19" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H19" t="inlineStr">
@@ -8525,15 +8493,15 @@
       <c r="D20" t="n">
         <v>2</v>
       </c>
-      <c r="E20" s="28" t="inlineStr">
+      <c r="E20" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F20" s="29" t="n">
+      <c r="F20" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G20" s="29" t="n">
+      <c r="G20" s="30" t="n">
         <v>40</v>
       </c>
       <c r="H20" t="inlineStr">
@@ -8581,26 +8549,26 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>KNE 210</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>242</v>
-      </c>
-      <c r="G22" t="n">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="E22" s="29" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F22" s="30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G22" s="30" t="n">
+        <v>20</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>EF Top II (23O)</t>
+          <t>XF RF-EF-TF RF7-EF6-EF7 hadrons as production probes; production mechanisms probing the internal structure of exotic hadrons (23A)</t>
         </is>
       </c>
     </row>
@@ -8618,80 +8586,49 @@
       <c r="D23" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="28" t="inlineStr">
+      <c r="E23" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F23" s="29" t="n">
+      <c r="F23" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G23" s="29" t="n">
-        <v>20</v>
+      <c r="G23" s="30" t="n">
+        <v>30</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>XF RF-EF-TF RF7-EF6-EF7 hadrons as production probes; production mechanisms probing the internal structure of exotic hadrons (23A)</t>
+          <t>XF EF-AF combined EF/AF report discussion (21V)</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>7-22</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
-      </c>
-      <c r="E24" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F24" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G24" s="29" t="n">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>KNE 130</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>723</v>
+      </c>
+      <c r="G24" t="n">
+        <v>300</v>
       </c>
       <c r="H24" t="inlineStr">
-        <is>
-          <t>XF EF-AF combined EF/AF report discussion (21V)</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>7-23</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>8am-12pm</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>4</v>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>KNE 130</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>723</v>
-      </c>
-      <c r="G25" t="n">
-        <v>300</v>
-      </c>
-      <c r="H25" t="inlineStr">
         <is>
           <t>EF Discussion and Summaries (24N)</t>
         </is>
@@ -8965,15 +8902,15 @@
       <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="28" t="inlineStr">
+      <c r="E10" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F10" s="29" t="n">
+      <c r="F10" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G10" s="29" t="n">
+      <c r="G10" s="30" t="n">
         <v>40</v>
       </c>
       <c r="H10" t="inlineStr">
@@ -8996,15 +8933,15 @@
       <c r="D11" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="28" t="inlineStr">
+      <c r="E11" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F11" s="29" t="n">
+      <c r="F11" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G11" s="29" t="n">
+      <c r="G11" s="30" t="n">
         <v>40</v>
       </c>
       <c r="H11" t="inlineStr">
@@ -9058,15 +8995,15 @@
       <c r="D13" t="n">
         <v>4</v>
       </c>
-      <c r="E13" s="28" t="inlineStr">
+      <c r="E13" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F13" s="29" t="n">
+      <c r="F13" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G13" s="29" t="n">
+      <c r="G13" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H13" t="inlineStr">
@@ -9089,15 +9026,15 @@
       <c r="D14" t="n">
         <v>4</v>
       </c>
-      <c r="E14" s="28" t="inlineStr">
+      <c r="E14" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F14" s="29" t="n">
+      <c r="F14" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G14" s="29" t="n">
+      <c r="G14" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H14" t="inlineStr">
@@ -9120,15 +9057,15 @@
       <c r="D15" t="n">
         <v>2</v>
       </c>
-      <c r="E15" s="28" t="inlineStr">
+      <c r="E15" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F15" s="29" t="n">
+      <c r="F15" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G15" s="29" t="n">
+      <c r="G15" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H15" t="inlineStr">
@@ -9151,15 +9088,15 @@
       <c r="D16" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="28" t="inlineStr">
+      <c r="E16" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F16" s="29" t="n">
+      <c r="F16" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G16" s="29" t="n">
+      <c r="G16" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H16" t="inlineStr">
@@ -9182,15 +9119,15 @@
       <c r="D17" t="n">
         <v>4</v>
       </c>
-      <c r="E17" s="28" t="inlineStr">
+      <c r="E17" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F17" s="29" t="n">
+      <c r="F17" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G17" s="29" t="n">
+      <c r="G17" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H17" t="inlineStr">
@@ -9213,15 +9150,15 @@
       <c r="D18" t="n">
         <v>4</v>
       </c>
-      <c r="E18" s="28" t="inlineStr">
+      <c r="E18" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F18" s="29" t="n">
+      <c r="F18" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G18" s="29" t="n">
+      <c r="G18" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H18" t="inlineStr">
@@ -9337,15 +9274,15 @@
       <c r="D22" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="28" t="inlineStr">
+      <c r="E22" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F22" s="29" t="n">
+      <c r="F22" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G22" s="29" t="n">
+      <c r="G22" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H22" t="inlineStr">
@@ -9368,15 +9305,15 @@
       <c r="D23" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="28" t="inlineStr">
+      <c r="E23" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F23" s="29" t="n">
+      <c r="F23" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G23" s="29" t="n">
+      <c r="G23" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H23" t="inlineStr">
@@ -9399,15 +9336,15 @@
       <c r="D24" t="n">
         <v>2</v>
       </c>
-      <c r="E24" s="28" t="inlineStr">
+      <c r="E24" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F24" s="29" t="n">
+      <c r="F24" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G24" s="29" t="n">
+      <c r="G24" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H24" t="inlineStr">
@@ -9430,15 +9367,15 @@
       <c r="D25" t="n">
         <v>2</v>
       </c>
-      <c r="E25" s="28" t="inlineStr">
+      <c r="E25" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F25" s="29" t="n">
+      <c r="F25" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G25" s="29" t="n">
+      <c r="G25" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H25" t="inlineStr">
@@ -9622,15 +9559,15 @@
       <c r="D5" t="n">
         <v>2</v>
       </c>
-      <c r="E5" s="28" t="inlineStr">
+      <c r="E5" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F5" s="29" t="n">
+      <c r="F5" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G5" s="29" t="n">
+      <c r="G5" s="30" t="n">
         <v>40</v>
       </c>
       <c r="H5" t="inlineStr">
@@ -9715,15 +9652,15 @@
       <c r="D8" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="28" t="inlineStr">
+      <c r="E8" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F8" s="29" t="n">
+      <c r="F8" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G8" s="29" t="n">
+      <c r="G8" s="30" t="n">
         <v>40</v>
       </c>
       <c r="H8" t="inlineStr">
@@ -9746,15 +9683,15 @@
       <c r="D9" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="28" t="inlineStr">
+      <c r="E9" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F9" s="29" t="n">
+      <c r="F9" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G9" s="29" t="n">
+      <c r="G9" s="30" t="n">
         <v>40</v>
       </c>
       <c r="H9" t="inlineStr">
@@ -9777,15 +9714,15 @@
       <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="28" t="inlineStr">
+      <c r="E10" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F10" s="29" t="n">
+      <c r="F10" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G10" s="29" t="n">
+      <c r="G10" s="30" t="n">
         <v>40</v>
       </c>
       <c r="H10" t="inlineStr">
@@ -9839,15 +9776,15 @@
       <c r="D12" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="28" t="inlineStr">
+      <c r="E12" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F12" s="29" t="n">
+      <c r="F12" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G12" s="29" t="n">
+      <c r="G12" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H12" t="inlineStr">
@@ -9932,15 +9869,15 @@
       <c r="D15" t="n">
         <v>2</v>
       </c>
-      <c r="E15" s="28" t="inlineStr">
+      <c r="E15" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F15" s="29" t="n">
+      <c r="F15" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G15" s="29" t="n">
+      <c r="G15" s="30" t="n">
         <v>40</v>
       </c>
       <c r="H15" t="inlineStr">
@@ -9963,15 +9900,15 @@
       <c r="D16" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="28" t="inlineStr">
+      <c r="E16" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F16" s="29" t="n">
+      <c r="F16" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G16" s="29" t="n">
+      <c r="G16" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H16" t="inlineStr">
@@ -9994,15 +9931,15 @@
       <c r="D17" t="n">
         <v>2</v>
       </c>
-      <c r="E17" s="28" t="inlineStr">
+      <c r="E17" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F17" s="29" t="n">
+      <c r="F17" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G17" s="29" t="n">
+      <c r="G17" s="30" t="n">
         <v>40</v>
       </c>
       <c r="H17" t="inlineStr">
@@ -10056,15 +9993,15 @@
       <c r="D19" t="n">
         <v>2</v>
       </c>
-      <c r="E19" s="28" t="inlineStr">
+      <c r="E19" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F19" s="29" t="n">
+      <c r="F19" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G19" s="29" t="n">
+      <c r="G19" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H19" t="inlineStr">
@@ -10087,15 +10024,15 @@
       <c r="D20" t="n">
         <v>2</v>
       </c>
-      <c r="E20" s="28" t="inlineStr">
+      <c r="E20" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F20" s="29" t="n">
+      <c r="F20" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G20" s="29" t="n">
+      <c r="G20" s="30" t="n">
         <v>40</v>
       </c>
       <c r="H20" t="inlineStr">
@@ -10589,15 +10526,15 @@
       <c r="D16" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="28" t="inlineStr">
+      <c r="E16" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F16" s="29" t="n">
+      <c r="F16" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G16" s="29" t="n">
+      <c r="G16" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H16" t="inlineStr">
@@ -10620,15 +10557,15 @@
       <c r="D17" t="n">
         <v>4</v>
       </c>
-      <c r="E17" s="28" t="inlineStr">
+      <c r="E17" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F17" s="29" t="n">
+      <c r="F17" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G17" s="29" t="n">
+      <c r="G17" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H17" t="inlineStr">
@@ -10713,15 +10650,15 @@
       <c r="D20" t="n">
         <v>2</v>
       </c>
-      <c r="E20" s="28" t="inlineStr">
+      <c r="E20" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F20" s="29" t="n">
+      <c r="F20" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G20" s="29" t="n">
+      <c r="G20" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H20" t="inlineStr">
@@ -11091,15 +11028,15 @@
       <c r="D12" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="28" t="inlineStr">
+      <c r="E12" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F12" s="29" t="n">
+      <c r="F12" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G12" s="29" t="n">
+      <c r="G12" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H12" t="inlineStr">
@@ -11122,15 +11059,15 @@
       <c r="D13" t="n">
         <v>4</v>
       </c>
-      <c r="E13" s="28" t="inlineStr">
+      <c r="E13" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F13" s="29" t="n">
+      <c r="F13" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G13" s="29" t="n">
+      <c r="G13" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H13" t="inlineStr">
@@ -11376,15 +11313,15 @@
       <c r="D4" t="n">
         <v>4</v>
       </c>
-      <c r="E4" s="28" t="inlineStr">
+      <c r="E4" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F4" s="29" t="n">
+      <c r="F4" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G4" s="29" t="n">
+      <c r="G4" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H4" t="inlineStr">
@@ -11407,20 +11344,20 @@
       <c r="D5" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F5" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G5" s="29" t="n">
-        <v>30</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HUB 340</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>72</v>
+      </c>
+      <c r="G5" t="n">
+        <v>70</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AF AF2-5 (19G)</t>
+          <t>XF CEF-EF-NF-RF-CF-TF-AF-IF-CompF-UF CEF Feedback (18A)</t>
         </is>
       </c>
     </row>
@@ -11440,18 +11377,18 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>HUB 340</t>
+          <t>KNE 220</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>72</v>
+        <v>239</v>
       </c>
       <c r="G6" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>XF CEF-EF-NF-RF-CF-TF-AF-IF-CompF-UF CEF Feedback (18A)</t>
+          <t>AF AF3 and AF4 Reports (19G)</t>
         </is>
       </c>
     </row>
@@ -11469,15 +11406,15 @@
       <c r="D7" t="n">
         <v>4</v>
       </c>
-      <c r="E7" s="28" t="inlineStr">
+      <c r="E7" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F7" s="29" t="n">
+      <c r="F7" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G7" s="29" t="n">
+      <c r="G7" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H7" t="inlineStr">
@@ -11500,15 +11437,15 @@
       <c r="D8" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="28" t="inlineStr">
+      <c r="E8" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F8" s="29" t="n">
+      <c r="F8" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G8" s="29" t="n">
+      <c r="G8" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H8" t="inlineStr">
@@ -11531,15 +11468,15 @@
       <c r="D9" t="n">
         <v>4</v>
       </c>
-      <c r="E9" s="28" t="inlineStr">
+      <c r="E9" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F9" s="29" t="n">
+      <c r="F9" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G9" s="29" t="n">
+      <c r="G9" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H9" t="inlineStr">
@@ -11562,16 +11499,16 @@
       <c r="D10" t="n">
         <v>4</v>
       </c>
-      <c r="E10" s="28" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F10" s="29" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G10" s="29" t="n">
-        <v>30</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>KNE 220</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>239</v>
+      </c>
+      <c r="G10" t="n">
+        <v>100</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -11593,15 +11530,15 @@
       <c r="D11" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="28" t="inlineStr">
+      <c r="E11" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F11" s="29" t="n">
+      <c r="F11" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G11" s="29" t="n">
+      <c r="G11" s="30" t="n">
         <v>40</v>
       </c>
       <c r="H11" t="inlineStr">
@@ -11624,15 +11561,15 @@
       <c r="D12" t="n">
         <v>4</v>
       </c>
-      <c r="E12" s="28" t="inlineStr">
+      <c r="E12" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F12" s="29" t="n">
+      <c r="F12" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G12" s="29" t="n">
+      <c r="G12" s="30" t="n">
         <v>40</v>
       </c>
       <c r="H12" t="inlineStr">
@@ -11748,15 +11685,15 @@
       <c r="D16" t="n">
         <v>2</v>
       </c>
-      <c r="E16" s="28" t="inlineStr">
+      <c r="E16" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F16" s="29" t="n">
+      <c r="F16" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G16" s="29" t="n">
+      <c r="G16" s="30" t="n">
         <v>40</v>
       </c>
       <c r="H16" t="inlineStr">
@@ -11843,18 +11780,18 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>HUB 332</t>
+          <t>KNE 210</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>120</v>
+        <v>242</v>
       </c>
       <c r="G19" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>AF P5 Strategy accel for neutrinos and PBC (24J)</t>
+          <t>AF AF Report Finalization (24J)</t>
         </is>
       </c>
     </row>
@@ -11872,15 +11809,15 @@
       <c r="D20" t="n">
         <v>2</v>
       </c>
-      <c r="E20" s="28" t="inlineStr">
+      <c r="E20" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F20" s="29" t="n">
+      <c r="F20" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G20" s="29" t="n">
+      <c r="G20" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H20" t="inlineStr">
@@ -11947,7 +11884,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>AF AFx Internal (18M)</t>
+          <t>AF AF3 and AF4 Internal (TBD) (18M)</t>
         </is>
       </c>
     </row>
@@ -11965,15 +11902,15 @@
       <c r="D23" t="n">
         <v>2</v>
       </c>
-      <c r="E23" s="28" t="inlineStr">
+      <c r="E23" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F23" s="29" t="n">
+      <c r="F23" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G23" s="29" t="n">
+      <c r="G23" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H23" t="inlineStr">
@@ -11996,15 +11933,15 @@
       <c r="D24" t="n">
         <v>2</v>
       </c>
-      <c r="E24" s="28" t="inlineStr">
+      <c r="E24" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F24" s="29" t="n">
+      <c r="F24" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G24" s="29" t="n">
+      <c r="G24" s="30" t="n">
         <v>40</v>
       </c>
       <c r="H24" t="inlineStr">
@@ -12157,15 +12094,15 @@
       <c r="D4" t="n">
         <v>4</v>
       </c>
-      <c r="E4" s="28" t="inlineStr">
+      <c r="E4" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F4" s="29" t="n">
+      <c r="F4" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G4" s="29" t="n">
+      <c r="G4" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H4" t="inlineStr">
@@ -12188,15 +12125,15 @@
       <c r="D5" t="n">
         <v>4</v>
       </c>
-      <c r="E5" s="28" t="inlineStr">
+      <c r="E5" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F5" s="29" t="n">
+      <c r="F5" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G5" s="29" t="n">
+      <c r="G5" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H5" t="inlineStr">
@@ -12219,15 +12156,15 @@
       <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="E6" s="28" t="inlineStr">
+      <c r="E6" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F6" s="29" t="n">
+      <c r="F6" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G6" s="29" t="n">
+      <c r="G6" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H6" t="inlineStr">
@@ -12281,15 +12218,15 @@
       <c r="D8" t="n">
         <v>4</v>
       </c>
-      <c r="E8" s="28" t="inlineStr">
+      <c r="E8" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F8" s="29" t="n">
+      <c r="F8" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G8" s="29" t="n">
+      <c r="G8" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H8" t="inlineStr">
@@ -12312,15 +12249,15 @@
       <c r="D9" t="n">
         <v>4</v>
       </c>
-      <c r="E9" s="28" t="inlineStr">
+      <c r="E9" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F9" s="29" t="n">
+      <c r="F9" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G9" s="29" t="n">
+      <c r="G9" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H9" t="inlineStr">
@@ -12343,15 +12280,15 @@
       <c r="D10" t="n">
         <v>4</v>
       </c>
-      <c r="E10" s="28" t="inlineStr">
+      <c r="E10" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F10" s="29" t="n">
+      <c r="F10" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G10" s="29" t="n">
+      <c r="G10" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H10" t="inlineStr">
@@ -12374,15 +12311,15 @@
       <c r="D11" t="n">
         <v>4</v>
       </c>
-      <c r="E11" s="28" t="inlineStr">
+      <c r="E11" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F11" s="29" t="n">
+      <c r="F11" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G11" s="29" t="n">
+      <c r="G11" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H11" t="inlineStr">
@@ -12436,15 +12373,15 @@
       <c r="D13" t="n">
         <v>4</v>
       </c>
-      <c r="E13" s="28" t="inlineStr">
+      <c r="E13" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F13" s="29" t="n">
+      <c r="F13" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G13" s="29" t="n">
+      <c r="G13" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H13" t="inlineStr">
@@ -12467,15 +12404,15 @@
       <c r="D14" t="n">
         <v>4</v>
       </c>
-      <c r="E14" s="28" t="inlineStr">
+      <c r="E14" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F14" s="29" t="n">
+      <c r="F14" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G14" s="29" t="n">
+      <c r="G14" s="30" t="n">
         <v>40</v>
       </c>
       <c r="H14" t="inlineStr">
@@ -12498,15 +12435,15 @@
       <c r="D15" t="n">
         <v>4</v>
       </c>
-      <c r="E15" s="28" t="inlineStr">
+      <c r="E15" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F15" s="29" t="n">
+      <c r="F15" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G15" s="29" t="n">
+      <c r="G15" s="30" t="n">
         <v>40</v>
       </c>
       <c r="H15" t="inlineStr">
@@ -12591,15 +12528,15 @@
       <c r="D18" t="n">
         <v>4</v>
       </c>
-      <c r="E18" s="28" t="inlineStr">
+      <c r="E18" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F18" s="29" t="n">
+      <c r="F18" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G18" s="29" t="n">
+      <c r="G18" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H18" t="inlineStr">
@@ -12622,15 +12559,15 @@
       <c r="D19" t="n">
         <v>4</v>
       </c>
-      <c r="E19" s="28" t="inlineStr">
+      <c r="E19" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F19" s="29" t="n">
+      <c r="F19" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G19" s="29" t="n">
+      <c r="G19" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H19" t="inlineStr">
@@ -12653,15 +12590,15 @@
       <c r="D20" t="n">
         <v>2</v>
       </c>
-      <c r="E20" s="28" t="inlineStr">
+      <c r="E20" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F20" s="29" t="n">
+      <c r="F20" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G20" s="29" t="n">
+      <c r="G20" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H20" t="inlineStr">
@@ -12684,15 +12621,15 @@
       <c r="D21" t="n">
         <v>4</v>
       </c>
-      <c r="E21" s="28" t="inlineStr">
+      <c r="E21" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F21" s="29" t="n">
+      <c r="F21" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G21" s="29" t="n">
+      <c r="G21" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H21" t="inlineStr">
@@ -12715,15 +12652,15 @@
       <c r="D22" t="n">
         <v>4</v>
       </c>
-      <c r="E22" s="28" t="inlineStr">
+      <c r="E22" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F22" s="29" t="n">
+      <c r="F22" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G22" s="29" t="n">
+      <c r="G22" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H22" t="inlineStr">
@@ -12808,13 +12745,13 @@
       <c r="D25" t="n">
         <v>2</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>KNE 110</t>
+      <c r="E25" s="29" t="inlineStr">
+        <is>
+          <t>JHN 075</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="G25" t="n">
         <v>100</v>
@@ -12969,15 +12906,15 @@
       <c r="D4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" s="28" t="inlineStr">
+      <c r="E4" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F4" s="29" t="n">
+      <c r="F4" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G4" s="29" t="n">
+      <c r="G4" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H4" t="inlineStr">
@@ -13031,15 +12968,15 @@
       <c r="D6" t="n">
         <v>2</v>
       </c>
-      <c r="E6" s="28" t="inlineStr">
+      <c r="E6" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F6" s="29" t="n">
+      <c r="F6" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G6" s="29" t="n">
+      <c r="G6" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H6" t="inlineStr">
@@ -13062,15 +12999,15 @@
       <c r="D7" t="n">
         <v>2</v>
       </c>
-      <c r="E7" s="28" t="inlineStr">
+      <c r="E7" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F7" s="29" t="n">
+      <c r="F7" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G7" s="29" t="n">
+      <c r="G7" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H7" t="inlineStr">
@@ -13093,15 +13030,15 @@
       <c r="D8" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="28" t="inlineStr">
+      <c r="E8" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F8" s="29" t="n">
+      <c r="F8" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G8" s="29" t="n">
+      <c r="G8" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H8" t="inlineStr">
@@ -13124,15 +13061,15 @@
       <c r="D9" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="28" t="inlineStr">
+      <c r="E9" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F9" s="29" t="n">
+      <c r="F9" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G9" s="29" t="n">
+      <c r="G9" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H9" t="inlineStr">
@@ -13155,15 +13092,15 @@
       <c r="D10" t="n">
         <v>2</v>
       </c>
-      <c r="E10" s="28" t="inlineStr">
+      <c r="E10" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F10" s="29" t="n">
+      <c r="F10" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G10" s="29" t="n">
+      <c r="G10" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H10" t="inlineStr">
@@ -13186,15 +13123,15 @@
       <c r="D11" t="n">
         <v>2</v>
       </c>
-      <c r="E11" s="28" t="inlineStr">
+      <c r="E11" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F11" s="29" t="n">
+      <c r="F11" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G11" s="29" t="n">
+      <c r="G11" s="30" t="n">
         <v>40</v>
       </c>
       <c r="H11" t="inlineStr">
@@ -13217,15 +13154,15 @@
       <c r="D12" t="n">
         <v>2</v>
       </c>
-      <c r="E12" s="28" t="inlineStr">
+      <c r="E12" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F12" s="29" t="n">
+      <c r="F12" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G12" s="29" t="n">
+      <c r="G12" s="30" t="n">
         <v>200</v>
       </c>
       <c r="H12" t="inlineStr">
@@ -13279,15 +13216,15 @@
       <c r="D14" t="n">
         <v>2</v>
       </c>
-      <c r="E14" s="28" t="inlineStr">
+      <c r="E14" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F14" s="29" t="n">
+      <c r="F14" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G14" s="29" t="n">
+      <c r="G14" s="30" t="n">
         <v>20</v>
       </c>
       <c r="H14" t="inlineStr">
@@ -13341,15 +13278,15 @@
       <c r="D16" t="n">
         <v>4</v>
       </c>
-      <c r="E16" s="28" t="inlineStr">
+      <c r="E16" s="29" t="inlineStr">
         <is>
           <t>???</t>
         </is>
       </c>
-      <c r="F16" s="29" t="n">
+      <c r="F16" s="30" t="n">
         <v>-1</v>
       </c>
-      <c r="G16" s="29" t="n">
+      <c r="G16" s="30" t="n">
         <v>30</v>
       </c>
       <c r="H16" t="inlineStr">

--- a/assets/schedule/frontier.xlsx
+++ b/assets/schedule/frontier.xlsx
@@ -22,7 +22,7 @@
     <sheet name="Key!!" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="current_date">"2022-06-08 13:58:44.195639"</definedName>
+    <definedName name="current_date">"2022-06-13 17:57:03.179052"</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C39" s="10" t="inlineStr">
         <is>
-          <t>Registration (17REG) (KNE Lobby - 430 ppl)</t>
+          <t>Registration (17REG) (KNE Lobby - 476 ppl)</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="C42" s="10" t="inlineStr">
         <is>
-          <t>Introductory Plenary (17B) (KNE 130 - 430 ppl)</t>
+          <t>Introductory Plenary (17B) (KNE 130 - 476 ppl)</t>
         </is>
       </c>
     </row>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C48" s="11" t="inlineStr">
         <is>
-          <t>Lunch (17LUN) (430 ppl)</t>
+          <t>Lunch (17LUN) (476 ppl)</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1310,7 @@
       </c>
       <c r="C52" s="10" t="inlineStr">
         <is>
-          <t>Introductory Plenary (17D) (KNE 130 - 430 ppl)</t>
+          <t>Introductory Plenary (17D) (KNE 130 - 476 ppl)</t>
         </is>
       </c>
     </row>
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C57" s="10" t="inlineStr">
         <is>
-          <t>Planning US HEP - past present future (17E) (KNE 130 - 430 ppl)</t>
+          <t>Planning US HEP - past present future (17E) (KNE 130 - 476 ppl)</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="C77" s="11" t="inlineStr">
         <is>
-          <t>Lunch (18LUN) (430 ppl)</t>
+          <t>Lunch (18LUN) (476 ppl)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="C81" s="10" t="inlineStr">
         <is>
-          <t>AI/ML (172 ppl)</t>
+          <t>AI/ML (190 ppl)</t>
         </is>
       </c>
       <c r="D81" s="10" t="inlineStr">
         <is>
-          <t>Underground (18U) (KNE 130 - 129 ppl)</t>
+          <t>Underground (18U) (KNE 130 - 142 ppl)</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -1826,12 +1826,12 @@
       </c>
       <c r="C84" s="10" t="inlineStr">
         <is>
-          <t>Lattice QCD (86 ppl)</t>
+          <t>Lattice QCD (95 ppl)</t>
         </is>
       </c>
       <c r="D84" s="10" t="inlineStr">
         <is>
-          <t>The Next Accelerators (KNE 130 - 172 ppl)</t>
+          <t>The Next Accelerators (KNE 130 - 190 ppl)</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -1906,7 +1906,7 @@
       </c>
       <c r="C88" s="10" t="inlineStr">
         <is>
-          <t>DEI Talks and Panel (18Z) (KNE 130 - 215 ppl)</t>
+          <t>DEI Talks and Panel (18Z) (KNE 130 - 238 ppl)</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="C106" s="11" t="inlineStr">
         <is>
-          <t>Lunch (19LUN) (430 ppl)</t>
+          <t>Lunch (19LUN) (476 ppl)</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
@@ -2439,7 +2439,7 @@
       </c>
       <c r="C110" s="10" t="inlineStr">
         <is>
-          <t>Panel - Careers and Training the Next Generations (19S) (KNE 130 - 215 ppl)</t>
+          <t>Panel - Careers and Training the Next Generations (19S) (KNE 130 - 238 ppl)</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
@@ -2506,12 +2506,12 @@
       </c>
       <c r="C113" s="10" t="inlineStr">
         <is>
-          <t>Cosmic (172 ppl)</t>
+          <t>Cosmic (190 ppl)</t>
         </is>
       </c>
       <c r="D113" s="10" t="inlineStr">
         <is>
-          <t>Lepton Colliders (19S) (KNE 130 - 172 ppl)</t>
+          <t>Lepton Colliders (19S) (KNE 130 - 190 ppl)</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -2598,7 +2598,7 @@
       </c>
       <c r="C117" s="10" t="inlineStr">
         <is>
-          <t>Community Engagement (19V) (KNE 130 - 129 ppl)</t>
+          <t>Community Engagement (19V) (KNE 130 - 142 ppl)</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -3026,7 +3026,7 @@
       </c>
       <c r="C135" s="11" t="inlineStr">
         <is>
-          <t>Lunch (20LUN) (430 ppl)</t>
+          <t>Lunch (20LUN) (476 ppl)</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -3106,12 +3106,12 @@
       </c>
       <c r="C139" s="10" t="inlineStr">
         <is>
-          <t>Neutrino (20BB) (KNE 130 - 172 ppl)</t>
+          <t>Neutrino (20BB) (KNE 130 - 190 ppl)</t>
         </is>
       </c>
       <c r="D139" s="10" t="inlineStr">
         <is>
-          <t>Rare Processes and AMO (215 ppl)</t>
+          <t>Rare Processes and AMO (238 ppl)</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -3171,7 +3171,7 @@
       </c>
       <c r="C142" s="10" t="inlineStr">
         <is>
-          <t>Instrumentation (KNE 130 - 215 ppl)</t>
+          <t>Instrumentation (KNE 130 - 238 ppl)</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -3473,32 +3473,32 @@
       </c>
       <c r="H156" s="27" t="inlineStr">
         <is>
-          <t>NF Beyond neutrino mass physics reach of precision beta-decay experiments (21K) (20 ppl)</t>
-        </is>
-      </c>
-      <c r="I156" s="27" t="inlineStr">
-        <is>
           <t>NF Blue Skye/Very Long Term ideas (21M) (30 ppl)</t>
         </is>
       </c>
-      <c r="J156" s="25" t="inlineStr">
+      <c r="I156" s="25" t="inlineStr">
         <is>
           <t>TF TF2-TF5 (18D) (JHN 111 - 50 ppl)</t>
         </is>
       </c>
+      <c r="J156" s="26" t="inlineStr">
+        <is>
+          <t>XF EF-CompF EF Centric Discussions (18X) (40 ppl)</t>
+        </is>
+      </c>
       <c r="K156" s="26" t="inlineStr">
         <is>
-          <t>XF EF-CompF EF Centric Discussions (18X) (40 ppl)</t>
+          <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I) (40 ppl)</t>
         </is>
       </c>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I) (40 ppl)</t>
+          <t>XF IF-RF-EF Focus on timing and more generally tracking detectors (21J) (40 ppl)</t>
         </is>
       </c>
       <c r="M156" s="26" t="inlineStr">
         <is>
-          <t>XF IF-RF-EF Focus on timing and more generally tracking detectors (21J) (40 ppl)</t>
+          <t>XF NF-CF Neutrino mass scale with beta decay kinematics (22C) (30 ppl)</t>
         </is>
       </c>
       <c r="N156" s="20" t="inlineStr">
@@ -3585,18 +3585,18 @@
       <c r="G160" s="9" t="n"/>
       <c r="H160" s="9" t="n"/>
       <c r="I160" s="9" t="n"/>
-      <c r="J160" s="9" t="n"/>
-      <c r="K160" s="15" t="inlineStr">
+      <c r="J160" s="15" t="inlineStr">
         <is>
           <t>CompF CompF7 Reinterpretation and long-term preservation of data and code (20D) (20 ppl)</t>
         </is>
       </c>
-      <c r="L160" s="9" t="n"/>
-      <c r="M160" s="16" t="inlineStr">
+      <c r="K160" s="9" t="n"/>
+      <c r="L160" s="16" t="inlineStr">
         <is>
           <t>EF DM Discussion (21N) (KNE 110 - 100 ppl)</t>
         </is>
       </c>
+      <c r="M160" s="9" t="n"/>
       <c r="N160" s="26" t="inlineStr">
         <is>
           <t>XF RF-CF RF1 large-volume data analysis and simulation and usage of HPC in data analysis (24B) (30 ppl)</t>
@@ -3676,7 +3676,7 @@
       </c>
       <c r="C164" s="11" t="inlineStr">
         <is>
-          <t>Lunch (21LUN) (430 ppl)</t>
+          <t>Lunch (21LUN) (476 ppl)</t>
         </is>
       </c>
       <c r="D164" t="inlineStr"/>
@@ -3760,7 +3760,7 @@
       </c>
       <c r="C168" s="10" t="inlineStr">
         <is>
-          <t>Colloquium on Rare Processes and Precision Measurements (21U) (129 ppl)</t>
+          <t>Colloquium on Rare Processes and Precision Measurements (21U) (142 ppl)</t>
         </is>
       </c>
       <c r="D168" t="inlineStr"/>
@@ -3824,7 +3824,7 @@
       </c>
       <c r="C171" s="10" t="inlineStr">
         <is>
-          <t>Colloquium on New Accelerator and R&amp;D (129 ppl)</t>
+          <t>Colloquium on New Accelerator and R&amp;D (142 ppl)</t>
         </is>
       </c>
       <c r="D171" t="inlineStr"/>
@@ -3908,7 +3908,7 @@
       </c>
       <c r="C175" s="10" t="inlineStr">
         <is>
-          <t>Colloquium on Cosmic Frontier Probes of Fundamental Physics (23W) (KNE 130 - 172 ppl)</t>
+          <t>Colloquium on Cosmic Frontier Probes of Fundamental Physics (23W) (KNE 130 - 190 ppl)</t>
         </is>
       </c>
       <c r="D175" t="inlineStr"/>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="C193" s="11" t="inlineStr">
         <is>
-          <t>Lunch (22LUN) (430 ppl)</t>
+          <t>Lunch (22LUN) (476 ppl)</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
@@ -4428,7 +4428,7 @@
       </c>
       <c r="C197" s="10" t="inlineStr">
         <is>
-          <t>Colloquium on Underground Physics (22V) (KNE 130 - 129 ppl)</t>
+          <t>Colloquium on Underground Physics (22V) (KNE 130 - 142 ppl)</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
@@ -4492,7 +4492,7 @@
       </c>
       <c r="C200" s="10" t="inlineStr">
         <is>
-          <t>Colloquium on Theory (172 ppl)</t>
+          <t>Colloquium on Theory (190 ppl)</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
@@ -4556,7 +4556,7 @@
       </c>
       <c r="C203" s="10" t="inlineStr">
         <is>
-          <t>Colloquium on Neutrino Physics (22W) (KNE 130 - 215 ppl)</t>
+          <t>Colloquium on Neutrino Physics (22W) (KNE 130 - 238 ppl)</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
@@ -5019,7 +5019,7 @@
       </c>
       <c r="C222" s="11" t="inlineStr">
         <is>
-          <t>Lunch (23LUN) (430 ppl)</t>
+          <t>Lunch (23LUN) (476 ppl)</t>
         </is>
       </c>
       <c r="D222" t="inlineStr"/>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="C226" s="10" t="inlineStr">
         <is>
-          <t>Colloquium on Energy Frontier Physics (21W) (KNE 130 - 215 ppl)</t>
+          <t>Colloquium on Energy Frontier Physics (21W) (KNE 130 - 238 ppl)</t>
         </is>
       </c>
       <c r="D226" t="inlineStr"/>
@@ -5174,7 +5174,7 @@
       </c>
       <c r="C229" s="10" t="inlineStr">
         <is>
-          <t>Colloquium on Computing (172 ppl)</t>
+          <t>Colloquium on Computing (190 ppl)</t>
         </is>
       </c>
       <c r="D229" t="inlineStr"/>
@@ -5262,7 +5262,7 @@
       </c>
       <c r="C233" s="10" t="inlineStr">
         <is>
-          <t>Quantum Information Science in HEP (23X) (KNE 130 - 215 ppl)</t>
+          <t>Quantum Information Science in HEP (23X) (KNE 130 - 238 ppl)</t>
         </is>
       </c>
       <c r="D233" t="inlineStr"/>
@@ -5575,42 +5575,42 @@
       </c>
       <c r="F247" s="27" t="inlineStr">
         <is>
+          <t>NF Beyond neutrino mass physics reach of precision beta-decay experiments (21K) (20 ppl)</t>
+        </is>
+      </c>
+      <c r="G247" s="27" t="inlineStr">
+        <is>
           <t>NF Community Engagement Success Stories (22I) (20 ppl)</t>
         </is>
       </c>
-      <c r="G247" s="27" t="inlineStr">
+      <c r="H247" s="27" t="inlineStr">
         <is>
           <t>NF Early Career Presentations (Topic 3) (20H) (30 ppl)</t>
         </is>
       </c>
-      <c r="H247" s="19" t="inlineStr">
+      <c r="I247" s="19" t="inlineStr">
         <is>
           <t>NF Early Career Presentations (Topic 4) (20J) (JHN 175 - 60 ppl)</t>
         </is>
       </c>
-      <c r="I247" s="25" t="inlineStr">
+      <c r="J247" s="25" t="inlineStr">
         <is>
           <t>TF Discussion and frontier reports (19P) (KNE 220 - 175 ppl)</t>
         </is>
       </c>
-      <c r="J247" s="23" t="inlineStr">
+      <c r="K247" s="23" t="inlineStr">
         <is>
           <t>UF UF6 (23B) (25 ppl)</t>
         </is>
       </c>
-      <c r="K247" s="20" t="inlineStr">
+      <c r="L247" s="20" t="inlineStr">
         <is>
           <t>XF AF-CompF Cross-cutting issues (22E) (JHN 075 - 70 ppl)</t>
         </is>
       </c>
-      <c r="L247" s="26" t="inlineStr">
+      <c r="M247" s="26" t="inlineStr">
         <is>
           <t>XF AF-RF cross-cutting issues (22B) (40 ppl)</t>
-        </is>
-      </c>
-      <c r="M247" s="26" t="inlineStr">
-        <is>
-          <t>XF NF-CF Neutrino mass scale with beta decay kinematics (22C) (30 ppl)</t>
         </is>
       </c>
       <c r="N247" s="20" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="C251" s="11" t="inlineStr">
         <is>
-          <t>Lunch (24LUN) (430 ppl)</t>
+          <t>Lunch (24LUN) (476 ppl)</t>
         </is>
       </c>
       <c r="D251" t="inlineStr"/>
@@ -5788,7 +5788,7 @@
       </c>
       <c r="C255" s="10" t="inlineStr">
         <is>
-          <t>Snowmass Early Career (24S) (KNE 130 - 129 ppl)</t>
+          <t>Snowmass Early Career (24S) (KNE 130 - 142 ppl)</t>
         </is>
       </c>
       <c r="D255" t="inlineStr"/>
@@ -5855,12 +5855,12 @@
       </c>
       <c r="C258" s="10" t="inlineStr">
         <is>
-          <t>Instrumentation Projects (129 ppl)</t>
+          <t>Instrumentation Projects (142 ppl)</t>
         </is>
       </c>
       <c r="D258" s="10" t="inlineStr">
         <is>
-          <t>Underrepresented Minorities (KNE 130 - 129 ppl)</t>
+          <t>Underrepresented Minorities (KNE 130 - 142 ppl)</t>
         </is>
       </c>
       <c r="E258" t="inlineStr"/>
@@ -5947,7 +5947,7 @@
       </c>
       <c r="C262" s="10" t="inlineStr">
         <is>
-          <t>DOE NSF FNAL Director and other US Labs Panel (24U) (KNE 130 - 258 ppl)</t>
+          <t>DOE NSF FNAL Director and other US Labs Panel (24U) (KNE 130 - 285 ppl)</t>
         </is>
       </c>
       <c r="D262" t="inlineStr"/>
@@ -6122,7 +6122,7 @@
       </c>
       <c r="C272" s="10" t="inlineStr">
         <is>
-          <t>Summary Plenary (25B) (KNE 130 - 430 ppl)</t>
+          <t>Summary Plenary (25B) (KNE 130 - 476 ppl)</t>
         </is>
       </c>
     </row>
@@ -6166,7 +6166,7 @@
       </c>
       <c r="C277" s="10" t="inlineStr">
         <is>
-          <t>Communicating HEP to the public and govt (KNE 130 - 430 ppl)</t>
+          <t>Communicating HEP to the public and govt (KNE 130 - 476 ppl)</t>
         </is>
       </c>
     </row>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="C280" s="11" t="inlineStr">
         <is>
-          <t>Lunch (25LUN) (430 ppl)</t>
+          <t>Lunch (25LUN) (476 ppl)</t>
         </is>
       </c>
     </row>
@@ -6230,7 +6230,7 @@
       </c>
       <c r="C284" s="10" t="inlineStr">
         <is>
-          <t>Panel - interconnections between frontiers and other fields panel (25C) (KNE 130 - 430 ppl)</t>
+          <t>Panel - interconnections between frontiers and other fields panel (25C) (KNE 130 - 476 ppl)</t>
         </is>
       </c>
     </row>
@@ -6266,7 +6266,7 @@
       </c>
       <c r="C288" s="10" t="inlineStr">
         <is>
-          <t>Talks - National International Leaders (KNE 130 - 430 ppl)</t>
+          <t>Talks - National International Leaders (KNE 130 - 476 ppl)</t>
         </is>
       </c>
     </row>
@@ -6294,7 +6294,7 @@
       </c>
       <c r="C291" s="10" t="inlineStr">
         <is>
-          <t>Panel - International Status and Plans (KNE 130 - 430 ppl)</t>
+          <t>Panel - International Status and Plans (KNE 130 - 476 ppl)</t>
         </is>
       </c>
     </row>
@@ -6386,7 +6386,7 @@
       </c>
       <c r="C302" s="10" t="inlineStr">
         <is>
-          <t>Closeout Plenary (26B) (KNE 130 - 430 ppl)</t>
+          <t>Closeout Plenary (26B) (KNE 130 - 476 ppl)</t>
         </is>
       </c>
     </row>
@@ -6666,14 +6666,14 @@
     <mergeCell ref="G156:G163"/>
     <mergeCell ref="H156:H163"/>
     <mergeCell ref="I156:I163"/>
-    <mergeCell ref="J156:J163"/>
-    <mergeCell ref="K156:K159"/>
-    <mergeCell ref="L156:L163"/>
-    <mergeCell ref="M156:M159"/>
+    <mergeCell ref="J156:J159"/>
+    <mergeCell ref="K156:K163"/>
+    <mergeCell ref="L156:L159"/>
+    <mergeCell ref="M156:M163"/>
     <mergeCell ref="N156:N159"/>
     <mergeCell ref="O156:O159"/>
-    <mergeCell ref="K160:K163"/>
-    <mergeCell ref="M160:M163"/>
+    <mergeCell ref="J160:J163"/>
+    <mergeCell ref="L160:L163"/>
     <mergeCell ref="N160:N163"/>
     <mergeCell ref="O160:O163"/>
     <mergeCell ref="C164:C167"/>
@@ -9204,32 +9204,32 @@
       </c>
       <c r="H38" s="27" t="inlineStr">
         <is>
-          <t>NF Beyond neutrino mass physics reach of precision beta-decay experiments (21K) (20 ppl)</t>
-        </is>
-      </c>
-      <c r="I38" s="27" t="inlineStr">
-        <is>
           <t>NF Blue Skye/Very Long Term ideas (21M) (30 ppl)</t>
         </is>
       </c>
-      <c r="J38" s="25" t="inlineStr">
+      <c r="I38" s="25" t="inlineStr">
         <is>
           <t>TF TF2-TF5 (18D) (JHN 111 - 50 ppl)</t>
         </is>
       </c>
+      <c r="J38" s="26" t="inlineStr">
+        <is>
+          <t>XF EF-CompF EF Centric Discussions (18X) (40 ppl)</t>
+        </is>
+      </c>
       <c r="K38" s="26" t="inlineStr">
         <is>
-          <t>XF EF-CompF EF Centric Discussions (18X) (40 ppl)</t>
+          <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I) (40 ppl)</t>
         </is>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>XF IF-EF-AF-IF Detectors and MDI and Plots (21I) (40 ppl)</t>
+          <t>XF IF-RF-EF Focus on timing and more generally tracking detectors (21J) (40 ppl)</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
         <is>
-          <t>XF IF-RF-EF Focus on timing and more generally tracking detectors (21J) (40 ppl)</t>
+          <t>XF NF-CF Neutrino mass scale with beta decay kinematics (22C) (30 ppl)</t>
         </is>
       </c>
       <c r="N38" s="20" t="inlineStr">
@@ -9316,18 +9316,18 @@
       <c r="G42" s="9" t="n"/>
       <c r="H42" s="9" t="n"/>
       <c r="I42" s="9" t="n"/>
-      <c r="J42" s="9" t="n"/>
-      <c r="K42" s="15" t="inlineStr">
+      <c r="J42" s="15" t="inlineStr">
         <is>
           <t>CompF CompF7 Reinterpretation and long-term preservation of data and code (20D) (20 ppl)</t>
         </is>
       </c>
-      <c r="L42" s="9" t="n"/>
-      <c r="M42" s="16" t="inlineStr">
+      <c r="K42" s="9" t="n"/>
+      <c r="L42" s="16" t="inlineStr">
         <is>
           <t>EF DM Discussion (21N) (KNE 110 - 100 ppl)</t>
         </is>
       </c>
+      <c r="M42" s="9" t="n"/>
       <c r="N42" s="26" t="inlineStr">
         <is>
           <t>XF RF-CF RF1 large-volume data analysis and simulation and usage of HPC in data analysis (24B) (30 ppl)</t>
@@ -10097,42 +10097,42 @@
       </c>
       <c r="F72" s="27" t="inlineStr">
         <is>
+          <t>NF Beyond neutrino mass physics reach of precision beta-decay experiments (21K) (20 ppl)</t>
+        </is>
+      </c>
+      <c r="G72" s="27" t="inlineStr">
+        <is>
           <t>NF Community Engagement Success Stories (22I) (20 ppl)</t>
         </is>
       </c>
-      <c r="G72" s="27" t="inlineStr">
+      <c r="H72" s="27" t="inlineStr">
         <is>
           <t>NF Early Career Presentations (Topic 3) (20H) (30 ppl)</t>
         </is>
       </c>
-      <c r="H72" s="19" t="inlineStr">
+      <c r="I72" s="19" t="inlineStr">
         <is>
           <t>NF Early Career Presentations (Topic 4) (20J) (JHN 175 - 60 ppl)</t>
         </is>
       </c>
-      <c r="I72" s="25" t="inlineStr">
+      <c r="J72" s="25" t="inlineStr">
         <is>
           <t>TF Discussion and frontier reports (19P) (KNE 220 - 175 ppl)</t>
         </is>
       </c>
-      <c r="J72" s="23" t="inlineStr">
+      <c r="K72" s="23" t="inlineStr">
         <is>
           <t>UF UF6 (23B) (25 ppl)</t>
         </is>
       </c>
-      <c r="K72" s="20" t="inlineStr">
+      <c r="L72" s="20" t="inlineStr">
         <is>
           <t>XF AF-CompF Cross-cutting issues (22E) (JHN 075 - 70 ppl)</t>
         </is>
       </c>
-      <c r="L72" s="26" t="inlineStr">
+      <c r="M72" s="26" t="inlineStr">
         <is>
           <t>XF AF-RF cross-cutting issues (22B) (40 ppl)</t>
-        </is>
-      </c>
-      <c r="M72" s="26" t="inlineStr">
-        <is>
-          <t>XF NF-CF Neutrino mass scale with beta decay kinematics (22C) (30 ppl)</t>
         </is>
       </c>
       <c r="N72" s="20" t="inlineStr">
@@ -10297,14 +10297,14 @@
     <mergeCell ref="G38:G45"/>
     <mergeCell ref="H38:H45"/>
     <mergeCell ref="I38:I45"/>
-    <mergeCell ref="J38:J45"/>
-    <mergeCell ref="K38:K41"/>
-    <mergeCell ref="L38:L45"/>
-    <mergeCell ref="M38:M41"/>
+    <mergeCell ref="J38:J41"/>
+    <mergeCell ref="K38:K45"/>
+    <mergeCell ref="L38:L41"/>
+    <mergeCell ref="M38:M45"/>
     <mergeCell ref="N38:N41"/>
     <mergeCell ref="O38:O41"/>
-    <mergeCell ref="K42:K45"/>
-    <mergeCell ref="M42:M45"/>
+    <mergeCell ref="J42:J45"/>
+    <mergeCell ref="L42:L45"/>
     <mergeCell ref="N42:N45"/>
     <mergeCell ref="O42:O45"/>
     <mergeCell ref="C48:C55"/>
@@ -11444,11 +11444,11 @@
         <v>-1</v>
       </c>
       <c r="G12" s="32" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>NF Beyond neutrino mass physics reach of precision beta-decay experiments (21K)</t>
+          <t>XF NF-CF Neutrino mass scale with beta decay kinematics (22C)</t>
         </is>
       </c>
     </row>
@@ -11785,11 +11785,11 @@
         <v>-1</v>
       </c>
       <c r="G23" s="32" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>XF NF-CF Neutrino mass scale with beta decay kinematics (22C)</t>
+          <t>NF Beyond neutrino mass physics reach of precision beta-decay experiments (21K)</t>
         </is>
       </c>
     </row>
@@ -12997,20 +12997,20 @@
       <c r="D15" t="n">
         <v>4</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>KNE 120</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>435</v>
-      </c>
-      <c r="G15" t="n">
-        <v>200</v>
+      <c r="E15" s="31" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F15" s="32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G15" s="32" t="n">
+        <v>30</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>CF Report Discussion (24M)</t>
+          <t>XF NF-CF Neutrino mass scale with beta decay kinematics (22C)</t>
         </is>
       </c>
     </row>
@@ -13022,42 +13022,42 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="31" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F16" s="32" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G16" s="32" t="n">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>KNE 120</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>435</v>
+      </c>
+      <c r="G16" t="n">
+        <v>200</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>XF RF-CF RF1 large-volume data analysis and simulation and usage of HPC in data analysis (24B)</t>
+          <t>CF Report Discussion (24M)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="1" t="inlineStr">
         <is>
-          <t>7-23</t>
+          <t>7-21</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8am-12pm</t>
+          <t>10am-12pm</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" s="31" t="inlineStr">
         <is>
@@ -13072,7 +13072,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>XF IF-CF-CompF Instrumentation for Cosmic Frontier (21H)</t>
+          <t>XF RF-CF RF1 large-volume data analysis and simulation and usage of HPC in data analysis (24B)</t>
         </is>
       </c>
     </row>
@@ -13090,20 +13090,20 @@
       <c r="D18" t="n">
         <v>4</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>KNE 210</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>242</v>
-      </c>
-      <c r="G18" t="n">
-        <v>50</v>
+      <c r="E18" s="31" t="inlineStr">
+        <is>
+          <t>???</t>
+        </is>
+      </c>
+      <c r="F18" s="32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G18" s="32" t="n">
+        <v>30</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>XF NF-CF-IF Dark matter detector (22J)</t>
+          <t>XF IF-CF-CompF Instrumentation for Cosmic Frontier (21H)</t>
         </is>
       </c>
     </row>
@@ -13123,49 +13123,49 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>KNE 120</t>
+          <t>KNE 210</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>435</v>
+        <v>242</v>
       </c>
       <c r="G19" t="n">
         <v>50</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>XF TF-CF Cosmic Frontier Theory (19K)</t>
+          <t>XF NF-CF-IF Dark matter detector (22J)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>7-24</t>
+          <t>7-23</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10am-12pm</t>
+          <t>8am-12pm</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>2</v>
-      </c>
-      <c r="E20" s="31" t="inlineStr">
-        <is>
-          <t>???</t>
-        </is>
-      </c>
-      <c r="F20" s="32" t="n">
-        <v>-1</v>
-      </c>
-      <c r="G20" s="32" t="n">
-        <v>30</v>
+        <v>4</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>KNE 120</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>435</v>
+      </c>
+      <c r="G20" t="n">
+        <v>50</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>XF NF-CF Neutrino mass scale with beta decay kinematics (22C)</t>
+          <t>XF TF-CF Cosmic Frontier Theory (19K)</t>
         </is>
       </c>
     </row>
